--- a/DataBank/PI3.xlsx
+++ b/DataBank/PI3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\Facul\PI3\PI3_2022-main\DataBank\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\PI3_2022\DataBank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{010C73DB-8CC1-4984-90B1-4FCCCA8A0439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8664E089-7D12-481B-A825-2A8264AD4BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{1FA0CD50-8069-4FE1-B76F-0CED6E0B9EA9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="112">
   <si>
     <t>ID</t>
   </si>
@@ -86,9 +86,6 @@
     <t>53,18,80</t>
   </si>
   <si>
-    <t>6.8</t>
-  </si>
-  <si>
     <t>Where the Crawdads Sing</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>Obi-Wan Kenobi: A Jedi's Return</t>
   </si>
   <si>
-    <t>8.19</t>
-  </si>
-  <si>
     <t>Sous emprise</t>
   </si>
   <si>
@@ -179,9 +173,6 @@
     <t>27,35,10770</t>
   </si>
   <si>
-    <t>6.9</t>
-  </si>
-  <si>
     <t>Broad Peak</t>
   </si>
   <si>
@@ -194,24 +185,9 @@
     <t>80,18,53</t>
   </si>
   <si>
-    <t>7.8</t>
-  </si>
-  <si>
     <t>Deus</t>
   </si>
   <si>
-    <t>4.9</t>
-  </si>
-  <si>
-    <t>7.86</t>
-  </si>
-  <si>
-    <t>7.6</t>
-  </si>
-  <si>
-    <t>8.04</t>
-  </si>
-  <si>
     <t>Ranking</t>
   </si>
   <si>
@@ -221,18 +197,12 @@
     <t>18,27,9648</t>
   </si>
   <si>
-    <t>7.4</t>
-  </si>
-  <si>
     <t>21.83</t>
   </si>
   <si>
     <t>Do Revenge</t>
   </si>
   <si>
-    <t>6.5</t>
-  </si>
-  <si>
     <t>The Invitation</t>
   </si>
   <si>
@@ -248,9 +218,6 @@
     <t>Confess, Fletch</t>
   </si>
   <si>
-    <t>7.7</t>
-  </si>
-  <si>
     <t>Gæsterne</t>
   </si>
   <si>
@@ -260,18 +227,9 @@
     <t>16,18,9648,14</t>
   </si>
   <si>
-    <t>8.3</t>
-  </si>
-  <si>
     <t>15.38</t>
   </si>
   <si>
-    <t>7.64</t>
-  </si>
-  <si>
-    <t>5.8</t>
-  </si>
-  <si>
     <t>27,18,53</t>
   </si>
   <si>
@@ -281,15 +239,6 @@
     <t>16,18,9648,14,10751</t>
   </si>
   <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>7.3</t>
-  </si>
-  <si>
-    <t>6.7</t>
-  </si>
-  <si>
     <t>12,18,27</t>
   </si>
   <si>
@@ -299,12 +248,6 @@
     <t>Espejo, espejo</t>
   </si>
   <si>
-    <t>6.6</t>
-  </si>
-  <si>
-    <t>7.2</t>
-  </si>
-  <si>
     <t>Speak No Evil</t>
   </si>
   <si>
@@ -317,9 +260,6 @@
     <t>2282.67</t>
   </si>
   <si>
-    <t>5.9</t>
-  </si>
-  <si>
     <t>2281.34</t>
   </si>
   <si>
@@ -341,12 +281,6 @@
     <t>1403.23</t>
   </si>
   <si>
-    <t>6.97</t>
-  </si>
-  <si>
-    <t>7.15</t>
-  </si>
-  <si>
     <t>The Munsters</t>
   </si>
   <si>
@@ -362,18 +296,12 @@
     <t>Don't Worry Darling</t>
   </si>
   <si>
-    <t>6.1</t>
-  </si>
-  <si>
     <t>Meet Cute</t>
   </si>
   <si>
     <t>10749,35,18,878</t>
   </si>
   <si>
-    <t>5.2</t>
-  </si>
-  <si>
     <t>164.69</t>
   </si>
   <si>
@@ -413,61 +341,31 @@
     <t>18,80,9648,53</t>
   </si>
   <si>
-    <t>5.3</t>
-  </si>
-  <si>
     <t>The Enforcer</t>
   </si>
   <si>
     <t>48.23</t>
   </si>
   <si>
-    <t>4.7</t>
-  </si>
-  <si>
     <t>Dig</t>
   </si>
   <si>
     <t>Section 8</t>
   </si>
   <si>
-    <t>4.5</t>
-  </si>
-  <si>
     <t>1645.58</t>
   </si>
   <si>
-    <t>7.61</t>
-  </si>
-  <si>
     <t>Pokémon: The Arceus Chronicles</t>
   </si>
   <si>
     <t>1.4</t>
   </si>
   <si>
-    <t>7.5</t>
-  </si>
-  <si>
-    <t>6.2</t>
-  </si>
-  <si>
-    <t>8.2</t>
-  </si>
-  <si>
     <t>鋼の錬金術師 完結編 最後の錬成</t>
   </si>
   <si>
     <t>28,12,14</t>
-  </si>
-  <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>8.36</t>
-  </si>
-  <si>
-    <t>1.5</t>
   </si>
   <si>
     <t>Mortal Kombat Legends: Snow Blind</t>
@@ -829,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5853070-D245-47D8-B2D7-57AE924EF8EE}">
   <dimension ref="A1:I201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H182" sqref="H182"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,7 +769,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -891,7 +789,7 @@
         <v>44811</v>
       </c>
       <c r="F2" s="1">
-        <v>6824</v>
+        <v>7</v>
       </c>
       <c r="G2">
         <v>346</v>
@@ -920,7 +818,7 @@
         <v>44748</v>
       </c>
       <c r="F3" s="1">
-        <v>6809</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>3122</v>
@@ -949,7 +847,7 @@
         <v>44784</v>
       </c>
       <c r="F4" s="1">
-        <v>7103</v>
+        <v>7</v>
       </c>
       <c r="G4">
         <v>233</v>
@@ -977,8 +875,8 @@
       <c r="E5" s="2">
         <v>44813</v>
       </c>
-      <c r="F5" t="s">
-        <v>16</v>
+      <c r="F5">
+        <v>6.8</v>
       </c>
       <c r="G5">
         <v>78</v>
@@ -995,10 +893,10 @@
         <v>682507</v>
       </c>
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
       </c>
       <c r="D6" s="1">
         <v>866191</v>
@@ -1007,7 +905,7 @@
         <v>44757</v>
       </c>
       <c r="F6" s="1">
-        <v>7444</v>
+        <v>7</v>
       </c>
       <c r="G6">
         <v>196</v>
@@ -1024,10 +922,10 @@
         <v>556694</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
       </c>
       <c r="D7" s="1">
         <v>79279</v>
@@ -1053,7 +951,7 @@
         <v>361743</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>28.18</v>
@@ -1065,7 +963,7 @@
         <v>44705</v>
       </c>
       <c r="F8" s="1">
-        <v>8365</v>
+        <v>8</v>
       </c>
       <c r="G8">
         <v>3657</v>
@@ -1082,10 +980,10 @@
         <v>507086</v>
       </c>
       <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
       </c>
       <c r="D9" s="1">
         <v>2179113</v>
@@ -1094,7 +992,7 @@
         <v>44713</v>
       </c>
       <c r="F9" s="1">
-        <v>7075</v>
+        <v>7</v>
       </c>
       <c r="G9">
         <v>3300</v>
@@ -1111,7 +1009,7 @@
         <v>1015606</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>99</v>
@@ -1122,8 +1020,8 @@
       <c r="E10" s="2">
         <v>44812</v>
       </c>
-      <c r="F10" t="s">
-        <v>25</v>
+      <c r="F10">
+        <v>8.19</v>
       </c>
       <c r="G10">
         <v>29</v>
@@ -1140,19 +1038,19 @@
         <v>911129</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" s="2">
         <v>44813</v>
       </c>
       <c r="F11" s="1">
-        <v>6604</v>
+        <v>7</v>
       </c>
       <c r="G11">
         <v>67</v>
@@ -1169,10 +1067,10 @@
         <v>762504</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1">
         <v>1684149</v>
@@ -1181,7 +1079,7 @@
         <v>44762</v>
       </c>
       <c r="F12" s="1">
-        <v>7047</v>
+        <v>7</v>
       </c>
       <c r="G12">
         <v>1387</v>
@@ -1198,10 +1096,10 @@
         <v>614934</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1">
         <v>456684</v>
@@ -1210,7 +1108,7 @@
         <v>44734</v>
       </c>
       <c r="F13" s="1">
-        <v>7863</v>
+        <v>8</v>
       </c>
       <c r="G13">
         <v>1432</v>
@@ -1227,19 +1125,19 @@
         <v>634649</v>
       </c>
       <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
         <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
       </c>
       <c r="E14" s="2">
         <v>44545</v>
       </c>
       <c r="F14" s="1">
-        <v>8041</v>
+        <v>8</v>
       </c>
       <c r="G14">
         <v>15057</v>
@@ -1256,7 +1154,7 @@
         <v>985939</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>53</v>
@@ -1268,7 +1166,7 @@
         <v>44784</v>
       </c>
       <c r="F15" s="1">
-        <v>7444</v>
+        <v>7</v>
       </c>
       <c r="G15">
         <v>474</v>
@@ -1285,7 +1183,7 @@
         <v>862965</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>80.53</v>
@@ -1314,10 +1212,10 @@
         <v>438148</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17" s="1">
         <v>2059239</v>
@@ -1326,7 +1224,7 @@
         <v>44741</v>
       </c>
       <c r="F17" s="1">
-        <v>7652</v>
+        <v>8</v>
       </c>
       <c r="G17">
         <v>1899</v>
@@ -1343,10 +1241,10 @@
         <v>453395</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D18" s="1">
         <v>1314056</v>
@@ -1355,7 +1253,7 @@
         <v>44685</v>
       </c>
       <c r="F18" s="1">
-        <v>7479</v>
+        <v>7</v>
       </c>
       <c r="G18">
         <v>5681</v>
@@ -1372,10 +1270,10 @@
         <v>629176</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D19" s="1">
         <v>4504642</v>
@@ -1384,7 +1282,7 @@
         <v>44798</v>
       </c>
       <c r="F19" s="1">
-        <v>7023</v>
+        <v>7</v>
       </c>
       <c r="G19">
         <v>913</v>
@@ -1401,10 +1299,10 @@
         <v>539681</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D20" s="1">
         <v>2625476</v>
@@ -1413,7 +1311,7 @@
         <v>44769</v>
       </c>
       <c r="F20" s="1">
-        <v>7593</v>
+        <v>8</v>
       </c>
       <c r="G20">
         <v>503</v>
@@ -1430,10 +1328,10 @@
         <v>894205</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D21" s="1">
         <v>3203</v>
@@ -1459,10 +1357,10 @@
         <v>556694</v>
       </c>
       <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
         <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>20</v>
       </c>
       <c r="D22" s="1">
         <v>155387</v>
@@ -1470,8 +1368,8 @@
       <c r="E22" s="2">
         <v>44797</v>
       </c>
-      <c r="F22" t="s">
-        <v>47</v>
+      <c r="F22">
+        <v>6.9</v>
       </c>
       <c r="G22">
         <v>124</v>
@@ -1500,7 +1398,7 @@
         <v>44748</v>
       </c>
       <c r="F23" s="1">
-        <v>6797</v>
+        <v>7</v>
       </c>
       <c r="G23">
         <v>3275</v>
@@ -1517,7 +1415,7 @@
         <v>862965</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C24">
         <v>80.53</v>
@@ -1529,7 +1427,7 @@
         <v>44785</v>
       </c>
       <c r="F24" s="1">
-        <v>7536</v>
+        <v>7.5359999999999996</v>
       </c>
       <c r="G24">
         <v>28</v>
@@ -1546,7 +1444,7 @@
         <v>999127</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C25">
         <v>18</v>
@@ -1557,8 +1455,8 @@
       <c r="E25" s="2">
         <v>44813</v>
       </c>
-      <c r="F25" t="s">
-        <v>16</v>
+      <c r="F25">
+        <v>6.8</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -1587,7 +1485,7 @@
         <v>44811</v>
       </c>
       <c r="F26" s="1">
-        <v>6788</v>
+        <v>6.7880000000000003</v>
       </c>
       <c r="G26">
         <v>431</v>
@@ -1604,7 +1502,7 @@
         <v>361743</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27">
         <v>28.18</v>
@@ -1616,7 +1514,7 @@
         <v>44705</v>
       </c>
       <c r="F27" s="1">
-        <v>8369</v>
+        <v>8.3689999999999998</v>
       </c>
       <c r="G27">
         <v>3695</v>
@@ -1633,7 +1531,7 @@
         <v>747687</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C28">
         <v>18</v>
@@ -1645,7 +1543,7 @@
         <v>44476</v>
       </c>
       <c r="F28" s="1">
-        <v>6311</v>
+        <v>6.3109999999999999</v>
       </c>
       <c r="G28">
         <v>177</v>
@@ -1662,10 +1560,10 @@
         <v>801965</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D29" s="1">
         <v>15299</v>
@@ -1673,8 +1571,8 @@
       <c r="E29" s="2">
         <v>44798</v>
       </c>
-      <c r="F29" t="s">
-        <v>52</v>
+      <c r="F29">
+        <v>7.8</v>
       </c>
       <c r="G29">
         <v>11</v>
@@ -1691,10 +1589,10 @@
         <v>682507</v>
       </c>
       <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
         <v>17</v>
-      </c>
-      <c r="C30" t="s">
-        <v>18</v>
       </c>
       <c r="D30" s="1">
         <v>778053</v>
@@ -1703,7 +1601,7 @@
         <v>44757</v>
       </c>
       <c r="F30" s="1">
-        <v>7418</v>
+        <v>7.4180000000000001</v>
       </c>
       <c r="G30">
         <v>225</v>
@@ -1732,7 +1630,7 @@
         <v>44813</v>
       </c>
       <c r="F31" s="1">
-        <v>6631</v>
+        <v>6.6310000000000002</v>
       </c>
       <c r="G31">
         <v>107</v>
@@ -1761,7 +1659,7 @@
         <v>44784</v>
       </c>
       <c r="F32" s="1">
-        <v>7092</v>
+        <v>7.0919999999999996</v>
       </c>
       <c r="G32">
         <v>298</v>
@@ -1778,10 +1676,10 @@
         <v>438148</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D33" s="1">
         <v>1643145</v>
@@ -1790,7 +1688,7 @@
         <v>44741</v>
       </c>
       <c r="F33" s="1">
-        <v>7646</v>
+        <v>7.6459999999999999</v>
       </c>
       <c r="G33">
         <v>1917</v>
@@ -1807,7 +1705,7 @@
         <v>985939</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C34">
         <v>53</v>
@@ -1819,7 +1717,7 @@
         <v>44784</v>
       </c>
       <c r="F34" s="1">
-        <v>7413</v>
+        <v>7.4130000000000003</v>
       </c>
       <c r="G34">
         <v>571</v>
@@ -1836,7 +1734,7 @@
         <v>604571</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C35">
         <v>878.53</v>
@@ -1847,8 +1745,8 @@
       <c r="E35" s="2">
         <v>44703</v>
       </c>
-      <c r="F35" t="s">
-        <v>54</v>
+      <c r="F35">
+        <v>4.9000000000000004</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -1865,10 +1763,10 @@
         <v>614934</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D36" s="1">
         <v>358957</v>
@@ -1876,8 +1774,8 @@
       <c r="E36" s="2">
         <v>44734</v>
       </c>
-      <c r="F36" t="s">
-        <v>55</v>
+      <c r="F36">
+        <v>7.86</v>
       </c>
       <c r="G36">
         <v>1447</v>
@@ -1894,10 +1792,10 @@
         <v>762504</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D37" s="1">
         <v>1261531</v>
@@ -1906,7 +1804,7 @@
         <v>44762</v>
       </c>
       <c r="F37" s="1">
-        <v>7022</v>
+        <v>7.0220000000000002</v>
       </c>
       <c r="G37">
         <v>1413</v>
@@ -1923,10 +1821,10 @@
         <v>507086</v>
       </c>
       <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" t="s">
         <v>22</v>
-      </c>
-      <c r="C38" t="s">
-        <v>23</v>
       </c>
       <c r="D38" s="1">
         <v>1753842</v>
@@ -1935,7 +1833,7 @@
         <v>44713</v>
       </c>
       <c r="F38" s="1">
-        <v>7075</v>
+        <v>7.0750000000000002</v>
       </c>
       <c r="G38">
         <v>3321</v>
@@ -1952,10 +1850,10 @@
         <v>539681</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D39" s="1">
         <v>1861492</v>
@@ -1963,8 +1861,8 @@
       <c r="E39" s="2">
         <v>44769</v>
       </c>
-      <c r="F39" t="s">
-        <v>56</v>
+      <c r="F39">
+        <v>7.6</v>
       </c>
       <c r="G39">
         <v>522</v>
@@ -1981,7 +1879,7 @@
         <v>911129</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C40">
         <v>18</v>
@@ -1993,7 +1891,7 @@
         <v>44813</v>
       </c>
       <c r="F40" s="1">
-        <v>6302</v>
+        <v>6.3019999999999996</v>
       </c>
       <c r="G40">
         <v>91</v>
@@ -2010,10 +1908,10 @@
         <v>634649</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D41" s="1">
         <v>1083999</v>
@@ -2021,8 +1919,8 @@
       <c r="E41" s="2">
         <v>44545</v>
       </c>
-      <c r="F41" t="s">
-        <v>57</v>
+      <c r="F41">
+        <v>8.0399999999999991</v>
       </c>
       <c r="G41">
         <v>15088</v>
@@ -2051,7 +1949,7 @@
         <v>44748</v>
       </c>
       <c r="F42" s="1">
-        <v>6796</v>
+        <v>6.7960000000000003</v>
       </c>
       <c r="G42">
         <v>3305</v>
@@ -2068,10 +1966,10 @@
         <v>814800</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D43" s="1">
         <v>46824</v>
@@ -2079,8 +1977,8 @@
       <c r="E43" s="2">
         <v>44820</v>
       </c>
-      <c r="F43" t="s">
-        <v>61</v>
+      <c r="F43">
+        <v>7.4</v>
       </c>
       <c r="G43">
         <v>7</v>
@@ -2097,10 +1995,10 @@
         <v>556694</v>
       </c>
       <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" t="s">
         <v>19</v>
-      </c>
-      <c r="C44" t="s">
-        <v>20</v>
       </c>
       <c r="D44" s="1">
         <v>217542</v>
@@ -2108,8 +2006,8 @@
       <c r="E44" s="2">
         <v>44797</v>
       </c>
-      <c r="F44" t="s">
-        <v>47</v>
+      <c r="F44">
+        <v>6.9</v>
       </c>
       <c r="G44">
         <v>138</v>
@@ -2126,19 +2024,19 @@
         <v>862965</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C45">
         <v>80.53</v>
       </c>
       <c r="D45" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E45" s="2">
         <v>44785</v>
       </c>
       <c r="F45" s="1">
-        <v>7574</v>
+        <v>7.5739999999999998</v>
       </c>
       <c r="G45">
         <v>34</v>
@@ -2167,7 +2065,7 @@
         <v>44811</v>
       </c>
       <c r="F46" s="1">
-        <v>6741</v>
+        <v>6.7409999999999997</v>
       </c>
       <c r="G46">
         <v>451</v>
@@ -2184,7 +2082,7 @@
         <v>762968</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C47">
         <v>35</v>
@@ -2195,8 +2093,8 @@
       <c r="E47" s="2">
         <v>44818</v>
       </c>
-      <c r="F47" t="s">
-        <v>64</v>
+      <c r="F47">
+        <v>6.5</v>
       </c>
       <c r="G47">
         <v>5</v>
@@ -2213,19 +2111,19 @@
         <v>830788</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C48">
         <v>27.53</v>
       </c>
       <c r="D48" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E48" s="2">
         <v>44797</v>
       </c>
       <c r="F48" s="1">
-        <v>6223</v>
+        <v>6.2229999999999999</v>
       </c>
       <c r="G48">
         <v>47</v>
@@ -2242,10 +2140,10 @@
         <v>1013228</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D49" s="1">
         <v>5529</v>
@@ -2283,7 +2181,7 @@
         <v>44784</v>
       </c>
       <c r="F50" s="1">
-        <v>7044</v>
+        <v>7.0439999999999996</v>
       </c>
       <c r="G50">
         <v>307</v>
@@ -2300,7 +2198,7 @@
         <v>361743</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C51">
         <v>28.18</v>
@@ -2312,7 +2210,7 @@
         <v>44705</v>
       </c>
       <c r="F51" s="1">
-        <v>8369</v>
+        <v>8.3689999999999998</v>
       </c>
       <c r="G51">
         <v>3711</v>
@@ -2329,7 +2227,7 @@
         <v>724665</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C52">
         <v>80.349999999999994</v>
@@ -2358,10 +2256,10 @@
         <v>801965</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C53" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D53" s="1">
         <v>21419</v>
@@ -2369,8 +2267,8 @@
       <c r="E53" s="2">
         <v>44798</v>
       </c>
-      <c r="F53" t="s">
-        <v>70</v>
+      <c r="F53">
+        <v>7.7</v>
       </c>
       <c r="G53">
         <v>14</v>
@@ -2387,7 +2285,7 @@
         <v>833339</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C54">
         <v>27.9648</v>
@@ -2399,7 +2297,7 @@
         <v>44637</v>
       </c>
       <c r="F54" s="1">
-        <v>6667</v>
+        <v>6.6669999999999998</v>
       </c>
       <c r="G54">
         <v>12</v>
@@ -2416,10 +2314,10 @@
         <v>877957</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D55" s="1">
         <v>10752</v>
@@ -2427,8 +2325,8 @@
       <c r="E55" s="2">
         <v>44813</v>
       </c>
-      <c r="F55" t="s">
-        <v>74</v>
+      <c r="F55">
+        <v>8.3000000000000007</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -2445,19 +2343,19 @@
         <v>747687</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C56">
         <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E56" s="2">
         <v>44476</v>
       </c>
       <c r="F56" s="1">
-        <v>6304</v>
+        <v>6.3040000000000003</v>
       </c>
       <c r="G56">
         <v>179</v>
@@ -2474,10 +2372,10 @@
         <v>682507</v>
       </c>
       <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" t="s">
         <v>17</v>
-      </c>
-      <c r="C57" t="s">
-        <v>18</v>
       </c>
       <c r="D57" s="1">
         <v>688512</v>
@@ -2486,7 +2384,7 @@
         <v>44757</v>
       </c>
       <c r="F57" s="1">
-        <v>7485</v>
+        <v>7.4850000000000003</v>
       </c>
       <c r="G57">
         <v>237</v>
@@ -2503,7 +2401,7 @@
         <v>999127</v>
       </c>
       <c r="B58" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C58">
         <v>18</v>
@@ -2514,8 +2412,8 @@
       <c r="E58" s="2">
         <v>44813</v>
       </c>
-      <c r="F58" t="s">
-        <v>16</v>
+      <c r="F58">
+        <v>6.8</v>
       </c>
       <c r="G58">
         <v>5</v>
@@ -2532,7 +2430,7 @@
         <v>985939</v>
       </c>
       <c r="B59" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C59">
         <v>53</v>
@@ -2544,7 +2442,7 @@
         <v>44784</v>
       </c>
       <c r="F59" s="1">
-        <v>7404</v>
+        <v>7.4039999999999999</v>
       </c>
       <c r="G59">
         <v>610</v>
@@ -2561,10 +2459,10 @@
         <v>438148</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C60" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D60" s="1">
         <v>1551214</v>
@@ -2572,8 +2470,8 @@
       <c r="E60" s="2">
         <v>44741</v>
       </c>
-      <c r="F60" t="s">
-        <v>76</v>
+      <c r="F60">
+        <v>7.64</v>
       </c>
       <c r="G60">
         <v>1924</v>
@@ -2590,7 +2488,7 @@
         <v>604571</v>
       </c>
       <c r="B61" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C61">
         <v>878.53</v>
@@ -2601,8 +2499,8 @@
       <c r="E61" s="2">
         <v>44703</v>
       </c>
-      <c r="F61" t="s">
-        <v>77</v>
+      <c r="F61">
+        <v>5.8</v>
       </c>
       <c r="G61">
         <v>9</v>
@@ -2619,10 +2517,10 @@
         <v>814800</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C62" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D62" s="1">
         <v>65554</v>
@@ -2631,7 +2529,7 @@
         <v>44820</v>
       </c>
       <c r="F62" s="1">
-        <v>5963</v>
+        <v>5.9630000000000001</v>
       </c>
       <c r="G62">
         <v>27</v>
@@ -2660,7 +2558,7 @@
         <v>44748</v>
       </c>
       <c r="F63" s="1">
-        <v>6801</v>
+        <v>6.8010000000000002</v>
       </c>
       <c r="G63">
         <v>3393</v>
@@ -2677,7 +2575,7 @@
         <v>762968</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C64">
         <v>35</v>
@@ -2689,7 +2587,7 @@
         <v>44818</v>
       </c>
       <c r="F64" s="1">
-        <v>7228</v>
+        <v>7.2279999999999998</v>
       </c>
       <c r="G64">
         <v>46</v>
@@ -2706,19 +2604,19 @@
         <v>556694</v>
       </c>
       <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" t="s">
         <v>19</v>
       </c>
-      <c r="C65" t="s">
-        <v>20</v>
-      </c>
       <c r="D65" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E65" s="2">
         <v>44797</v>
       </c>
       <c r="F65" s="1">
-        <v>6883</v>
+        <v>6.883</v>
       </c>
       <c r="G65">
         <v>171</v>
@@ -2735,7 +2633,7 @@
         <v>830788</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C66">
         <v>27.53</v>
@@ -2747,7 +2645,7 @@
         <v>44797</v>
       </c>
       <c r="F66" s="1">
-        <v>6254</v>
+        <v>6.2539999999999996</v>
       </c>
       <c r="G66">
         <v>61</v>
@@ -2764,10 +2662,10 @@
         <v>1013228</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C67" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D67" s="1">
         <v>7741</v>
@@ -2775,8 +2673,8 @@
       <c r="E67" s="2">
         <v>44813</v>
       </c>
-      <c r="F67" t="s">
-        <v>47</v>
+      <c r="F67">
+        <v>6.9</v>
       </c>
       <c r="G67">
         <v>8</v>
@@ -2793,10 +2691,10 @@
         <v>877957</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C68" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D68" s="1">
         <v>15053</v>
@@ -2805,7 +2703,7 @@
         <v>44813</v>
       </c>
       <c r="F68" s="1">
-        <v>7115</v>
+        <v>7.1150000000000002</v>
       </c>
       <c r="G68">
         <v>13</v>
@@ -2834,7 +2732,7 @@
         <v>44811</v>
       </c>
       <c r="F69" s="1">
-        <v>6815</v>
+        <v>6.8150000000000004</v>
       </c>
       <c r="G69">
         <v>487</v>
@@ -2851,7 +2749,7 @@
         <v>361743</v>
       </c>
       <c r="B70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C70">
         <v>28.18</v>
@@ -2863,7 +2761,7 @@
         <v>44705</v>
       </c>
       <c r="F70" s="1">
-        <v>8367</v>
+        <v>8.3670000000000009</v>
       </c>
       <c r="G70">
         <v>3751</v>
@@ -2880,10 +2778,10 @@
         <v>682507</v>
       </c>
       <c r="B71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" t="s">
         <v>17</v>
-      </c>
-      <c r="C71" t="s">
-        <v>18</v>
       </c>
       <c r="D71" s="1">
         <v>657276</v>
@@ -2892,7 +2790,7 @@
         <v>44757</v>
       </c>
       <c r="F71" s="1">
-        <v>7586</v>
+        <v>7.5860000000000003</v>
       </c>
       <c r="G71">
         <v>268</v>
@@ -2909,7 +2807,7 @@
         <v>724665</v>
       </c>
       <c r="B72" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C72">
         <v>80.349999999999994</v>
@@ -2920,8 +2818,8 @@
       <c r="E72" s="2">
         <v>44820</v>
       </c>
-      <c r="F72" t="s">
-        <v>81</v>
+      <c r="F72">
+        <v>5.4</v>
       </c>
       <c r="G72">
         <v>5</v>
@@ -2938,7 +2836,7 @@
         <v>862965</v>
       </c>
       <c r="B73" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C73">
         <v>80.53</v>
@@ -2949,8 +2847,8 @@
       <c r="E73" s="2">
         <v>44785</v>
       </c>
-      <c r="F73" t="s">
-        <v>82</v>
+      <c r="F73">
+        <v>7.3</v>
       </c>
       <c r="G73">
         <v>48</v>
@@ -2967,7 +2865,7 @@
         <v>833339</v>
       </c>
       <c r="B74" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C74">
         <v>27.9648</v>
@@ -2979,7 +2877,7 @@
         <v>44637</v>
       </c>
       <c r="F74" s="1">
-        <v>6563</v>
+        <v>6.5629999999999997</v>
       </c>
       <c r="G74">
         <v>16</v>
@@ -2996,7 +2894,7 @@
         <v>999127</v>
       </c>
       <c r="B75" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C75">
         <v>18</v>
@@ -3007,8 +2905,8 @@
       <c r="E75" s="2">
         <v>44813</v>
       </c>
-      <c r="F75" t="s">
-        <v>83</v>
+      <c r="F75">
+        <v>6.7</v>
       </c>
       <c r="G75">
         <v>6</v>
@@ -3028,16 +2926,16 @@
         <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D76" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E76" s="2">
         <v>44784</v>
       </c>
       <c r="F76" s="1">
-        <v>7093</v>
+        <v>7.093</v>
       </c>
       <c r="G76">
         <v>335</v>
@@ -3054,7 +2952,7 @@
         <v>985939</v>
       </c>
       <c r="B77" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C77">
         <v>53</v>
@@ -3065,8 +2963,8 @@
       <c r="E77" s="2">
         <v>44784</v>
       </c>
-      <c r="F77" t="s">
-        <v>61</v>
+      <c r="F77">
+        <v>7.4</v>
       </c>
       <c r="G77">
         <v>655</v>
@@ -3083,10 +2981,10 @@
         <v>438148</v>
       </c>
       <c r="B78" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C78" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D78" s="1">
         <v>1768671</v>
@@ -3095,7 +2993,7 @@
         <v>44741</v>
       </c>
       <c r="F78" s="1">
-        <v>7634</v>
+        <v>7.6340000000000003</v>
       </c>
       <c r="G78">
         <v>1938</v>
@@ -3112,7 +3010,7 @@
         <v>929449</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C79">
         <v>35</v>
@@ -3123,8 +3021,8 @@
       <c r="E79" s="2">
         <v>44701</v>
       </c>
-      <c r="F79" t="s">
-        <v>87</v>
+      <c r="F79">
+        <v>6.6</v>
       </c>
       <c r="G79">
         <v>9</v>
@@ -3141,10 +3039,10 @@
         <v>762504</v>
       </c>
       <c r="B80" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D80" s="1">
         <v>1380346</v>
@@ -3153,7 +3051,7 @@
         <v>44762</v>
       </c>
       <c r="F80" s="1">
-        <v>7019</v>
+        <v>7.0190000000000001</v>
       </c>
       <c r="G80">
         <v>1457</v>
@@ -3170,10 +3068,10 @@
         <v>801965</v>
       </c>
       <c r="B81" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C81" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D81" s="1">
         <v>29987</v>
@@ -3181,8 +3079,8 @@
       <c r="E81" s="2">
         <v>44798</v>
       </c>
-      <c r="F81" t="s">
-        <v>56</v>
+      <c r="F81">
+        <v>7.6</v>
       </c>
       <c r="G81">
         <v>16</v>
@@ -3211,7 +3109,7 @@
         <v>44748</v>
       </c>
       <c r="F82" s="1">
-        <v>6803</v>
+        <v>6.8029999999999999</v>
       </c>
       <c r="G82">
         <v>3446</v>
@@ -3228,10 +3126,10 @@
         <v>814800</v>
       </c>
       <c r="B83" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C83" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D83" s="1">
         <v>91776</v>
@@ -3240,7 +3138,7 @@
         <v>44820</v>
       </c>
       <c r="F83" s="1">
-        <v>5778</v>
+        <v>5.7779999999999996</v>
       </c>
       <c r="G83">
         <v>36</v>
@@ -3257,7 +3155,7 @@
         <v>762968</v>
       </c>
       <c r="B84" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C84">
         <v>35</v>
@@ -3269,7 +3167,7 @@
         <v>44818</v>
       </c>
       <c r="F84" s="1">
-        <v>7273</v>
+        <v>7.2729999999999997</v>
       </c>
       <c r="G84">
         <v>66</v>
@@ -3286,7 +3184,7 @@
         <v>830788</v>
       </c>
       <c r="B85" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C85">
         <v>27.53</v>
@@ -3298,7 +3196,7 @@
         <v>44797</v>
       </c>
       <c r="F85" s="1">
-        <v>6205</v>
+        <v>6.2050000000000001</v>
       </c>
       <c r="G85">
         <v>66</v>
@@ -3315,10 +3213,10 @@
         <v>556694</v>
       </c>
       <c r="B86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" t="s">
         <v>19</v>
-      </c>
-      <c r="C86" t="s">
-        <v>20</v>
       </c>
       <c r="D86" s="1">
         <v>285871</v>
@@ -3327,7 +3225,7 @@
         <v>44797</v>
       </c>
       <c r="F86" s="1">
-        <v>6961</v>
+        <v>6.9610000000000003</v>
       </c>
       <c r="G86">
         <v>181</v>
@@ -3344,10 +3242,10 @@
         <v>1013228</v>
       </c>
       <c r="B87" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C87" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D87" s="1">
         <v>10837</v>
@@ -3355,8 +3253,8 @@
       <c r="E87" s="2">
         <v>44813</v>
       </c>
-      <c r="F87" t="s">
-        <v>88</v>
+      <c r="F87">
+        <v>7.2</v>
       </c>
       <c r="G87">
         <v>10</v>
@@ -3373,10 +3271,10 @@
         <v>877957</v>
       </c>
       <c r="B88" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C88" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D88" s="1">
         <v>21074</v>
@@ -3384,8 +3282,8 @@
       <c r="E88" s="2">
         <v>44813</v>
       </c>
-      <c r="F88" t="s">
-        <v>88</v>
+      <c r="F88">
+        <v>7.2</v>
       </c>
       <c r="G88">
         <v>15</v>
@@ -3414,7 +3312,7 @@
         <v>44811</v>
       </c>
       <c r="F89" s="1">
-        <v>6827</v>
+        <v>6.827</v>
       </c>
       <c r="G89">
         <v>522</v>
@@ -3431,7 +3329,7 @@
         <v>361743</v>
       </c>
       <c r="B90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C90">
         <v>28.18</v>
@@ -3443,7 +3341,7 @@
         <v>44705</v>
       </c>
       <c r="F90" s="1">
-        <v>8365</v>
+        <v>8.3650000000000002</v>
       </c>
       <c r="G90">
         <v>3766</v>
@@ -3460,10 +3358,10 @@
         <v>682507</v>
       </c>
       <c r="B91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" t="s">
         <v>17</v>
-      </c>
-      <c r="C91" t="s">
-        <v>18</v>
       </c>
       <c r="D91" s="1">
         <v>718735</v>
@@ -3472,7 +3370,7 @@
         <v>44757</v>
       </c>
       <c r="F91" s="1">
-        <v>7612</v>
+        <v>7.6120000000000001</v>
       </c>
       <c r="G91">
         <v>286</v>
@@ -3489,10 +3387,10 @@
         <v>833339</v>
       </c>
       <c r="B92" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C92" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D92" s="1">
         <v>20492</v>
@@ -3500,8 +3398,8 @@
       <c r="E92" s="2">
         <v>44637</v>
       </c>
-      <c r="F92" t="s">
-        <v>87</v>
+      <c r="F92">
+        <v>6.6</v>
       </c>
       <c r="G92">
         <v>19</v>
@@ -3518,7 +3416,7 @@
         <v>724665</v>
       </c>
       <c r="B93" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C93">
         <v>80.349999999999994</v>
@@ -3529,8 +3427,8 @@
       <c r="E93" s="2">
         <v>44820</v>
       </c>
-      <c r="F93" t="s">
-        <v>81</v>
+      <c r="F93">
+        <v>5.4</v>
       </c>
       <c r="G93">
         <v>5</v>
@@ -3547,7 +3445,7 @@
         <v>862965</v>
       </c>
       <c r="B94" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C94">
         <v>80.53</v>
@@ -3559,7 +3457,7 @@
         <v>44785</v>
       </c>
       <c r="F94" s="1">
-        <v>7206</v>
+        <v>7.2060000000000004</v>
       </c>
       <c r="G94">
         <v>51</v>
@@ -3576,10 +3474,10 @@
         <v>438148</v>
       </c>
       <c r="B95" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C95" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D95" s="1">
         <v>2090737</v>
@@ -3588,7 +3486,7 @@
         <v>44741</v>
       </c>
       <c r="F95" s="1">
-        <v>7631</v>
+        <v>7.6310000000000002</v>
       </c>
       <c r="G95">
         <v>1949</v>
@@ -3608,7 +3506,7 @@
         <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D96" s="1">
         <v>7086027</v>
@@ -3617,7 +3515,7 @@
         <v>44784</v>
       </c>
       <c r="F96" s="1">
-        <v>7112</v>
+        <v>7.1120000000000001</v>
       </c>
       <c r="G96">
         <v>349</v>
@@ -3634,10 +3532,10 @@
         <v>762504</v>
       </c>
       <c r="B97" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D97" s="1">
         <v>1587271</v>
@@ -3646,7 +3544,7 @@
         <v>44762</v>
       </c>
       <c r="F97" s="1">
-        <v>7015</v>
+        <v>7.0149999999999997</v>
       </c>
       <c r="G97">
         <v>1471</v>
@@ -3663,7 +3561,7 @@
         <v>999127</v>
       </c>
       <c r="B98" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C98">
         <v>18</v>
@@ -3675,7 +3573,7 @@
         <v>44813</v>
       </c>
       <c r="F98" s="1">
-        <v>6429</v>
+        <v>6.4290000000000003</v>
       </c>
       <c r="G98">
         <v>7</v>
@@ -3692,19 +3590,19 @@
         <v>614934</v>
       </c>
       <c r="B99" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C99" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D99" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E99" s="2">
         <v>44734</v>
       </c>
       <c r="F99" s="1">
-        <v>7853</v>
+        <v>7.8529999999999998</v>
       </c>
       <c r="G99">
         <v>1483</v>
@@ -3721,19 +3619,19 @@
         <v>507086</v>
       </c>
       <c r="B100" t="s">
+        <v>21</v>
+      </c>
+      <c r="C100" t="s">
         <v>22</v>
       </c>
-      <c r="C100" t="s">
-        <v>23</v>
-      </c>
       <c r="D100" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="E100" s="2">
         <v>44713</v>
       </c>
       <c r="F100" s="1">
-        <v>7066</v>
+        <v>7.0659999999999998</v>
       </c>
       <c r="G100">
         <v>3364</v>
@@ -3750,7 +3648,7 @@
         <v>985939</v>
       </c>
       <c r="B101" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C101">
         <v>53</v>
@@ -3762,7 +3660,7 @@
         <v>44784</v>
       </c>
       <c r="F101" s="1">
-        <v>7411</v>
+        <v>7.4109999999999996</v>
       </c>
       <c r="G101">
         <v>683</v>
@@ -3790,8 +3688,8 @@
       <c r="E102" s="2">
         <v>44748</v>
       </c>
-      <c r="F102" t="s">
-        <v>16</v>
+      <c r="F102">
+        <v>6.8</v>
       </c>
       <c r="G102">
         <v>3502</v>
@@ -3808,10 +3706,10 @@
         <v>814800</v>
       </c>
       <c r="B103" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C103" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D103" s="1">
         <v>128486</v>
@@ -3819,8 +3717,8 @@
       <c r="E103" s="2">
         <v>44820</v>
       </c>
-      <c r="F103" t="s">
-        <v>93</v>
+      <c r="F103">
+        <v>5.9</v>
       </c>
       <c r="G103">
         <v>45</v>
@@ -3837,7 +3735,7 @@
         <v>762968</v>
       </c>
       <c r="B104" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C104">
         <v>35</v>
@@ -3849,7 +3747,7 @@
         <v>44818</v>
       </c>
       <c r="F104" s="1">
-        <v>7108</v>
+        <v>7.1079999999999997</v>
       </c>
       <c r="G104">
         <v>106</v>
@@ -3866,10 +3764,10 @@
         <v>556694</v>
       </c>
       <c r="B105" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" t="s">
         <v>19</v>
-      </c>
-      <c r="C105" t="s">
-        <v>20</v>
       </c>
       <c r="D105" s="1">
         <v>400219</v>
@@ -3878,7 +3776,7 @@
         <v>44797</v>
       </c>
       <c r="F105" s="1">
-        <v>7017</v>
+        <v>7.0170000000000003</v>
       </c>
       <c r="G105">
         <v>203</v>
@@ -3895,7 +3793,7 @@
         <v>830788</v>
       </c>
       <c r="B106" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C106">
         <v>27.53</v>
@@ -3924,10 +3822,10 @@
         <v>1013228</v>
       </c>
       <c r="B107" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C107" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D107" s="1">
         <v>15172</v>
@@ -3953,19 +3851,19 @@
         <v>361743</v>
       </c>
       <c r="B108" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C108">
         <v>28.18</v>
       </c>
       <c r="D108" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="E108" s="2">
         <v>44705</v>
       </c>
       <c r="F108" s="1">
-        <v>8364</v>
+        <v>8.3640000000000008</v>
       </c>
       <c r="G108">
         <v>3800</v>
@@ -3982,10 +3880,10 @@
         <v>877957</v>
       </c>
       <c r="B109" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C109" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D109" s="1">
         <v>29504</v>
@@ -3994,7 +3892,7 @@
         <v>44813</v>
       </c>
       <c r="F109" s="1">
-        <v>7029</v>
+        <v>7.0289999999999999</v>
       </c>
       <c r="G109">
         <v>17</v>
@@ -4023,7 +3921,7 @@
         <v>44811</v>
       </c>
       <c r="F110" s="1">
-        <v>6774</v>
+        <v>6.774</v>
       </c>
       <c r="G110">
         <v>557</v>
@@ -4040,7 +3938,7 @@
         <v>985939</v>
       </c>
       <c r="B111" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C111">
         <v>53</v>
@@ -4052,7 +3950,7 @@
         <v>44784</v>
       </c>
       <c r="F111" s="1">
-        <v>7395</v>
+        <v>7.3949999999999996</v>
       </c>
       <c r="G111">
         <v>726</v>
@@ -4069,10 +3967,10 @@
         <v>833339</v>
       </c>
       <c r="B112" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C112" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D112" s="1">
         <v>28689</v>
@@ -4081,7 +3979,7 @@
         <v>44637</v>
       </c>
       <c r="F112" s="1">
-        <v>6543</v>
+        <v>6.5430000000000001</v>
       </c>
       <c r="G112">
         <v>23</v>
@@ -4098,19 +3996,19 @@
         <v>682507</v>
       </c>
       <c r="B113" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" t="s">
         <v>17</v>
       </c>
-      <c r="C113" t="s">
-        <v>18</v>
-      </c>
       <c r="D113" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E113" s="2">
         <v>44757</v>
       </c>
       <c r="F113" s="1">
-        <v>7663</v>
+        <v>7.6630000000000003</v>
       </c>
       <c r="G113">
         <v>301</v>
@@ -4127,7 +4025,7 @@
         <v>724665</v>
       </c>
       <c r="B114" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C114">
         <v>80.349999999999994</v>
@@ -4139,7 +4037,7 @@
         <v>44820</v>
       </c>
       <c r="F114" s="1">
-        <v>6286</v>
+        <v>6.2859999999999996</v>
       </c>
       <c r="G114">
         <v>7</v>
@@ -4156,7 +4054,7 @@
         <v>862965</v>
       </c>
       <c r="B115" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C115">
         <v>80.53</v>
@@ -4168,7 +4066,7 @@
         <v>44785</v>
       </c>
       <c r="F115" s="1">
-        <v>7132</v>
+        <v>7.1319999999999997</v>
       </c>
       <c r="G115">
         <v>57</v>
@@ -4188,7 +4086,7 @@
         <v>12</v>
       </c>
       <c r="C116" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D116" s="1">
         <v>7640945</v>
@@ -4197,7 +4095,7 @@
         <v>44784</v>
       </c>
       <c r="F116" s="1">
-        <v>7084</v>
+        <v>7.0839999999999996</v>
       </c>
       <c r="G116">
         <v>369</v>
@@ -4214,10 +4112,10 @@
         <v>19995</v>
       </c>
       <c r="B117" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C117" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="D117" s="1">
         <v>1049103</v>
@@ -4226,7 +4124,7 @@
         <v>40157</v>
       </c>
       <c r="F117" s="1">
-        <v>7517</v>
+        <v>7.5170000000000003</v>
       </c>
       <c r="G117">
         <v>26049</v>
@@ -4243,10 +4141,10 @@
         <v>438148</v>
       </c>
       <c r="B118" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C118" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D118" s="1">
         <v>2271794</v>
@@ -4255,7 +4153,7 @@
         <v>44741</v>
       </c>
       <c r="F118" s="1">
-        <v>7625</v>
+        <v>7.625</v>
       </c>
       <c r="G118">
         <v>1962</v>
@@ -4272,10 +4170,10 @@
         <v>762504</v>
       </c>
       <c r="B119" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C119" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D119" s="1">
         <v>1865805</v>
@@ -4284,7 +4182,7 @@
         <v>44762</v>
       </c>
       <c r="F119" s="1">
-        <v>7013</v>
+        <v>7.0129999999999999</v>
       </c>
       <c r="G119">
         <v>1491</v>
@@ -4301,10 +4199,10 @@
         <v>634649</v>
       </c>
       <c r="B120" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C120" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D120" s="1">
         <v>1411869</v>
@@ -4330,10 +4228,10 @@
         <v>507086</v>
       </c>
       <c r="B121" t="s">
+        <v>21</v>
+      </c>
+      <c r="C121" t="s">
         <v>22</v>
-      </c>
-      <c r="C121" t="s">
-        <v>23</v>
       </c>
       <c r="D121" s="1">
         <v>2615724</v>
@@ -4342,7 +4240,7 @@
         <v>44713</v>
       </c>
       <c r="F121" s="1">
-        <v>7065</v>
+        <v>7.0650000000000004</v>
       </c>
       <c r="G121">
         <v>3380</v>
@@ -4371,7 +4269,7 @@
         <v>44748</v>
       </c>
       <c r="F122" s="1">
-        <v>6799</v>
+        <v>6.7990000000000004</v>
       </c>
       <c r="G122">
         <v>3575</v>
@@ -4388,19 +4286,19 @@
         <v>810693</v>
       </c>
       <c r="B123" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C123" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D123" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E123" s="2">
         <v>44554</v>
       </c>
       <c r="F123" s="1">
-        <v>7787</v>
+        <v>7.7869999999999999</v>
       </c>
       <c r="G123">
         <v>293</v>
@@ -4417,10 +4315,10 @@
         <v>814800</v>
       </c>
       <c r="B124" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C124" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D124" s="1">
         <v>251832</v>
@@ -4428,8 +4326,8 @@
       <c r="E124" s="2">
         <v>44820</v>
       </c>
-      <c r="F124" t="s">
-        <v>93</v>
+      <c r="F124">
+        <v>5.9</v>
       </c>
       <c r="G124">
         <v>61</v>
@@ -4446,7 +4344,7 @@
         <v>762968</v>
       </c>
       <c r="B125" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C125">
         <v>35</v>
@@ -4457,8 +4355,8 @@
       <c r="E125" s="2">
         <v>44818</v>
       </c>
-      <c r="F125" t="s">
-        <v>101</v>
+      <c r="F125">
+        <v>6.97</v>
       </c>
       <c r="G125">
         <v>152</v>
@@ -4475,10 +4373,10 @@
         <v>19995</v>
       </c>
       <c r="B126" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C126" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="D126" s="1">
         <v>738928</v>
@@ -4487,7 +4385,7 @@
         <v>40157</v>
       </c>
       <c r="F126" s="1">
-        <v>7517</v>
+        <v>7.5170000000000003</v>
       </c>
       <c r="G126">
         <v>26062</v>
@@ -4504,7 +4402,7 @@
         <v>830788</v>
       </c>
       <c r="B127" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C127">
         <v>27.53</v>
@@ -4516,7 +4414,7 @@
         <v>44797</v>
       </c>
       <c r="F127" s="1">
-        <v>6048</v>
+        <v>6.048</v>
       </c>
       <c r="G127">
         <v>84</v>
@@ -4533,7 +4431,7 @@
         <v>361743</v>
       </c>
       <c r="B128" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C128">
         <v>28.18</v>
@@ -4545,7 +4443,7 @@
         <v>44705</v>
       </c>
       <c r="F128" s="1">
-        <v>8364</v>
+        <v>8.3640000000000008</v>
       </c>
       <c r="G128">
         <v>3849</v>
@@ -4562,10 +4460,10 @@
         <v>556694</v>
       </c>
       <c r="B129" t="s">
+        <v>18</v>
+      </c>
+      <c r="C129" t="s">
         <v>19</v>
-      </c>
-      <c r="C129" t="s">
-        <v>20</v>
       </c>
       <c r="D129" s="1">
         <v>213191</v>
@@ -4574,7 +4472,7 @@
         <v>44797</v>
       </c>
       <c r="F129" s="1">
-        <v>6972</v>
+        <v>6.9720000000000004</v>
       </c>
       <c r="G129">
         <v>230</v>
@@ -4591,10 +4489,10 @@
         <v>1013228</v>
       </c>
       <c r="B130" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C130" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D130" s="1">
         <v>29737</v>
@@ -4603,7 +4501,7 @@
         <v>44813</v>
       </c>
       <c r="F130" s="1">
-        <v>7543</v>
+        <v>7.5430000000000001</v>
       </c>
       <c r="G130">
         <v>23</v>
@@ -4620,10 +4518,10 @@
         <v>877957</v>
       </c>
       <c r="B131" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C131" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D131" s="1">
         <v>57828</v>
@@ -4631,8 +4529,8 @@
       <c r="E131" s="2">
         <v>44813</v>
       </c>
-      <c r="F131" t="s">
-        <v>102</v>
+      <c r="F131">
+        <v>7.15</v>
       </c>
       <c r="G131">
         <v>20</v>
@@ -4649,7 +4547,7 @@
         <v>804413</v>
       </c>
       <c r="B132" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C132">
         <v>35.14</v>
@@ -4678,10 +4576,10 @@
         <v>833339</v>
       </c>
       <c r="B133" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C133" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D133" s="1">
         <v>56231</v>
@@ -4689,8 +4587,8 @@
       <c r="E133" s="2">
         <v>44637</v>
       </c>
-      <c r="F133" t="s">
-        <v>64</v>
+      <c r="F133">
+        <v>6.5</v>
       </c>
       <c r="G133">
         <v>27</v>
@@ -4718,8 +4616,8 @@
       <c r="E134" s="2">
         <v>44811</v>
       </c>
-      <c r="F134" t="s">
-        <v>16</v>
+      <c r="F134">
+        <v>6.8</v>
       </c>
       <c r="G134">
         <v>606</v>
@@ -4736,10 +4634,10 @@
         <v>1016446</v>
       </c>
       <c r="B135" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C135" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D135" s="1">
         <v>31268</v>
@@ -4765,7 +4663,7 @@
         <v>985939</v>
       </c>
       <c r="B136" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C136">
         <v>53</v>
@@ -4777,7 +4675,7 @@
         <v>44784</v>
       </c>
       <c r="F136" s="1">
-        <v>7397</v>
+        <v>7.3970000000000002</v>
       </c>
       <c r="G136">
         <v>777</v>
@@ -4794,19 +4692,19 @@
         <v>438148</v>
       </c>
       <c r="B137" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C137" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D137" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="E137" s="2">
         <v>44741</v>
       </c>
       <c r="F137" s="1">
-        <v>7621</v>
+        <v>7.6210000000000004</v>
       </c>
       <c r="G137">
         <v>1986</v>
@@ -4823,7 +4721,7 @@
         <v>724665</v>
       </c>
       <c r="B138" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C138">
         <v>80.349999999999994</v>
@@ -4852,10 +4750,10 @@
         <v>682507</v>
       </c>
       <c r="B139" t="s">
+        <v>16</v>
+      </c>
+      <c r="C139" t="s">
         <v>17</v>
-      </c>
-      <c r="C139" t="s">
-        <v>18</v>
       </c>
       <c r="D139" s="1">
         <v>445099</v>
@@ -4864,7 +4762,7 @@
         <v>44757</v>
       </c>
       <c r="F139" s="1">
-        <v>7667</v>
+        <v>7.6669999999999998</v>
       </c>
       <c r="G139">
         <v>335</v>
@@ -4881,10 +4779,10 @@
         <v>634649</v>
       </c>
       <c r="B140" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C140" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D140" s="1">
         <v>1098544</v>
@@ -4893,7 +4791,7 @@
         <v>44545</v>
       </c>
       <c r="F140" s="1">
-        <v>8039</v>
+        <v>8.0389999999999997</v>
       </c>
       <c r="G140">
         <v>15161</v>
@@ -4910,10 +4808,10 @@
         <v>619730</v>
       </c>
       <c r="B141" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C141" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D141" s="1">
         <v>178293</v>
@@ -4921,8 +4819,8 @@
       <c r="E141" s="2">
         <v>44825</v>
       </c>
-      <c r="F141" t="s">
-        <v>108</v>
+      <c r="F141">
+        <v>6.1</v>
       </c>
       <c r="G141">
         <v>5</v>
@@ -4951,7 +4849,7 @@
         <v>44748</v>
       </c>
       <c r="F142" s="1">
-        <v>6795</v>
+        <v>6.7949999999999999</v>
       </c>
       <c r="G142">
         <v>3608</v>
@@ -4968,10 +4866,10 @@
         <v>810693</v>
       </c>
       <c r="B143" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C143" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D143" s="1">
         <v>1964522</v>
@@ -4980,7 +4878,7 @@
         <v>44554</v>
       </c>
       <c r="F143" s="1">
-        <v>7942</v>
+        <v>7.9420000000000002</v>
       </c>
       <c r="G143">
         <v>334</v>
@@ -4997,10 +4895,10 @@
         <v>1016446</v>
       </c>
       <c r="B144" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C144" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D144" s="1">
         <v>43775</v>
@@ -5009,7 +4907,7 @@
         <v>44825</v>
       </c>
       <c r="F144" s="1">
-        <v>5917</v>
+        <v>5.9169999999999998</v>
       </c>
       <c r="G144">
         <v>6</v>
@@ -5026,7 +4924,7 @@
         <v>762968</v>
       </c>
       <c r="B145" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C145">
         <v>35</v>
@@ -5038,7 +4936,7 @@
         <v>44818</v>
       </c>
       <c r="F145" s="1">
-        <v>7099</v>
+        <v>7.0990000000000002</v>
       </c>
       <c r="G145">
         <v>172</v>
@@ -5055,10 +4953,10 @@
         <v>843543</v>
       </c>
       <c r="B146" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C146" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D146" s="1">
         <v>44208</v>
@@ -5066,8 +4964,8 @@
       <c r="E146" s="2">
         <v>44825</v>
       </c>
-      <c r="F146" t="s">
-        <v>111</v>
+      <c r="F146">
+        <v>5.2</v>
       </c>
       <c r="G146">
         <v>5</v>
@@ -5084,10 +4982,10 @@
         <v>814800</v>
       </c>
       <c r="B147" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C147" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D147" s="1">
         <v>352565</v>
@@ -5096,7 +4994,7 @@
         <v>44820</v>
       </c>
       <c r="F147" s="1">
-        <v>5939</v>
+        <v>5.9390000000000001</v>
       </c>
       <c r="G147">
         <v>66</v>
@@ -5113,7 +5011,7 @@
         <v>361743</v>
       </c>
       <c r="B148" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C148">
         <v>28.18</v>
@@ -5125,7 +5023,7 @@
         <v>44705</v>
       </c>
       <c r="F148" s="1">
-        <v>8362</v>
+        <v>8.3620000000000001</v>
       </c>
       <c r="G148">
         <v>3870</v>
@@ -5142,10 +5040,10 @@
         <v>19995</v>
       </c>
       <c r="B149" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C149" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="D149" s="1">
         <v>841292</v>
@@ -5154,7 +5052,7 @@
         <v>40157</v>
       </c>
       <c r="F149" s="1">
-        <v>7517</v>
+        <v>7.5170000000000003</v>
       </c>
       <c r="G149">
         <v>26073</v>
@@ -5171,19 +5069,19 @@
         <v>556694</v>
       </c>
       <c r="B150" t="s">
+        <v>18</v>
+      </c>
+      <c r="C150" t="s">
         <v>19</v>
       </c>
-      <c r="C150" t="s">
-        <v>20</v>
-      </c>
       <c r="D150" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="E150" s="2">
         <v>44797</v>
       </c>
       <c r="F150" s="1">
-        <v>6945</v>
+        <v>6.9450000000000003</v>
       </c>
       <c r="G150">
         <v>237</v>
@@ -5200,7 +5098,7 @@
         <v>804413</v>
       </c>
       <c r="B151" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C151">
         <v>35.14</v>
@@ -5229,19 +5127,19 @@
         <v>830788</v>
       </c>
       <c r="B152" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C152">
         <v>27.53</v>
       </c>
       <c r="D152" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="E152" s="2">
         <v>44797</v>
       </c>
       <c r="F152" s="1">
-        <v>6124</v>
+        <v>6.1239999999999997</v>
       </c>
       <c r="G152">
         <v>89</v>
@@ -5258,10 +5156,10 @@
         <v>833339</v>
       </c>
       <c r="B153" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C153" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D153" s="1">
         <v>58455</v>
@@ -5270,7 +5168,7 @@
         <v>44637</v>
       </c>
       <c r="F153" s="1">
-        <v>6672</v>
+        <v>6.6719999999999997</v>
       </c>
       <c r="G153">
         <v>32</v>
@@ -5287,10 +5185,10 @@
         <v>619730</v>
       </c>
       <c r="B154" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C154" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D154" s="1">
         <v>169435</v>
@@ -5299,7 +5197,7 @@
         <v>44825</v>
       </c>
       <c r="F154" s="1">
-        <v>6737</v>
+        <v>6.7370000000000001</v>
       </c>
       <c r="G154">
         <v>19</v>
@@ -5316,7 +5214,7 @@
         <v>985939</v>
       </c>
       <c r="B155" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C155">
         <v>53</v>
@@ -5328,7 +5226,7 @@
         <v>44784</v>
       </c>
       <c r="F155" s="1">
-        <v>7417</v>
+        <v>7.4169999999999998</v>
       </c>
       <c r="G155">
         <v>820</v>
@@ -5345,10 +5243,10 @@
         <v>634649</v>
       </c>
       <c r="B156" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C156" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D156" s="1">
         <v>1063799</v>
@@ -5357,7 +5255,7 @@
         <v>44545</v>
       </c>
       <c r="F156" s="1">
-        <v>8039</v>
+        <v>8.0389999999999997</v>
       </c>
       <c r="G156">
         <v>15174</v>
@@ -5386,7 +5284,7 @@
         <v>44811</v>
       </c>
       <c r="F157" s="1">
-        <v>6793</v>
+        <v>6.7930000000000001</v>
       </c>
       <c r="G157">
         <v>622</v>
@@ -5403,10 +5301,10 @@
         <v>438148</v>
       </c>
       <c r="B158" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C158" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D158" s="1">
         <v>1436255</v>
@@ -5414,8 +5312,8 @@
       <c r="E158" s="2">
         <v>44741</v>
       </c>
-      <c r="F158" t="s">
-        <v>56</v>
+      <c r="F158">
+        <v>7.6</v>
       </c>
       <c r="G158">
         <v>1996</v>
@@ -5432,10 +5330,10 @@
         <v>877957</v>
       </c>
       <c r="B159" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C159" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D159" s="1">
         <v>80959</v>
@@ -5443,8 +5341,8 @@
       <c r="E159" s="2">
         <v>44813</v>
       </c>
-      <c r="F159" t="s">
-        <v>82</v>
+      <c r="F159">
+        <v>7.3</v>
       </c>
       <c r="G159">
         <v>23</v>
@@ -5461,10 +5359,10 @@
         <v>1013228</v>
       </c>
       <c r="B160" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C160" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D160" s="1">
         <v>41632</v>
@@ -5473,7 +5371,7 @@
         <v>44813</v>
       </c>
       <c r="F160" s="1">
-        <v>7569</v>
+        <v>7.569</v>
       </c>
       <c r="G160">
         <v>29</v>
@@ -5490,10 +5388,10 @@
         <v>614934</v>
       </c>
       <c r="B161" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C161" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D161" s="1">
         <v>305969</v>
@@ -5501,8 +5399,8 @@
       <c r="E161" s="2">
         <v>44734</v>
       </c>
-      <c r="F161" t="s">
-        <v>52</v>
+      <c r="F161">
+        <v>7.8</v>
       </c>
       <c r="G161">
         <v>1506</v>
@@ -5519,7 +5417,7 @@
         <v>429473</v>
       </c>
       <c r="B162" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C162">
         <v>28.53</v>
@@ -5530,8 +5428,8 @@
       <c r="E162" s="2">
         <v>44827</v>
       </c>
-      <c r="F162" t="s">
-        <v>77</v>
+      <c r="F162">
+        <v>5.8</v>
       </c>
       <c r="G162">
         <v>13</v>
@@ -5548,10 +5446,10 @@
         <v>810693</v>
       </c>
       <c r="B163" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C163" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D163" s="1">
         <v>2383269</v>
@@ -5560,7 +5458,7 @@
         <v>44554</v>
       </c>
       <c r="F163" s="1">
-        <v>8019</v>
+        <v>8.0190000000000001</v>
       </c>
       <c r="G163">
         <v>377</v>
@@ -5577,10 +5475,10 @@
         <v>852046</v>
       </c>
       <c r="B164" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C164" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="D164" s="1">
         <v>18778</v>
@@ -5589,7 +5487,7 @@
         <v>44813</v>
       </c>
       <c r="F164" s="1">
-        <v>6559</v>
+        <v>6.5590000000000002</v>
       </c>
       <c r="G164">
         <v>17</v>
@@ -5618,7 +5516,7 @@
         <v>44748</v>
       </c>
       <c r="F165" s="1">
-        <v>6788</v>
+        <v>6.7880000000000003</v>
       </c>
       <c r="G165">
         <v>3651</v>
@@ -5635,7 +5533,7 @@
         <v>921643</v>
       </c>
       <c r="B166" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="C166">
         <v>18.107489999999999</v>
@@ -5646,8 +5544,8 @@
       <c r="E166" s="2">
         <v>44820</v>
       </c>
-      <c r="F166" t="s">
-        <v>87</v>
+      <c r="F166">
+        <v>6.6</v>
       </c>
       <c r="G166">
         <v>5</v>
@@ -5664,7 +5562,7 @@
         <v>744276</v>
       </c>
       <c r="B167" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C167">
         <v>10749.18</v>
@@ -5676,7 +5574,7 @@
         <v>44797</v>
       </c>
       <c r="F167" s="1">
-        <v>6271</v>
+        <v>6.2709999999999999</v>
       </c>
       <c r="G167">
         <v>70</v>
@@ -5693,10 +5591,10 @@
         <v>842942</v>
       </c>
       <c r="B168" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="C168" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D168" s="1">
         <v>50625</v>
@@ -5722,7 +5620,7 @@
         <v>916605</v>
       </c>
       <c r="B169" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="C169">
         <v>53</v>
@@ -5733,8 +5631,8 @@
       <c r="E169" s="2">
         <v>44827</v>
       </c>
-      <c r="F169" t="s">
-        <v>77</v>
+      <c r="F169">
+        <v>5.8</v>
       </c>
       <c r="G169">
         <v>5</v>
@@ -5751,10 +5649,10 @@
         <v>520023</v>
       </c>
       <c r="B170" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="C170" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D170" s="1">
         <v>44145</v>
@@ -5763,7 +5661,7 @@
         <v>44778</v>
       </c>
       <c r="F170" s="1">
-        <v>6518</v>
+        <v>6.5179999999999998</v>
       </c>
       <c r="G170">
         <v>56</v>
@@ -5780,7 +5678,7 @@
         <v>804413</v>
       </c>
       <c r="B171" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C171">
         <v>35.14</v>
@@ -5792,7 +5690,7 @@
         <v>44831</v>
       </c>
       <c r="F171" s="1">
-        <v>7167</v>
+        <v>7.1669999999999998</v>
       </c>
       <c r="G171">
         <v>36</v>
@@ -5809,10 +5707,10 @@
         <v>1016446</v>
       </c>
       <c r="B172" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C172" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D172" s="1">
         <v>85799</v>
@@ -5820,8 +5718,8 @@
       <c r="E172" s="2">
         <v>44825</v>
       </c>
-      <c r="F172" t="s">
-        <v>125</v>
+      <c r="F172">
+        <v>5.3</v>
       </c>
       <c r="G172">
         <v>9</v>
@@ -5838,13 +5736,13 @@
         <v>846433</v>
       </c>
       <c r="B173" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="C173">
         <v>28.53</v>
       </c>
       <c r="D173" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="E173" s="2">
         <v>44826</v>
@@ -5867,10 +5765,10 @@
         <v>843543</v>
       </c>
       <c r="B174" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C174" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D174" s="1">
         <v>76997</v>
@@ -5878,8 +5776,8 @@
       <c r="E174" s="2">
         <v>44825</v>
       </c>
-      <c r="F174" t="s">
-        <v>128</v>
+      <c r="F174">
+        <v>4.7</v>
       </c>
       <c r="G174">
         <v>6</v>
@@ -5896,7 +5794,7 @@
         <v>816956</v>
       </c>
       <c r="B175" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C175">
         <v>53</v>
@@ -5925,7 +5823,7 @@
         <v>893228</v>
       </c>
       <c r="B176" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="C176">
         <v>28.53</v>
@@ -5936,8 +5834,8 @@
       <c r="E176" s="2">
         <v>44827</v>
       </c>
-      <c r="F176" t="s">
-        <v>131</v>
+      <c r="F176">
+        <v>4.5</v>
       </c>
       <c r="G176">
         <v>2</v>
@@ -5954,7 +5852,7 @@
         <v>762968</v>
       </c>
       <c r="B177" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C177">
         <v>35</v>
@@ -5966,7 +5864,7 @@
         <v>44818</v>
       </c>
       <c r="F177" s="1">
-        <v>7077</v>
+        <v>7.077</v>
       </c>
       <c r="G177">
         <v>202</v>
@@ -5983,19 +5881,19 @@
         <v>361743</v>
       </c>
       <c r="B178" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C178">
         <v>28.18</v>
       </c>
       <c r="D178" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E178" s="2">
         <v>44705</v>
       </c>
       <c r="F178" s="1">
-        <v>8363</v>
+        <v>8.3629999999999995</v>
       </c>
       <c r="G178">
         <v>3888</v>
@@ -6012,10 +5910,10 @@
         <v>438148</v>
       </c>
       <c r="B179" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C179" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D179" s="1">
         <v>1447669</v>
@@ -6023,8 +5921,8 @@
       <c r="E179" s="2">
         <v>44741</v>
       </c>
-      <c r="F179" t="s">
-        <v>133</v>
+      <c r="F179">
+        <v>7.61</v>
       </c>
       <c r="G179">
         <v>2013</v>
@@ -6041,13 +5939,13 @@
         <v>1027568</v>
       </c>
       <c r="B180" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="C180">
         <v>16</v>
       </c>
       <c r="D180" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="E180" s="2">
         <v>44827</v>
@@ -6070,10 +5968,10 @@
         <v>19995</v>
       </c>
       <c r="B181" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C181" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="D181" s="1">
         <v>1270395</v>
@@ -6081,8 +5979,8 @@
       <c r="E181" s="2">
         <v>40157</v>
       </c>
-      <c r="F181" t="s">
-        <v>136</v>
+      <c r="F181">
+        <v>7.5</v>
       </c>
       <c r="G181">
         <v>26100</v>
@@ -6099,7 +5997,7 @@
         <v>429473</v>
       </c>
       <c r="B182" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C182">
         <v>28.53</v>
@@ -6111,7 +6009,7 @@
         <v>44827</v>
       </c>
       <c r="F182" s="1">
-        <v>6306</v>
+        <v>6.306</v>
       </c>
       <c r="G182">
         <v>48</v>
@@ -6128,10 +6026,10 @@
         <v>852046</v>
       </c>
       <c r="B183" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C183" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="D183" s="1">
         <v>26289</v>
@@ -6140,7 +6038,7 @@
         <v>44813</v>
       </c>
       <c r="F183" s="1">
-        <v>6729</v>
+        <v>6.7290000000000001</v>
       </c>
       <c r="G183">
         <v>59</v>
@@ -6157,7 +6055,7 @@
         <v>916605</v>
       </c>
       <c r="B184" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="C184">
         <v>53</v>
@@ -6168,8 +6066,8 @@
       <c r="E184" s="2">
         <v>44827</v>
       </c>
-      <c r="F184" t="s">
-        <v>137</v>
+      <c r="F184">
+        <v>6.2</v>
       </c>
       <c r="G184">
         <v>10</v>
@@ -6186,10 +6084,10 @@
         <v>810693</v>
       </c>
       <c r="B185" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C185" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D185" s="1">
         <v>2594609</v>
@@ -6197,8 +6095,8 @@
       <c r="E185" s="2">
         <v>44554</v>
       </c>
-      <c r="F185" t="s">
-        <v>138</v>
+      <c r="F185">
+        <v>8.1999999999999993</v>
       </c>
       <c r="G185">
         <v>431</v>
@@ -6227,7 +6125,7 @@
         <v>44748</v>
       </c>
       <c r="F186" s="1">
-        <v>6776</v>
+        <v>6.7759999999999998</v>
       </c>
       <c r="G186">
         <v>3707</v>
@@ -6244,10 +6142,10 @@
         <v>960704</v>
       </c>
       <c r="B187" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="C187" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="D187" s="1">
         <v>19723</v>
@@ -6256,7 +6154,7 @@
         <v>44736</v>
       </c>
       <c r="F187" s="1">
-        <v>8056</v>
+        <v>8.0559999999999992</v>
       </c>
       <c r="G187">
         <v>9</v>
@@ -6273,7 +6171,7 @@
         <v>846433</v>
       </c>
       <c r="B188" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="C188">
         <v>28.53</v>
@@ -6284,8 +6182,8 @@
       <c r="E188" s="2">
         <v>44826</v>
       </c>
-      <c r="F188" t="s">
-        <v>141</v>
+      <c r="F188">
+        <v>6.4</v>
       </c>
       <c r="G188">
         <v>5</v>
@@ -6302,7 +6200,7 @@
         <v>921643</v>
       </c>
       <c r="B189" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="C189">
         <v>18.107489999999999</v>
@@ -6314,7 +6212,7 @@
         <v>44820</v>
       </c>
       <c r="F189" s="1">
-        <v>7063</v>
+        <v>7.0629999999999997</v>
       </c>
       <c r="G189">
         <v>8</v>
@@ -6331,10 +6229,10 @@
         <v>520023</v>
       </c>
       <c r="B190" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="C190" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D190" s="1">
         <v>61803</v>
@@ -6343,7 +6241,7 @@
         <v>44778</v>
       </c>
       <c r="F190" s="1">
-        <v>6779</v>
+        <v>6.7789999999999999</v>
       </c>
       <c r="G190">
         <v>77</v>
@@ -6360,7 +6258,7 @@
         <v>361743</v>
       </c>
       <c r="B191" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C191">
         <v>28.18</v>
@@ -6371,8 +6269,8 @@
       <c r="E191" s="2">
         <v>44705</v>
       </c>
-      <c r="F191" t="s">
-        <v>142</v>
+      <c r="F191">
+        <v>8.36</v>
       </c>
       <c r="G191">
         <v>3933</v>
@@ -6389,7 +6287,7 @@
         <v>744276</v>
       </c>
       <c r="B192" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C192">
         <v>10749.18</v>
@@ -6400,8 +6298,8 @@
       <c r="E192" s="2">
         <v>44797</v>
       </c>
-      <c r="F192" t="s">
-        <v>141</v>
+      <c r="F192">
+        <v>6.4</v>
       </c>
       <c r="G192">
         <v>80</v>
@@ -6418,10 +6316,10 @@
         <v>1016446</v>
       </c>
       <c r="B193" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C193" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D193" s="1">
         <v>120119</v>
@@ -6430,7 +6328,7 @@
         <v>44825</v>
       </c>
       <c r="F193" s="1">
-        <v>5179</v>
+        <v>5.1790000000000003</v>
       </c>
       <c r="G193">
         <v>14</v>
@@ -6447,7 +6345,7 @@
         <v>893228</v>
       </c>
       <c r="B194" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="C194">
         <v>28.53</v>
@@ -6459,7 +6357,7 @@
         <v>44827</v>
       </c>
       <c r="F194" s="1">
-        <v>7286</v>
+        <v>7.2859999999999996</v>
       </c>
       <c r="G194">
         <v>7</v>
@@ -6476,10 +6374,10 @@
         <v>842942</v>
       </c>
       <c r="B195" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="C195" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D195" s="1">
         <v>70875</v>
@@ -6505,7 +6403,7 @@
         <v>816956</v>
       </c>
       <c r="B196" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C196">
         <v>53</v>
@@ -6516,8 +6414,8 @@
       <c r="E196" s="2">
         <v>44827</v>
       </c>
-      <c r="F196" t="s">
-        <v>143</v>
+      <c r="F196">
+        <v>1.5</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -6537,7 +6435,7 @@
         <v>12</v>
       </c>
       <c r="C197" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D197" s="1">
         <v>4257378</v>
@@ -6546,7 +6444,7 @@
         <v>44784</v>
       </c>
       <c r="F197" s="1">
-        <v>7103</v>
+        <v>7.1029999999999998</v>
       </c>
       <c r="G197">
         <v>456</v>
@@ -6563,10 +6461,10 @@
         <v>19995</v>
       </c>
       <c r="B198" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C198" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="D198" s="1">
         <v>1623562</v>
@@ -6575,7 +6473,7 @@
         <v>40157</v>
       </c>
       <c r="F198" s="1">
-        <v>7519</v>
+        <v>7.5190000000000001</v>
       </c>
       <c r="G198">
         <v>26123</v>
@@ -6592,10 +6490,10 @@
         <v>1007401</v>
       </c>
       <c r="B199" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="C199" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="D199" s="1">
         <v>19457</v>
@@ -6621,7 +6519,7 @@
         <v>804413</v>
       </c>
       <c r="B200" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C200">
         <v>35.14</v>
@@ -6633,7 +6531,7 @@
         <v>44831</v>
       </c>
       <c r="F200" s="1">
-        <v>7171</v>
+        <v>7.1710000000000003</v>
       </c>
       <c r="G200">
         <v>41</v>
@@ -6650,10 +6548,10 @@
         <v>438148</v>
       </c>
       <c r="B201" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C201" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D201" s="1">
         <v>1815117</v>
@@ -6662,7 +6560,7 @@
         <v>44741</v>
       </c>
       <c r="F201" s="1">
-        <v>7606</v>
+        <v>7.6059999999999999</v>
       </c>
       <c r="G201">
         <v>2025</v>

--- a/DataBank/PI3.xlsx
+++ b/DataBank/PI3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\PI3_2022\DataBank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456C454E-D5F2-4AD3-A489-67E0B7C413DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A92B2E-9373-455D-B3AE-E5B3BB80C02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2209" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="401">
   <si>
     <t>ID</t>
   </si>
@@ -1138,6 +1138,132 @@
   </si>
   <si>
     <t>Comedia,Familia,Fantasia</t>
+  </si>
+  <si>
+    <t>Lamborghini: The Man Behind the Legend</t>
+  </si>
+  <si>
+    <t>The Last Manhunt</t>
+  </si>
+  <si>
+    <t>Blue's Big City Adventure</t>
+  </si>
+  <si>
+    <t>The Menu</t>
+  </si>
+  <si>
+    <t>Lyle, Lyle, Crocodile</t>
+  </si>
+  <si>
+    <t>Triangle of Sadness</t>
+  </si>
+  <si>
+    <t>Armageddon Time</t>
+  </si>
+  <si>
+    <t>Plan lekcji</t>
+  </si>
+  <si>
+    <t>Till</t>
+  </si>
+  <si>
+    <t>The Swimmers</t>
+  </si>
+  <si>
+    <t>Christmas on Mistletoe Farm</t>
+  </si>
+  <si>
+    <t>Strange World</t>
+  </si>
+  <si>
+    <t>The Noel Diary</t>
+  </si>
+  <si>
+    <t>El Guau</t>
+  </si>
+  <si>
+    <t>The Guardians of the Galaxy Holiday Special</t>
+  </si>
+  <si>
+    <t>Lesson Plan</t>
+  </si>
+  <si>
+    <t>The Lost Patient</t>
+  </si>
+  <si>
+    <t>A Christmas Mystery</t>
+  </si>
+  <si>
+    <t>Hex</t>
+  </si>
+  <si>
+    <t>Снайпер. Білий ворон</t>
+  </si>
+  <si>
+    <t>Frank and Penelope</t>
+  </si>
+  <si>
+    <t>Margaux</t>
+  </si>
+  <si>
+    <t>Corrective Measures</t>
+  </si>
+  <si>
+    <t>Familia,Fantasia,Aventura</t>
+  </si>
+  <si>
+    <t>Terror,Misterio,Suspense</t>
+  </si>
+  <si>
+    <t>Familia,Comedia,Drama</t>
+  </si>
+  <si>
+    <t>Ocidental</t>
+  </si>
+  <si>
+    <t>Familia,Aventura,Musica,Animação</t>
+  </si>
+  <si>
+    <t>Comedia,Terror,Suspense</t>
+  </si>
+  <si>
+    <t>Comedia,Familia,Musica</t>
+  </si>
+  <si>
+    <t>Familia,Fantasia,Aventura,Drama</t>
+  </si>
+  <si>
+    <t>Animação,Ficção Cientifica,Aventura,Familia</t>
+  </si>
+  <si>
+    <t>Romance,Comedia,Drama</t>
+  </si>
+  <si>
+    <t>Comedia,Ficção Cientifica,Aventura</t>
+  </si>
+  <si>
+    <t>Comedia,Romace,Ficção Cientifica</t>
+  </si>
+  <si>
+    <t>Filme de TV,Suspense,Drama,Misterio</t>
+  </si>
+  <si>
+    <t>Comedia,Drama,Familia,Misterio</t>
+  </si>
+  <si>
+    <t>Ação,Terror,Suspense</t>
+  </si>
+  <si>
+    <t>Drama,Ação,Guerra</t>
+  </si>
+  <si>
+    <t>Suspense,Terror,Crime</t>
+  </si>
+  <si>
+    <t>Terror.Ficção Cientifica</t>
+  </si>
+  <si>
+    <t>Ficção Cientifica,Ação</t>
   </si>
 </sst>
 </file>
@@ -1190,13 +1316,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1511,10 +1638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1101"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1083" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1104" sqref="C1104"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" activeCellId="5" sqref="A1:A1048576 D1:D1048576 F1:F1048576 G1:G1048576 H1:H1048576 I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33459,6 +33586,3646 @@
         <v>20</v>
       </c>
     </row>
+    <row r="1102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1102">
+        <v>338958</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1102" s="1">
+        <v>405.64600000000002</v>
+      </c>
+      <c r="E1102" s="2">
+        <v>44883</v>
+      </c>
+      <c r="F1102" s="1">
+        <v>7.992</v>
+      </c>
+      <c r="G1102" s="1">
+        <v>120</v>
+      </c>
+      <c r="H1102" s="2">
+        <v>44884</v>
+      </c>
+      <c r="I1102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1103">
+        <v>668461</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>382</v>
+      </c>
+      <c r="D1103" s="1">
+        <v>114.268</v>
+      </c>
+      <c r="E1103" s="2">
+        <v>44874</v>
+      </c>
+      <c r="F1103" s="1">
+        <v>8.31</v>
+      </c>
+      <c r="G1103" s="1">
+        <v>63</v>
+      </c>
+      <c r="H1103" s="2">
+        <v>44884</v>
+      </c>
+      <c r="I1103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1104">
+        <v>632856</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1104" s="1">
+        <v>54.927999999999997</v>
+      </c>
+      <c r="E1104" s="2">
+        <v>44882</v>
+      </c>
+      <c r="F1104" s="1">
+        <v>7.5609999999999999</v>
+      </c>
+      <c r="G1104" s="1">
+        <v>41</v>
+      </c>
+      <c r="H1104" s="2">
+        <v>44884</v>
+      </c>
+      <c r="I1104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1105">
+        <v>436270</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1105" s="1">
+        <v>12157.648999999999</v>
+      </c>
+      <c r="E1105" s="2">
+        <v>44853</v>
+      </c>
+      <c r="F1105" s="1">
+        <v>6.8460000000000001</v>
+      </c>
+      <c r="G1105" s="1">
+        <v>1195</v>
+      </c>
+      <c r="H1105" s="2">
+        <v>44884</v>
+      </c>
+      <c r="I1105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1106">
+        <v>505642</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1106" s="1">
+        <v>3747.0970000000002</v>
+      </c>
+      <c r="E1106" s="2">
+        <v>44874</v>
+      </c>
+      <c r="F1106" s="1">
+        <v>7.49</v>
+      </c>
+      <c r="G1106" s="1">
+        <v>806</v>
+      </c>
+      <c r="H1106" s="2">
+        <v>44884</v>
+      </c>
+      <c r="I1106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1107">
+        <v>823766</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1107" s="1">
+        <v>93.503</v>
+      </c>
+      <c r="E1107" s="2">
+        <v>44867</v>
+      </c>
+      <c r="F1107" s="1">
+        <v>6.9889999999999999</v>
+      </c>
+      <c r="G1107" s="1">
+        <v>93</v>
+      </c>
+      <c r="H1107" s="2">
+        <v>44884</v>
+      </c>
+      <c r="I1107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1108">
+        <v>882598</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>383</v>
+      </c>
+      <c r="D1108" s="1">
+        <v>4162.7370000000001</v>
+      </c>
+      <c r="E1108" s="2">
+        <v>44827</v>
+      </c>
+      <c r="F1108" s="1">
+        <v>6.8419999999999996</v>
+      </c>
+      <c r="G1108" s="1">
+        <v>695</v>
+      </c>
+      <c r="H1108" s="2">
+        <v>44884</v>
+      </c>
+      <c r="I1108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1109">
+        <v>802372</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1109" s="1">
+        <v>68.944000000000003</v>
+      </c>
+      <c r="E1109" s="2">
+        <v>44882</v>
+      </c>
+      <c r="F1109" s="1">
+        <v>6.2309999999999999</v>
+      </c>
+      <c r="G1109" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1109" s="2">
+        <v>44884</v>
+      </c>
+      <c r="I1109">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1110">
+        <v>457232</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1110" s="1">
+        <v>92.932000000000002</v>
+      </c>
+      <c r="E1110" s="2">
+        <v>44883</v>
+      </c>
+      <c r="F1110" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="G1110" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1110" s="2">
+        <v>44884</v>
+      </c>
+      <c r="I1110">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1111">
+        <v>929340</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>343</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>384</v>
+      </c>
+      <c r="D1111" s="1">
+        <v>23.559000000000001</v>
+      </c>
+      <c r="E1111" s="2">
+        <v>44903</v>
+      </c>
+      <c r="F1111" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1111" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1111" s="2">
+        <v>44884</v>
+      </c>
+      <c r="I1111">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1112">
+        <v>936960</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1112" s="1">
+        <v>70.819999999999993</v>
+      </c>
+      <c r="E1112" s="2">
+        <v>44882</v>
+      </c>
+      <c r="F1112" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="G1112" s="1">
+        <v>17</v>
+      </c>
+      <c r="H1112" s="2">
+        <v>44884</v>
+      </c>
+      <c r="I1112">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1113">
+        <v>754452</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1113" s="1">
+        <v>70.349000000000004</v>
+      </c>
+      <c r="E1113" s="2">
+        <v>44883</v>
+      </c>
+      <c r="F1113" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G1113" s="1">
+        <v>3</v>
+      </c>
+      <c r="H1113" s="2">
+        <v>44884</v>
+      </c>
+      <c r="I1113">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1114">
+        <v>817758</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1114" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1114" s="1">
+        <v>132.45099999999999</v>
+      </c>
+      <c r="E1114" s="2">
+        <v>44841</v>
+      </c>
+      <c r="F1114" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="G1114" s="1">
+        <v>32</v>
+      </c>
+      <c r="H1114" s="2">
+        <v>44884</v>
+      </c>
+      <c r="I1114">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1115">
+        <v>939210</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1115" s="1">
+        <v>51.759</v>
+      </c>
+      <c r="E1115" s="2">
+        <v>44883</v>
+      </c>
+      <c r="F1115" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1115" s="1">
+        <v>2</v>
+      </c>
+      <c r="H1115" s="2">
+        <v>44884</v>
+      </c>
+      <c r="I1115">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1116">
+        <v>619730</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1116" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1116" s="1">
+        <v>438.375</v>
+      </c>
+      <c r="E1116" s="2">
+        <v>44825</v>
+      </c>
+      <c r="F1116" s="1">
+        <v>6.9269999999999996</v>
+      </c>
+      <c r="G1116" s="1">
+        <v>967</v>
+      </c>
+      <c r="H1116" s="2">
+        <v>44884</v>
+      </c>
+      <c r="I1116">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1117">
+        <v>664469</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1117" s="1">
+        <v>343.73</v>
+      </c>
+      <c r="E1117" s="2">
+        <v>44831</v>
+      </c>
+      <c r="F1117" s="1">
+        <v>6.1340000000000003</v>
+      </c>
+      <c r="G1117" s="1">
+        <v>332</v>
+      </c>
+      <c r="H1117" s="2">
+        <v>44884</v>
+      </c>
+      <c r="I1117">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1118">
+        <v>829280</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1118" s="1">
+        <v>1948.1969999999999</v>
+      </c>
+      <c r="E1118" s="2">
+        <v>44869</v>
+      </c>
+      <c r="F1118" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="G1118" s="1">
+        <v>978</v>
+      </c>
+      <c r="H1118" s="2">
+        <v>44884</v>
+      </c>
+      <c r="I1118">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1119">
+        <v>1018403</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>338</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1119" s="1">
+        <v>137.376</v>
+      </c>
+      <c r="E1119" s="2">
+        <v>44810</v>
+      </c>
+      <c r="F1119" s="1">
+        <v>8.875</v>
+      </c>
+      <c r="G1119" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1119" s="2">
+        <v>44884</v>
+      </c>
+      <c r="I1119">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1120">
+        <v>361743</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1120" s="1">
+        <v>812.61199999999997</v>
+      </c>
+      <c r="E1120" s="2">
+        <v>44705</v>
+      </c>
+      <c r="F1120" s="1">
+        <v>8.3450000000000006</v>
+      </c>
+      <c r="G1120" s="1">
+        <v>4778</v>
+      </c>
+      <c r="H1120" s="2">
+        <v>44884</v>
+      </c>
+      <c r="I1120">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1121">
+        <v>593643</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1121" s="1">
+        <v>228.57499999999999</v>
+      </c>
+      <c r="E1121" s="2">
+        <v>44882</v>
+      </c>
+      <c r="F1121" s="1">
+        <v>7.649</v>
+      </c>
+      <c r="G1121" s="1">
+        <v>56</v>
+      </c>
+      <c r="H1121" s="2">
+        <v>44884</v>
+      </c>
+      <c r="I1121">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1122">
+        <v>338958</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1122" s="1">
+        <v>567.904</v>
+      </c>
+      <c r="E1122" s="2">
+        <v>44883</v>
+      </c>
+      <c r="F1122" s="1">
+        <v>7.7809999999999997</v>
+      </c>
+      <c r="G1122" s="1">
+        <v>192</v>
+      </c>
+      <c r="H1122" s="2">
+        <v>44885</v>
+      </c>
+      <c r="I1122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1123">
+        <v>668461</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>382</v>
+      </c>
+      <c r="D1123" s="1">
+        <v>159.97499999999999</v>
+      </c>
+      <c r="E1123" s="2">
+        <v>44874</v>
+      </c>
+      <c r="F1123" s="1">
+        <v>8.0589999999999993</v>
+      </c>
+      <c r="G1123" s="1">
+        <v>111</v>
+      </c>
+      <c r="H1123" s="2">
+        <v>44885</v>
+      </c>
+      <c r="I1123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1124">
+        <v>632856</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1124" s="1">
+        <v>76.899000000000001</v>
+      </c>
+      <c r="E1124" s="2">
+        <v>44882</v>
+      </c>
+      <c r="F1124" s="1">
+        <v>7.4550000000000001</v>
+      </c>
+      <c r="G1124" s="1">
+        <v>67</v>
+      </c>
+      <c r="H1124" s="2">
+        <v>44885</v>
+      </c>
+      <c r="I1124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1125">
+        <v>436270</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1125" s="1">
+        <v>17020.708999999999</v>
+      </c>
+      <c r="E1125" s="2">
+        <v>44853</v>
+      </c>
+      <c r="F1125" s="1">
+        <v>6.8440000000000003</v>
+      </c>
+      <c r="G1125" s="1">
+        <v>1229</v>
+      </c>
+      <c r="H1125" s="2">
+        <v>44885</v>
+      </c>
+      <c r="I1125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1126">
+        <v>505642</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1126" s="1">
+        <v>4248.6170000000002</v>
+      </c>
+      <c r="E1126" s="2">
+        <v>44874</v>
+      </c>
+      <c r="F1126" s="1">
+        <v>7.5049999999999999</v>
+      </c>
+      <c r="G1126" s="1">
+        <v>856</v>
+      </c>
+      <c r="H1126" s="2">
+        <v>44885</v>
+      </c>
+      <c r="I1126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1127">
+        <v>823766</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1127" s="1">
+        <v>130.904</v>
+      </c>
+      <c r="E1127" s="2">
+        <v>44867</v>
+      </c>
+      <c r="F1127" s="1">
+        <v>6.8769999999999998</v>
+      </c>
+      <c r="G1127" s="1">
+        <v>130</v>
+      </c>
+      <c r="H1127" s="2">
+        <v>44885</v>
+      </c>
+      <c r="I1127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1128">
+        <v>802372</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1128" s="1">
+        <v>96.522000000000006</v>
+      </c>
+      <c r="E1128" s="2">
+        <v>44882</v>
+      </c>
+      <c r="F1128" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="G1128" s="1">
+        <v>20</v>
+      </c>
+      <c r="H1128" s="2">
+        <v>44885</v>
+      </c>
+      <c r="I1128">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1129">
+        <v>457232</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1129" s="1">
+        <v>130.10499999999999</v>
+      </c>
+      <c r="E1129" s="2">
+        <v>44883</v>
+      </c>
+      <c r="F1129" s="1">
+        <v>6.35</v>
+      </c>
+      <c r="G1129" s="1">
+        <v>20</v>
+      </c>
+      <c r="H1129" s="2">
+        <v>44885</v>
+      </c>
+      <c r="I1129">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1130">
+        <v>882598</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>383</v>
+      </c>
+      <c r="D1130" s="1">
+        <v>4674.4369999999999</v>
+      </c>
+      <c r="E1130" s="2">
+        <v>44827</v>
+      </c>
+      <c r="F1130" s="1">
+        <v>6.86</v>
+      </c>
+      <c r="G1130" s="1">
+        <v>739</v>
+      </c>
+      <c r="H1130" s="2">
+        <v>44885</v>
+      </c>
+      <c r="I1130">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1131">
+        <v>936960</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1131" s="1">
+        <v>138.80699999999999</v>
+      </c>
+      <c r="E1131" s="2">
+        <v>44882</v>
+      </c>
+      <c r="F1131" s="1">
+        <v>5.6289999999999996</v>
+      </c>
+      <c r="G1131" s="1">
+        <v>31</v>
+      </c>
+      <c r="H1131" s="2">
+        <v>44885</v>
+      </c>
+      <c r="I1131">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1132">
+        <v>361743</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1132" s="1">
+        <v>998.39700000000005</v>
+      </c>
+      <c r="E1132" s="2">
+        <v>44705</v>
+      </c>
+      <c r="F1132" s="1">
+        <v>8.3460000000000001</v>
+      </c>
+      <c r="G1132" s="1">
+        <v>4790</v>
+      </c>
+      <c r="H1132" s="2">
+        <v>44885</v>
+      </c>
+      <c r="I1132">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1133">
+        <v>929340</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>343</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>384</v>
+      </c>
+      <c r="D1133" s="1">
+        <v>46.176000000000002</v>
+      </c>
+      <c r="E1133" s="2">
+        <v>44903</v>
+      </c>
+      <c r="F1133" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1133" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1133" s="2">
+        <v>44885</v>
+      </c>
+      <c r="I1133">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1134">
+        <v>619730</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1134" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1134" s="1">
+        <v>566.32100000000003</v>
+      </c>
+      <c r="E1134" s="2">
+        <v>44825</v>
+      </c>
+      <c r="F1134" s="1">
+        <v>6.9109999999999996</v>
+      </c>
+      <c r="G1134" s="1">
+        <v>981</v>
+      </c>
+      <c r="H1134" s="2">
+        <v>44885</v>
+      </c>
+      <c r="I1134">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1135">
+        <v>754452</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1135" s="1">
+        <v>98.489000000000004</v>
+      </c>
+      <c r="E1135" s="2">
+        <v>44883</v>
+      </c>
+      <c r="F1135" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="G1135" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1135" s="2">
+        <v>44885</v>
+      </c>
+      <c r="I1135">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1136">
+        <v>593643</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1136" s="1">
+        <v>259.17500000000001</v>
+      </c>
+      <c r="E1136" s="2">
+        <v>44882</v>
+      </c>
+      <c r="F1136" s="1">
+        <v>7.6059999999999999</v>
+      </c>
+      <c r="G1136" s="1">
+        <v>80</v>
+      </c>
+      <c r="H1136" s="2">
+        <v>44885</v>
+      </c>
+      <c r="I1136">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1137">
+        <v>939210</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1137" s="1">
+        <v>101.44799999999999</v>
+      </c>
+      <c r="E1137" s="2">
+        <v>44883</v>
+      </c>
+      <c r="F1137" s="1">
+        <v>7</v>
+      </c>
+      <c r="G1137" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1137" s="2">
+        <v>44885</v>
+      </c>
+      <c r="I1137">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1138">
+        <v>829280</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1138" s="1">
+        <v>2096.3609999999999</v>
+      </c>
+      <c r="E1138" s="2">
+        <v>44869</v>
+      </c>
+      <c r="F1138" s="1">
+        <v>7.7190000000000003</v>
+      </c>
+      <c r="G1138" s="1">
+        <v>1006</v>
+      </c>
+      <c r="H1138" s="2">
+        <v>44885</v>
+      </c>
+      <c r="I1138">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1139">
+        <v>817758</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1139" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1139" s="1">
+        <v>185.43100000000001</v>
+      </c>
+      <c r="E1139" s="2">
+        <v>44841</v>
+      </c>
+      <c r="F1139" s="1">
+        <v>7.7240000000000002</v>
+      </c>
+      <c r="G1139" s="1">
+        <v>38</v>
+      </c>
+      <c r="H1139" s="2">
+        <v>44885</v>
+      </c>
+      <c r="I1139">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1140">
+        <v>616037</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1140" s="1">
+        <v>1107.403</v>
+      </c>
+      <c r="E1140" s="2">
+        <v>44748</v>
+      </c>
+      <c r="F1140" s="1">
+        <v>6.7069999999999999</v>
+      </c>
+      <c r="G1140" s="1">
+        <v>4698</v>
+      </c>
+      <c r="H1140" s="2">
+        <v>44885</v>
+      </c>
+      <c r="I1140">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1141">
+        <v>718930</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1141" s="1">
+        <v>1005.427</v>
+      </c>
+      <c r="E1141" s="2">
+        <v>44745</v>
+      </c>
+      <c r="F1141" s="1">
+        <v>7.5119999999999996</v>
+      </c>
+      <c r="G1141" s="1">
+        <v>2382</v>
+      </c>
+      <c r="H1141" s="2">
+        <v>44885</v>
+      </c>
+      <c r="I1141">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1142">
+        <v>436270</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1142" s="1">
+        <v>22201.949000000001</v>
+      </c>
+      <c r="E1142" s="2">
+        <v>44853</v>
+      </c>
+      <c r="F1142" s="1">
+        <v>7.0529999999999999</v>
+      </c>
+      <c r="G1142" s="1">
+        <v>1517</v>
+      </c>
+      <c r="H1142" s="2">
+        <v>44888</v>
+      </c>
+      <c r="I1142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1143">
+        <v>724495</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1143" s="1">
+        <v>296.52300000000002</v>
+      </c>
+      <c r="E1143" s="2">
+        <v>44819</v>
+      </c>
+      <c r="F1143" s="1">
+        <v>7.5410000000000004</v>
+      </c>
+      <c r="G1143" s="1">
+        <v>327</v>
+      </c>
+      <c r="H1143" s="2">
+        <v>44888</v>
+      </c>
+      <c r="I1143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1144">
+        <v>338958</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1144" s="1">
+        <v>1113.0920000000001</v>
+      </c>
+      <c r="E1144" s="2">
+        <v>44881</v>
+      </c>
+      <c r="F1144" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="G1144" s="1">
+        <v>278</v>
+      </c>
+      <c r="H1144" s="2">
+        <v>44888</v>
+      </c>
+      <c r="I1144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1145">
+        <v>830784</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1145" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1145" s="1">
+        <v>269.87700000000001</v>
+      </c>
+      <c r="E1145" s="2">
+        <v>44841</v>
+      </c>
+      <c r="F1145" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="G1145" s="1">
+        <v>30</v>
+      </c>
+      <c r="H1145" s="2">
+        <v>44888</v>
+      </c>
+      <c r="I1145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1146">
+        <v>668461</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1146" s="1">
+        <v>313.55099999999999</v>
+      </c>
+      <c r="E1146" s="2">
+        <v>44874</v>
+      </c>
+      <c r="F1146" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1146" s="1">
+        <v>166</v>
+      </c>
+      <c r="H1146" s="2">
+        <v>44888</v>
+      </c>
+      <c r="I1146">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1147">
+        <v>505642</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1147" s="1">
+        <v>3237.8820000000001</v>
+      </c>
+      <c r="E1147" s="2">
+        <v>44874</v>
+      </c>
+      <c r="F1147" s="1">
+        <v>7.4889999999999999</v>
+      </c>
+      <c r="G1147" s="1">
+        <v>938</v>
+      </c>
+      <c r="H1147" s="2">
+        <v>44888</v>
+      </c>
+      <c r="I1147">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1148">
+        <v>497828</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1148" s="1">
+        <v>53.494</v>
+      </c>
+      <c r="E1148" s="2">
+        <v>44827</v>
+      </c>
+      <c r="F1148" s="1">
+        <v>7.6719999999999997</v>
+      </c>
+      <c r="G1148" s="1">
+        <v>279</v>
+      </c>
+      <c r="H1148" s="2">
+        <v>44888</v>
+      </c>
+      <c r="I1148">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1149">
+        <v>632856</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1149" s="1">
+        <v>150.72300000000001</v>
+      </c>
+      <c r="E1149" s="2">
+        <v>44882</v>
+      </c>
+      <c r="F1149" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="G1149" s="1">
+        <v>90</v>
+      </c>
+      <c r="H1149" s="2">
+        <v>44888</v>
+      </c>
+      <c r="I1149">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1150">
+        <v>615952</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>365</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1150" s="1">
+        <v>33.634</v>
+      </c>
+      <c r="E1150" s="2">
+        <v>44862</v>
+      </c>
+      <c r="F1150" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="G1150" s="1">
+        <v>60</v>
+      </c>
+      <c r="H1150" s="2">
+        <v>44888</v>
+      </c>
+      <c r="I1150">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1151">
+        <v>76600</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1151" s="1">
+        <v>740.07899999999995</v>
+      </c>
+      <c r="E1151" s="2">
+        <v>44909</v>
+      </c>
+      <c r="F1151" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1151" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1151" s="2">
+        <v>44888</v>
+      </c>
+      <c r="I1151">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1152">
+        <v>1049233</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>366</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1152" s="1">
+        <v>10.542999999999999</v>
+      </c>
+      <c r="E1152" s="2">
+        <v>44888</v>
+      </c>
+      <c r="F1152" s="1">
+        <v>6</v>
+      </c>
+      <c r="G1152" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1152" s="2">
+        <v>44888</v>
+      </c>
+      <c r="I1152">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1153">
+        <v>854239</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>367</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1153" s="1">
+        <v>18.826000000000001</v>
+      </c>
+      <c r="E1153" s="2">
+        <v>44848</v>
+      </c>
+      <c r="F1153" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1153" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1153" s="2">
+        <v>44888</v>
+      </c>
+      <c r="I1153">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1154">
+        <v>823766</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1154" s="1">
+        <v>256.572</v>
+      </c>
+      <c r="E1154" s="2">
+        <v>44867</v>
+      </c>
+      <c r="F1154" s="1">
+        <v>6.8650000000000002</v>
+      </c>
+      <c r="G1154" s="1">
+        <v>171</v>
+      </c>
+      <c r="H1154" s="2">
+        <v>44888</v>
+      </c>
+      <c r="I1154">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1155">
+        <v>802372</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1155" s="1">
+        <v>189.18299999999999</v>
+      </c>
+      <c r="E1155" s="2">
+        <v>44882</v>
+      </c>
+      <c r="F1155" s="1">
+        <v>5.9169999999999998</v>
+      </c>
+      <c r="G1155" s="1">
+        <v>30</v>
+      </c>
+      <c r="H1155" s="2">
+        <v>44888</v>
+      </c>
+      <c r="I1155">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1156">
+        <v>821881</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1156" s="1">
+        <v>7.6219999999999999</v>
+      </c>
+      <c r="E1156" s="2">
+        <v>44812</v>
+      </c>
+      <c r="F1156" s="1">
+        <v>10</v>
+      </c>
+      <c r="G1156" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1156" s="2">
+        <v>44888</v>
+      </c>
+      <c r="I1156">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1157">
+        <v>882598</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>383</v>
+      </c>
+      <c r="D1157" s="1">
+        <v>2837.2829999999999</v>
+      </c>
+      <c r="E1157" s="2">
+        <v>44827</v>
+      </c>
+      <c r="F1157" s="1">
+        <v>6.8129999999999997</v>
+      </c>
+      <c r="G1157" s="1">
+        <v>823</v>
+      </c>
+      <c r="H1157" s="2">
+        <v>44888</v>
+      </c>
+      <c r="I1157">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1158">
+        <v>457232</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1158" s="1">
+        <v>110.999</v>
+      </c>
+      <c r="E1158" s="2">
+        <v>44883</v>
+      </c>
+      <c r="F1158" s="1">
+        <v>6.968</v>
+      </c>
+      <c r="G1158" s="1">
+        <v>31</v>
+      </c>
+      <c r="H1158" s="2">
+        <v>44888</v>
+      </c>
+      <c r="I1158">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1159">
+        <v>1038627</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1159" s="1">
+        <v>36.863</v>
+      </c>
+      <c r="E1159" s="2">
+        <v>44888</v>
+      </c>
+      <c r="F1159" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1159" s="1">
+        <v>2</v>
+      </c>
+      <c r="H1159" s="2">
+        <v>44888</v>
+      </c>
+      <c r="I1159">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1160">
+        <v>877269</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1160" s="1">
+        <v>280.93900000000002</v>
+      </c>
+      <c r="E1160" s="2">
+        <v>44888</v>
+      </c>
+      <c r="F1160" s="1">
+        <v>6</v>
+      </c>
+      <c r="G1160" s="1">
+        <v>4</v>
+      </c>
+      <c r="H1160" s="2">
+        <v>44888</v>
+      </c>
+      <c r="I1160">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1161">
+        <v>593643</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1161" s="1">
+        <v>507.983</v>
+      </c>
+      <c r="E1161" s="2">
+        <v>44882</v>
+      </c>
+      <c r="F1161" s="1">
+        <v>7.452</v>
+      </c>
+      <c r="G1161" s="1">
+        <v>135</v>
+      </c>
+      <c r="H1161" s="2">
+        <v>44888</v>
+      </c>
+      <c r="I1161">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1162">
+        <v>436270</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1162" s="1">
+        <v>17944.112000000001</v>
+      </c>
+      <c r="E1162" s="2">
+        <v>44853</v>
+      </c>
+      <c r="F1162" s="1">
+        <v>7.1559999999999997</v>
+      </c>
+      <c r="G1162" s="1">
+        <v>1690</v>
+      </c>
+      <c r="H1162" s="2">
+        <v>44889</v>
+      </c>
+      <c r="I1162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1163">
+        <v>830784</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1163" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1163" s="1">
+        <v>458.30700000000002</v>
+      </c>
+      <c r="E1163" s="2">
+        <v>44841</v>
+      </c>
+      <c r="F1163" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="G1163" s="1">
+        <v>33</v>
+      </c>
+      <c r="H1163" s="2">
+        <v>44889</v>
+      </c>
+      <c r="I1163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1164">
+        <v>724495</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1164" s="1">
+        <v>581.18499999999995</v>
+      </c>
+      <c r="E1164" s="2">
+        <v>44819</v>
+      </c>
+      <c r="F1164" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="G1164" s="1">
+        <v>385</v>
+      </c>
+      <c r="H1164" s="2">
+        <v>44889</v>
+      </c>
+      <c r="I1164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1165">
+        <v>615952</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>365</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1165" s="1">
+        <v>65.923000000000002</v>
+      </c>
+      <c r="E1165" s="2">
+        <v>44862</v>
+      </c>
+      <c r="F1165" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="G1165" s="1">
+        <v>68</v>
+      </c>
+      <c r="H1165" s="2">
+        <v>44889</v>
+      </c>
+      <c r="I1165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1166">
+        <v>1049233</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>366</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1166" s="1">
+        <v>14.76</v>
+      </c>
+      <c r="E1166" s="2">
+        <v>44888</v>
+      </c>
+      <c r="F1166" s="1">
+        <v>8.6669999999999998</v>
+      </c>
+      <c r="G1166" s="1">
+        <v>3</v>
+      </c>
+      <c r="H1166" s="2">
+        <v>44889</v>
+      </c>
+      <c r="I1166">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1167">
+        <v>821881</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1167" s="1">
+        <v>14.939</v>
+      </c>
+      <c r="E1167" s="2">
+        <v>44889</v>
+      </c>
+      <c r="F1167" s="1">
+        <v>8.9380000000000006</v>
+      </c>
+      <c r="G1167" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1167" s="2">
+        <v>44889</v>
+      </c>
+      <c r="I1167">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1168">
+        <v>505642</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1168" s="1">
+        <v>2806.4679999999998</v>
+      </c>
+      <c r="E1168" s="2">
+        <v>44874</v>
+      </c>
+      <c r="F1168" s="1">
+        <v>7.4829999999999997</v>
+      </c>
+      <c r="G1168" s="1">
+        <v>969</v>
+      </c>
+      <c r="H1168" s="2">
+        <v>44889</v>
+      </c>
+      <c r="I1168">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1169">
+        <v>338958</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1169" s="1">
+        <v>2181.6610000000001</v>
+      </c>
+      <c r="E1169" s="2">
+        <v>44881</v>
+      </c>
+      <c r="F1169" s="1">
+        <v>7.5389999999999997</v>
+      </c>
+      <c r="G1169" s="1">
+        <v>319</v>
+      </c>
+      <c r="H1169" s="2">
+        <v>44889</v>
+      </c>
+      <c r="I1169">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1170">
+        <v>1038627</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1170" s="1">
+        <v>51.607999999999997</v>
+      </c>
+      <c r="E1170" s="2">
+        <v>44889</v>
+      </c>
+      <c r="F1170" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="G1170" s="1">
+        <v>3</v>
+      </c>
+      <c r="H1170" s="2">
+        <v>44889</v>
+      </c>
+      <c r="I1170">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1171">
+        <v>736918</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>371</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>391</v>
+      </c>
+      <c r="D1171" s="1">
+        <v>52.081000000000003</v>
+      </c>
+      <c r="E1171" s="2">
+        <v>44889</v>
+      </c>
+      <c r="F1171" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G1171" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1171" s="2">
+        <v>44889</v>
+      </c>
+      <c r="I1171">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1172">
+        <v>668461</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1172" s="1">
+        <v>614.55899999999997</v>
+      </c>
+      <c r="E1172" s="2">
+        <v>44874</v>
+      </c>
+      <c r="F1172" s="1">
+        <v>8.0730000000000004</v>
+      </c>
+      <c r="G1172" s="1">
+        <v>185</v>
+      </c>
+      <c r="H1172" s="2">
+        <v>44889</v>
+      </c>
+      <c r="I1172">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1173">
+        <v>632856</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1173" s="1">
+        <v>295.41699999999997</v>
+      </c>
+      <c r="E1173" s="2">
+        <v>44882</v>
+      </c>
+      <c r="F1173" s="1">
+        <v>7.4349999999999996</v>
+      </c>
+      <c r="G1173" s="1">
+        <v>100</v>
+      </c>
+      <c r="H1173" s="2">
+        <v>44889</v>
+      </c>
+      <c r="I1173">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1174">
+        <v>497828</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1174" s="1">
+        <v>104.849</v>
+      </c>
+      <c r="E1174" s="2">
+        <v>44827</v>
+      </c>
+      <c r="F1174" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="G1174" s="1">
+        <v>288</v>
+      </c>
+      <c r="H1174" s="2">
+        <v>44889</v>
+      </c>
+      <c r="I1174">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1175">
+        <v>854239</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>367</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1175" s="1">
+        <v>36.898000000000003</v>
+      </c>
+      <c r="E1175" s="2">
+        <v>44848</v>
+      </c>
+      <c r="F1175" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="G1175" s="1">
+        <v>19</v>
+      </c>
+      <c r="H1175" s="2">
+        <v>44889</v>
+      </c>
+      <c r="I1175">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1176">
+        <v>1044043</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1176" s="1">
+        <v>36.960999999999999</v>
+      </c>
+      <c r="E1176" s="2">
+        <v>44888</v>
+      </c>
+      <c r="F1176" s="1">
+        <v>10</v>
+      </c>
+      <c r="G1176" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1176" s="2">
+        <v>44889</v>
+      </c>
+      <c r="I1176">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1177">
+        <v>76600</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1177" s="1">
+        <v>755.36199999999997</v>
+      </c>
+      <c r="E1177" s="2">
+        <v>44909</v>
+      </c>
+      <c r="F1177" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1177" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1177" s="2">
+        <v>44889</v>
+      </c>
+      <c r="I1177">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1178">
+        <v>361743</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1178" s="1">
+        <v>597.07899999999995</v>
+      </c>
+      <c r="E1178" s="2">
+        <v>44705</v>
+      </c>
+      <c r="F1178" s="1">
+        <v>8.343</v>
+      </c>
+      <c r="G1178" s="1">
+        <v>4829</v>
+      </c>
+      <c r="H1178" s="2">
+        <v>44889</v>
+      </c>
+      <c r="I1178">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1179">
+        <v>877269</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1179" s="1">
+        <v>280.76900000000001</v>
+      </c>
+      <c r="E1179" s="2">
+        <v>44888</v>
+      </c>
+      <c r="F1179" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="G1179" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1179" s="2">
+        <v>44889</v>
+      </c>
+      <c r="I1179">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1180">
+        <v>823766</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1180" s="1">
+        <v>345.666</v>
+      </c>
+      <c r="E1180" s="2">
+        <v>44867</v>
+      </c>
+      <c r="F1180" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="G1180" s="1">
+        <v>179</v>
+      </c>
+      <c r="H1180" s="2">
+        <v>44889</v>
+      </c>
+      <c r="I1180">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1181">
+        <v>882598</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>383</v>
+      </c>
+      <c r="D1181" s="1">
+        <v>2300.9520000000002</v>
+      </c>
+      <c r="E1181" s="2">
+        <v>44827</v>
+      </c>
+      <c r="F1181" s="1">
+        <v>6.8029999999999999</v>
+      </c>
+      <c r="G1181" s="1">
+        <v>860</v>
+      </c>
+      <c r="H1181" s="2">
+        <v>44889</v>
+      </c>
+      <c r="I1181">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1182">
+        <v>774752</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>373</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>392</v>
+      </c>
+      <c r="D1182" s="1">
+        <v>140.459</v>
+      </c>
+      <c r="E1182" s="2">
+        <v>44890</v>
+      </c>
+      <c r="F1182" s="1">
+        <v>7.4690000000000003</v>
+      </c>
+      <c r="G1182" s="1">
+        <v>162</v>
+      </c>
+      <c r="H1182" s="2">
+        <v>44891</v>
+      </c>
+      <c r="I1182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1183">
+        <v>436270</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1183" s="1">
+        <v>16093.223</v>
+      </c>
+      <c r="E1183" s="2">
+        <v>44853</v>
+      </c>
+      <c r="F1183" s="1">
+        <v>7.23</v>
+      </c>
+      <c r="G1183" s="1">
+        <v>1865</v>
+      </c>
+      <c r="H1183" s="2">
+        <v>44891</v>
+      </c>
+      <c r="I1183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1184">
+        <v>830784</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1184" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1184" s="1">
+        <v>641.63</v>
+      </c>
+      <c r="E1184" s="2">
+        <v>44841</v>
+      </c>
+      <c r="F1184" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="G1184" s="1">
+        <v>38</v>
+      </c>
+      <c r="H1184" s="2">
+        <v>44891</v>
+      </c>
+      <c r="I1184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1185">
+        <v>724495</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1185" s="1">
+        <v>813.65899999999999</v>
+      </c>
+      <c r="E1185" s="2">
+        <v>44819</v>
+      </c>
+      <c r="F1185" s="1">
+        <v>7.78</v>
+      </c>
+      <c r="G1185" s="1">
+        <v>436</v>
+      </c>
+      <c r="H1185" s="2">
+        <v>44891</v>
+      </c>
+      <c r="I1185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1186">
+        <v>1049233</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1186" s="1">
+        <v>28.93</v>
+      </c>
+      <c r="E1186" s="2">
+        <v>44888</v>
+      </c>
+      <c r="F1186" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="G1186" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1186" s="2">
+        <v>44891</v>
+      </c>
+      <c r="I1186">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1187">
+        <v>736918</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>371</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>391</v>
+      </c>
+      <c r="D1187" s="1">
+        <v>72.912999999999997</v>
+      </c>
+      <c r="E1187" s="2">
+        <v>44889</v>
+      </c>
+      <c r="F1187" s="1">
+        <v>7.5149999999999997</v>
+      </c>
+      <c r="G1187" s="1">
+        <v>33</v>
+      </c>
+      <c r="H1187" s="2">
+        <v>44891</v>
+      </c>
+      <c r="I1187">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1188">
+        <v>505642</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1188" s="1">
+        <v>2575.3519999999999</v>
+      </c>
+      <c r="E1188" s="2">
+        <v>44874</v>
+      </c>
+      <c r="F1188" s="1">
+        <v>7.4969999999999999</v>
+      </c>
+      <c r="G1188" s="1">
+        <v>1009</v>
+      </c>
+      <c r="H1188" s="2">
+        <v>44891</v>
+      </c>
+      <c r="I1188">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1189">
+        <v>338958</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1189" s="1">
+        <v>3054.3249999999998</v>
+      </c>
+      <c r="E1189" s="2">
+        <v>44881</v>
+      </c>
+      <c r="F1189" s="1">
+        <v>7.5419999999999998</v>
+      </c>
+      <c r="G1189" s="1">
+        <v>347</v>
+      </c>
+      <c r="H1189" s="2">
+        <v>44891</v>
+      </c>
+      <c r="I1189">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1190">
+        <v>843543</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>393</v>
+      </c>
+      <c r="D1190" s="1">
+        <v>40559</v>
+      </c>
+      <c r="E1190" s="2">
+        <v>44825</v>
+      </c>
+      <c r="F1190" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="G1190" s="1">
+        <v>38</v>
+      </c>
+      <c r="H1190" s="2">
+        <v>44891</v>
+      </c>
+      <c r="I1190">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1191">
+        <v>1006917</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1191" s="1">
+        <v>5.2469999999999999</v>
+      </c>
+      <c r="E1191" s="2">
+        <v>44855</v>
+      </c>
+      <c r="F1191" s="1">
+        <v>6.133</v>
+      </c>
+      <c r="G1191" s="1">
+        <v>15</v>
+      </c>
+      <c r="H1191" s="2">
+        <v>44891</v>
+      </c>
+      <c r="I1191">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1192">
+        <v>632856</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1192" s="1">
+        <v>413.584</v>
+      </c>
+      <c r="E1192" s="2">
+        <v>44882</v>
+      </c>
+      <c r="F1192" s="1">
+        <v>7.3319999999999999</v>
+      </c>
+      <c r="G1192" s="1">
+        <v>119</v>
+      </c>
+      <c r="H1192" s="2">
+        <v>44891</v>
+      </c>
+      <c r="I1192">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1193">
+        <v>668461</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1193" s="1">
+        <v>860.38300000000004</v>
+      </c>
+      <c r="E1193" s="2">
+        <v>44874</v>
+      </c>
+      <c r="F1193" s="1">
+        <v>8.0310000000000006</v>
+      </c>
+      <c r="G1193" s="1">
+        <v>223</v>
+      </c>
+      <c r="H1193" s="2">
+        <v>44891</v>
+      </c>
+      <c r="I1193">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1194">
+        <v>615952</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>365</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1194" s="1">
+        <v>92.292000000000002</v>
+      </c>
+      <c r="E1194" s="2">
+        <v>44862</v>
+      </c>
+      <c r="F1194" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="G1194" s="1">
+        <v>76</v>
+      </c>
+      <c r="H1194" s="2">
+        <v>44891</v>
+      </c>
+      <c r="I1194">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1195">
+        <v>1038627</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1195" s="1">
+        <v>101.151</v>
+      </c>
+      <c r="E1195" s="2">
+        <v>44889</v>
+      </c>
+      <c r="F1195" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="G1195" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1195" s="2">
+        <v>44891</v>
+      </c>
+      <c r="I1195">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1196">
+        <v>987919</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>376</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>395</v>
+      </c>
+      <c r="D1196" s="1">
+        <v>99.632000000000005</v>
+      </c>
+      <c r="E1196" s="2">
+        <v>44889</v>
+      </c>
+      <c r="F1196" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="G1196" s="1">
+        <v>4</v>
+      </c>
+      <c r="H1196" s="2">
+        <v>44891</v>
+      </c>
+      <c r="I1196">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1197">
+        <v>497828</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1197" s="1">
+        <v>111.227</v>
+      </c>
+      <c r="E1197" s="2">
+        <v>44827</v>
+      </c>
+      <c r="F1197" s="1">
+        <v>7.6310000000000002</v>
+      </c>
+      <c r="G1197" s="1">
+        <v>295</v>
+      </c>
+      <c r="H1197" s="2">
+        <v>44891</v>
+      </c>
+      <c r="I1197">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1198">
+        <v>76600</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1198" s="1">
+        <v>715.73099999999999</v>
+      </c>
+      <c r="E1198" s="2">
+        <v>44909</v>
+      </c>
+      <c r="F1198" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1198" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1198" s="2">
+        <v>44891</v>
+      </c>
+      <c r="I1198">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1199">
+        <v>987919</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>376</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>395</v>
+      </c>
+      <c r="D1199" s="1">
+        <v>99.632000000000005</v>
+      </c>
+      <c r="E1199" s="2">
+        <v>44889</v>
+      </c>
+      <c r="F1199" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="G1199" s="1">
+        <v>4</v>
+      </c>
+      <c r="H1199" s="2">
+        <v>44891</v>
+      </c>
+      <c r="I1199">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1200">
+        <v>821881</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1200" s="1">
+        <v>20.914999999999999</v>
+      </c>
+      <c r="E1200" s="2">
+        <v>44889</v>
+      </c>
+      <c r="F1200" s="1">
+        <v>8.3670000000000009</v>
+      </c>
+      <c r="G1200" s="1">
+        <v>15</v>
+      </c>
+      <c r="H1200" s="2">
+        <v>44891</v>
+      </c>
+      <c r="I1200">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1201">
+        <v>497828</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1201" s="1">
+        <v>111.227</v>
+      </c>
+      <c r="E1201" s="2">
+        <v>44827</v>
+      </c>
+      <c r="F1201" s="1">
+        <v>7.6310000000000002</v>
+      </c>
+      <c r="G1201" s="1">
+        <v>295</v>
+      </c>
+      <c r="H1201" s="2">
+        <v>44891</v>
+      </c>
+      <c r="I1201">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1202">
+        <v>436270</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1202" s="1">
+        <v>15075.276</v>
+      </c>
+      <c r="E1202" s="2">
+        <v>44853</v>
+      </c>
+      <c r="F1202" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="G1202" s="1">
+        <v>1888</v>
+      </c>
+      <c r="H1202" s="2">
+        <v>44892</v>
+      </c>
+      <c r="I1202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1203">
+        <v>1013860</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>298</v>
+      </c>
+      <c r="D1203" s="1">
+        <v>6040.3879999999999</v>
+      </c>
+      <c r="E1203" s="2">
+        <v>44880</v>
+      </c>
+      <c r="F1203" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="G1203" s="1">
+        <v>152</v>
+      </c>
+      <c r="H1203" s="2">
+        <v>44892</v>
+      </c>
+      <c r="I1203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1204">
+        <v>338958</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1204" s="1">
+        <v>3316.598</v>
+      </c>
+      <c r="E1204" s="2">
+        <v>44881</v>
+      </c>
+      <c r="F1204" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="G1204" s="1">
+        <v>352</v>
+      </c>
+      <c r="H1204" s="2">
+        <v>44892</v>
+      </c>
+      <c r="I1204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1205">
+        <v>988233</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>396</v>
+      </c>
+      <c r="D1205" s="1">
+        <v>2649.7350000000001</v>
+      </c>
+      <c r="E1205" s="2">
+        <v>44866</v>
+      </c>
+      <c r="F1205" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G1205" s="1">
+        <v>3</v>
+      </c>
+      <c r="H1205" s="2">
+        <v>44892</v>
+      </c>
+      <c r="I1205">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1206">
+        <v>829799</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1206" s="1">
+        <v>2757.3290000000002</v>
+      </c>
+      <c r="E1206" s="2">
+        <v>44876</v>
+      </c>
+      <c r="F1206" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="G1206" s="1">
+        <v>17</v>
+      </c>
+      <c r="H1206" s="2">
+        <v>44892</v>
+      </c>
+      <c r="I1206">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1207">
+        <v>505642</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1207" s="1">
+        <v>2506.8220000000001</v>
+      </c>
+      <c r="E1207" s="2">
+        <v>44874</v>
+      </c>
+      <c r="F1207" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="G1207" s="1">
+        <v>1017</v>
+      </c>
+      <c r="H1207" s="2">
+        <v>44892</v>
+      </c>
+      <c r="I1207">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1208">
+        <v>882598</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>383</v>
+      </c>
+      <c r="D1208" s="1">
+        <v>2103.3879999999999</v>
+      </c>
+      <c r="E1208" s="2">
+        <v>44827</v>
+      </c>
+      <c r="F1208" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="G1208" s="1">
+        <v>893</v>
+      </c>
+      <c r="H1208" s="2">
+        <v>44892</v>
+      </c>
+      <c r="I1208">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1209">
+        <v>551271</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1209" s="1">
+        <v>2489.7049999999999</v>
+      </c>
+      <c r="E1209" s="2">
+        <v>44812</v>
+      </c>
+      <c r="F1209" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="G1209" s="1">
+        <v>179</v>
+      </c>
+      <c r="H1209" s="2">
+        <v>44892</v>
+      </c>
+      <c r="I1209">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1210">
+        <v>862965</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1210" s="1">
+        <v>1989.7670000000001</v>
+      </c>
+      <c r="E1210" s="2">
+        <v>44785</v>
+      </c>
+      <c r="F1210" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="G1210" s="1">
+        <v>200</v>
+      </c>
+      <c r="H1210" s="2">
+        <v>44892</v>
+      </c>
+      <c r="I1210">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1211">
+        <v>966220</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>378</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>397</v>
+      </c>
+      <c r="D1211" s="1">
+        <v>2373.71</v>
+      </c>
+      <c r="E1211" s="2">
+        <v>44684</v>
+      </c>
+      <c r="F1211" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="G1211" s="1">
+        <v>126</v>
+      </c>
+      <c r="H1211" s="2">
+        <v>44892</v>
+      </c>
+      <c r="I1211">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1212">
+        <v>948276</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1212" s="1">
+        <v>1984.403</v>
+      </c>
+      <c r="E1212" s="2">
+        <v>44875</v>
+      </c>
+      <c r="F1212" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="G1212" s="1">
+        <v>120</v>
+      </c>
+      <c r="H1212" s="2">
+        <v>44892</v>
+      </c>
+      <c r="I1212">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1213">
+        <v>899294</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>379</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1213" s="1">
+        <v>1675.71</v>
+      </c>
+      <c r="E1213" s="2">
+        <v>44715</v>
+      </c>
+      <c r="F1213" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="G1213" s="1">
+        <v>32</v>
+      </c>
+      <c r="H1213" s="2">
+        <v>44892</v>
+      </c>
+      <c r="I1213">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1214">
+        <v>846778</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>380</v>
+      </c>
+      <c r="C1214" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="D1214" s="1">
+        <v>1600.577</v>
+      </c>
+      <c r="E1214" s="2">
+        <v>44813</v>
+      </c>
+      <c r="F1214" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="G1214" s="1">
+        <v>40</v>
+      </c>
+      <c r="H1214" s="2">
+        <v>44892</v>
+      </c>
+      <c r="I1214">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1215">
+        <v>829280</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1215" s="1">
+        <v>1589.105</v>
+      </c>
+      <c r="E1215" s="2">
+        <v>44869</v>
+      </c>
+      <c r="F1215" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="G1215" s="1">
+        <v>1118</v>
+      </c>
+      <c r="H1215" s="2">
+        <v>44892</v>
+      </c>
+      <c r="I1215">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1216">
+        <v>979924</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1216" s="1">
+        <v>1811.3820000000001</v>
+      </c>
+      <c r="E1216" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F1216" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="G1216" s="1">
+        <v>139</v>
+      </c>
+      <c r="H1216" s="2">
+        <v>44892</v>
+      </c>
+      <c r="I1216">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1217">
+        <v>676701</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1217" s="1">
+        <v>1349.538</v>
+      </c>
+      <c r="E1217" s="2">
+        <v>44797</v>
+      </c>
+      <c r="F1217" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="G1217" s="1">
+        <v>117</v>
+      </c>
+      <c r="H1217" s="2">
+        <v>44892</v>
+      </c>
+      <c r="I1217">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1218">
+        <v>1037858</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>307</v>
+      </c>
+      <c r="D1218" s="1">
+        <v>1471.616</v>
+      </c>
+      <c r="E1218" s="2">
+        <v>44874</v>
+      </c>
+      <c r="F1218" s="1">
+        <v>7</v>
+      </c>
+      <c r="G1218" s="1">
+        <v>39</v>
+      </c>
+      <c r="H1218" s="2">
+        <v>44892</v>
+      </c>
+      <c r="I1218">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1219">
+        <v>872177</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>381</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>400</v>
+      </c>
+      <c r="D1219" s="1">
+        <v>1552.3889999999999</v>
+      </c>
+      <c r="E1219" s="2">
+        <v>44680</v>
+      </c>
+      <c r="F1219" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G1219" s="1">
+        <v>28</v>
+      </c>
+      <c r="H1219" s="2">
+        <v>44892</v>
+      </c>
+      <c r="I1219">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1220">
+        <v>732459</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1220" s="1">
+        <v>1310.2249999999999</v>
+      </c>
+      <c r="E1220" s="2">
+        <v>44859</v>
+      </c>
+      <c r="F1220" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="G1220" s="1">
+        <v>81</v>
+      </c>
+      <c r="H1220" s="2">
+        <v>44892</v>
+      </c>
+      <c r="I1220">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1221">
+        <v>1018403</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>338</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1221" s="1">
+        <v>1330.3710000000001</v>
+      </c>
+      <c r="E1221" s="2">
+        <v>44810</v>
+      </c>
+      <c r="F1221" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="G1221" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1221" s="2">
+        <v>44892</v>
+      </c>
+      <c r="I1221">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H1222" s="2">
+        <v>44893</v>
+      </c>
+      <c r="I1222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H1223" s="2">
+        <v>44893</v>
+      </c>
+      <c r="I1223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H1224" s="2">
+        <v>44893</v>
+      </c>
+      <c r="I1224">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H1225" s="2">
+        <v>44893</v>
+      </c>
+      <c r="I1225">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H1226" s="2">
+        <v>44893</v>
+      </c>
+      <c r="I1226">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H1227" s="2">
+        <v>44893</v>
+      </c>
+      <c r="I1227">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H1228" s="2">
+        <v>44893</v>
+      </c>
+      <c r="I1228">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H1229" s="2">
+        <v>44893</v>
+      </c>
+      <c r="I1229">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H1230" s="2">
+        <v>44893</v>
+      </c>
+      <c r="I1230">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H1231" s="2">
+        <v>44893</v>
+      </c>
+      <c r="I1231">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H1232" s="2">
+        <v>44893</v>
+      </c>
+      <c r="I1232">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1233" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H1233" s="2">
+        <v>44893</v>
+      </c>
+      <c r="I1233">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1234" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H1234" s="2">
+        <v>44893</v>
+      </c>
+      <c r="I1234">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1235" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H1235" s="2">
+        <v>44893</v>
+      </c>
+      <c r="I1235">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1236" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H1236" s="2">
+        <v>44893</v>
+      </c>
+      <c r="I1236">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1237" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H1237" s="2">
+        <v>44893</v>
+      </c>
+      <c r="I1237">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1238" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H1238" s="2">
+        <v>44893</v>
+      </c>
+      <c r="I1238">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1239" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H1239" s="2">
+        <v>44893</v>
+      </c>
+      <c r="I1239">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1240" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H1240" s="2">
+        <v>44893</v>
+      </c>
+      <c r="I1240">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1241" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H1241" s="2">
+        <v>44893</v>
+      </c>
+      <c r="I1241">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/DataBank/PI3.xlsx
+++ b/DataBank/PI3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\PI3_2022\DataBank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A92B2E-9373-455D-B3AE-E5B3BB80C02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEBACE2-D402-44A0-ACC3-580EC50A513A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="399">
   <si>
     <t>ID</t>
   </si>
@@ -759,9 +759,6 @@
     <t>Detective Knight: Rogue</t>
   </si>
   <si>
-    <t>Ação,8</t>
-  </si>
-  <si>
     <t>Terrifier 2</t>
   </si>
   <si>
@@ -945,9 +942,6 @@
     <t>The Minute You Wake Up Dead</t>
   </si>
   <si>
-    <t>Suspense,8</t>
-  </si>
-  <si>
     <t>Ação,Aventura,Ficção Cientifica,Fantasia,Suspense</t>
   </si>
   <si>
@@ -1260,10 +1254,10 @@
     <t>Suspense,Terror,Crime</t>
   </si>
   <si>
-    <t>Terror.Ficção Cientifica</t>
-  </si>
-  <si>
     <t>Ficção Cientifica,Ação</t>
+  </si>
+  <si>
+    <t>Terror,Ficção Cientifica</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1324,6 +1318,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1641,7 +1636,7 @@
   <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" activeCellId="5" sqref="A1:A1048576 D1:D1048576 F1:F1048576 G1:G1048576 H1:H1048576 I1:I1048576"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1789,7 +1784,7 @@
       <c r="E5" s="2">
         <v>44813</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="7">
         <v>6.8</v>
       </c>
       <c r="G5" s="1">
@@ -17847,7 +17842,7 @@
         <v>231</v>
       </c>
       <c r="C559" t="s">
-        <v>232</v>
+        <v>22</v>
       </c>
       <c r="D559" s="1">
         <v>37015</v>
@@ -18250,7 +18245,7 @@
         <v>663712</v>
       </c>
       <c r="B573" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C573" t="s">
         <v>60</v>
@@ -18369,7 +18364,7 @@
         <v>231</v>
       </c>
       <c r="C577" t="s">
-        <v>232</v>
+        <v>22</v>
       </c>
       <c r="D577" s="1">
         <v>51821</v>
@@ -18485,7 +18480,7 @@
         <v>96</v>
       </c>
       <c r="C581" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D581" s="1">
         <v>1699341</v>
@@ -18627,7 +18622,7 @@
         <v>663712</v>
       </c>
       <c r="B586" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C586" t="s">
         <v>60</v>
@@ -18862,7 +18857,7 @@
         <v>231</v>
       </c>
       <c r="C594" t="s">
-        <v>232</v>
+        <v>22</v>
       </c>
       <c r="D594" s="1">
         <v>72549</v>
@@ -19004,7 +18999,7 @@
         <v>420634</v>
       </c>
       <c r="B599" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C599" t="s">
         <v>60</v>
@@ -19036,7 +19031,7 @@
         <v>96</v>
       </c>
       <c r="C600" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D600" s="1">
         <v>2690371</v>
@@ -19152,7 +19147,7 @@
         <v>83</v>
       </c>
       <c r="C604" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D604" s="1">
         <v>183095</v>
@@ -19207,7 +19202,7 @@
         <v>800939</v>
       </c>
       <c r="B606" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C606" t="s">
         <v>187</v>
@@ -19265,7 +19260,7 @@
         <v>663712</v>
       </c>
       <c r="B608" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C608" t="s">
         <v>60</v>
@@ -19526,7 +19521,7 @@
         <v>1035728</v>
       </c>
       <c r="B617" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C617" t="s">
         <v>138</v>
@@ -19613,7 +19608,7 @@
         <v>420634</v>
       </c>
       <c r="B620" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C620" t="s">
         <v>60</v>
@@ -19645,7 +19640,7 @@
         <v>231</v>
       </c>
       <c r="C621" t="s">
-        <v>232</v>
+        <v>22</v>
       </c>
       <c r="D621" s="1">
         <v>86943</v>
@@ -19674,7 +19669,7 @@
         <v>83</v>
       </c>
       <c r="C622" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D622" s="1">
         <v>358866</v>
@@ -19700,7 +19695,7 @@
         <v>913290</v>
       </c>
       <c r="B623" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C623" t="s">
         <v>138</v>
@@ -19729,10 +19724,10 @@
         <v>541134</v>
       </c>
       <c r="B624" t="s">
+        <v>240</v>
+      </c>
+      <c r="C624" t="s">
         <v>241</v>
-      </c>
-      <c r="C624" t="s">
-        <v>242</v>
       </c>
       <c r="D624" s="1">
         <v>38255</v>
@@ -19787,7 +19782,7 @@
         <v>800939</v>
       </c>
       <c r="B626" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C626" t="s">
         <v>187</v>
@@ -19816,7 +19811,7 @@
         <v>960875</v>
       </c>
       <c r="B627" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C627" t="s">
         <v>60</v>
@@ -19845,7 +19840,7 @@
         <v>663712</v>
       </c>
       <c r="B628" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C628" t="s">
         <v>60</v>
@@ -19903,10 +19898,10 @@
         <v>873125</v>
       </c>
       <c r="B630" t="s">
+        <v>242</v>
+      </c>
+      <c r="C630" t="s">
         <v>243</v>
-      </c>
-      <c r="C630" t="s">
-        <v>244</v>
       </c>
       <c r="D630" s="1">
         <v>6517</v>
@@ -20048,7 +20043,7 @@
         <v>1032950</v>
       </c>
       <c r="B635" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C635" t="s">
         <v>161</v>
@@ -20106,10 +20101,10 @@
         <v>640146</v>
       </c>
       <c r="B637" t="s">
+        <v>245</v>
+      </c>
+      <c r="C637" t="s">
         <v>246</v>
-      </c>
-      <c r="C637" t="s">
-        <v>247</v>
       </c>
       <c r="D637" s="1">
         <v>46078</v>
@@ -20251,7 +20246,7 @@
         <v>913290</v>
       </c>
       <c r="B642" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C642" t="s">
         <v>138</v>
@@ -20280,10 +20275,10 @@
         <v>541134</v>
       </c>
       <c r="B643" t="s">
+        <v>240</v>
+      </c>
+      <c r="C643" t="s">
         <v>241</v>
-      </c>
-      <c r="C643" t="s">
-        <v>242</v>
       </c>
       <c r="D643" s="1">
         <v>53557</v>
@@ -20312,7 +20307,7 @@
         <v>83</v>
       </c>
       <c r="C644" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D644" s="1">
         <v>502412</v>
@@ -20338,7 +20333,7 @@
         <v>1032950</v>
       </c>
       <c r="B645" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C645" t="s">
         <v>161</v>
@@ -20396,7 +20391,7 @@
         <v>800939</v>
       </c>
       <c r="B647" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C647" t="s">
         <v>187</v>
@@ -20425,7 +20420,7 @@
         <v>663712</v>
       </c>
       <c r="B648" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C648" t="s">
         <v>60</v>
@@ -20454,10 +20449,10 @@
         <v>873125</v>
       </c>
       <c r="B649" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C649" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D649" s="1">
         <v>9124</v>
@@ -20512,10 +20507,10 @@
         <v>962232</v>
       </c>
       <c r="B651" t="s">
+        <v>248</v>
+      </c>
+      <c r="C651" t="s">
         <v>249</v>
-      </c>
-      <c r="C651" t="s">
-        <v>250</v>
       </c>
       <c r="D651" s="1">
         <v>24053</v>
@@ -20628,7 +20623,7 @@
         <v>960875</v>
       </c>
       <c r="B655" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C655" t="s">
         <v>60</v>
@@ -20831,7 +20826,7 @@
         <v>913290</v>
       </c>
       <c r="B662" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C662" t="s">
         <v>138</v>
@@ -20860,10 +20855,10 @@
         <v>49046</v>
       </c>
       <c r="B663" t="s">
+        <v>250</v>
+      </c>
+      <c r="C663" t="s">
         <v>251</v>
-      </c>
-      <c r="C663" t="s">
-        <v>252</v>
       </c>
       <c r="D663" s="1">
         <v>58461</v>
@@ -20889,10 +20884,10 @@
         <v>541134</v>
       </c>
       <c r="B664" t="s">
+        <v>240</v>
+      </c>
+      <c r="C664" t="s">
         <v>241</v>
-      </c>
-      <c r="C664" t="s">
-        <v>242</v>
       </c>
       <c r="D664" s="1">
         <v>7498</v>
@@ -20921,7 +20916,7 @@
         <v>83</v>
       </c>
       <c r="C665" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D665" s="1">
         <v>703377</v>
@@ -20950,7 +20945,7 @@
         <v>181</v>
       </c>
       <c r="C666" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D666" s="1">
         <v>3890299</v>
@@ -20976,7 +20971,7 @@
         <v>1032950</v>
       </c>
       <c r="B667" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C667" t="s">
         <v>161</v>
@@ -21005,7 +21000,7 @@
         <v>800939</v>
       </c>
       <c r="B668" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C668" t="s">
         <v>187</v>
@@ -21034,10 +21029,10 @@
         <v>873125</v>
       </c>
       <c r="B669" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C669" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D669" s="1">
         <v>12774</v>
@@ -21063,10 +21058,10 @@
         <v>511817</v>
       </c>
       <c r="B670" t="s">
+        <v>253</v>
+      </c>
+      <c r="C670" t="s">
         <v>254</v>
-      </c>
-      <c r="C670" t="s">
-        <v>255</v>
       </c>
       <c r="D670" s="1">
         <v>24447</v>
@@ -21092,10 +21087,10 @@
         <v>962232</v>
       </c>
       <c r="B671" t="s">
+        <v>248</v>
+      </c>
+      <c r="C671" t="s">
         <v>249</v>
-      </c>
-      <c r="C671" t="s">
-        <v>250</v>
       </c>
       <c r="D671" s="1">
         <v>33674</v>
@@ -21121,10 +21116,10 @@
         <v>532870</v>
       </c>
       <c r="B672" t="s">
+        <v>255</v>
+      </c>
+      <c r="C672" t="s">
         <v>256</v>
-      </c>
-      <c r="C672" t="s">
-        <v>257</v>
       </c>
       <c r="D672" s="1">
         <v>8102</v>
@@ -21211,7 +21206,7 @@
         <v>227</v>
       </c>
       <c r="C675" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D675" s="1">
         <v>151774</v>
@@ -21237,7 +21232,7 @@
         <v>1026822</v>
       </c>
       <c r="B676" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C676" t="s">
         <v>28</v>
@@ -21266,7 +21261,7 @@
         <v>663712</v>
       </c>
       <c r="B677" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C677" t="s">
         <v>60</v>
@@ -21295,7 +21290,7 @@
         <v>1033107</v>
       </c>
       <c r="B678" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C678" t="s">
         <v>153</v>
@@ -21353,7 +21348,7 @@
         <v>960875</v>
       </c>
       <c r="B680" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C680" t="s">
         <v>60</v>
@@ -21382,7 +21377,7 @@
         <v>760161</v>
       </c>
       <c r="B681" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C681" t="s">
         <v>60</v>
@@ -21411,10 +21406,10 @@
         <v>49046</v>
       </c>
       <c r="B682" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C682" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D682" s="1">
         <v>114583</v>
@@ -21440,7 +21435,7 @@
         <v>913290</v>
       </c>
       <c r="B683" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C683" t="s">
         <v>138</v>
@@ -21469,10 +21464,10 @@
         <v>541134</v>
       </c>
       <c r="B684" t="s">
+        <v>240</v>
+      </c>
+      <c r="C684" t="s">
         <v>241</v>
-      </c>
-      <c r="C684" t="s">
-        <v>242</v>
       </c>
       <c r="D684" s="1">
         <v>146961</v>
@@ -21498,10 +21493,10 @@
         <v>532870</v>
       </c>
       <c r="B685" t="s">
+        <v>255</v>
+      </c>
+      <c r="C685" t="s">
         <v>256</v>
-      </c>
-      <c r="C685" t="s">
-        <v>257</v>
       </c>
       <c r="D685" s="1">
         <v>1588</v>
@@ -21527,10 +21522,10 @@
         <v>511817</v>
       </c>
       <c r="B686" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C686" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D686" s="1">
         <v>47916</v>
@@ -21559,7 +21554,7 @@
         <v>83</v>
       </c>
       <c r="C687" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D687" s="1">
         <v>1348702</v>
@@ -21585,7 +21580,7 @@
         <v>800939</v>
       </c>
       <c r="B688" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C688" t="s">
         <v>187</v>
@@ -21614,7 +21609,7 @@
         <v>1032950</v>
       </c>
       <c r="B689" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C689" t="s">
         <v>161</v>
@@ -21643,10 +21638,10 @@
         <v>873125</v>
       </c>
       <c r="B690" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C690" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D690" s="1">
         <v>25038</v>
@@ -21672,10 +21667,10 @@
         <v>962232</v>
       </c>
       <c r="B691" t="s">
+        <v>248</v>
+      </c>
+      <c r="C691" t="s">
         <v>249</v>
-      </c>
-      <c r="C691" t="s">
-        <v>250</v>
       </c>
       <c r="D691" s="1">
         <v>47144</v>
@@ -21701,7 +21696,7 @@
         <v>663712</v>
       </c>
       <c r="B692" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C692" t="s">
         <v>60</v>
@@ -21730,7 +21725,7 @@
         <v>1033107</v>
       </c>
       <c r="B693" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C693" t="s">
         <v>153</v>
@@ -21791,7 +21786,7 @@
         <v>181</v>
       </c>
       <c r="C695" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D695" s="1">
         <v>4438636</v>
@@ -21817,10 +21812,10 @@
         <v>760204</v>
       </c>
       <c r="B696" t="s">
+        <v>264</v>
+      </c>
+      <c r="C696" t="s">
         <v>265</v>
-      </c>
-      <c r="C696" t="s">
-        <v>266</v>
       </c>
       <c r="D696" s="1">
         <v>13426</v>
@@ -21904,7 +21899,7 @@
         <v>760161</v>
       </c>
       <c r="B699" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C699" t="s">
         <v>60</v>
@@ -21962,7 +21957,7 @@
         <v>960875</v>
       </c>
       <c r="B701" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C701" t="s">
         <v>60</v>
@@ -21991,7 +21986,7 @@
         <v>913290</v>
       </c>
       <c r="B702" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C702" t="s">
         <v>138</v>
@@ -22020,10 +22015,10 @@
         <v>49046</v>
       </c>
       <c r="B703" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C703" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D703" s="1">
         <v>114583</v>
@@ -22049,10 +22044,10 @@
         <v>541134</v>
       </c>
       <c r="B704" t="s">
+        <v>240</v>
+      </c>
+      <c r="C704" t="s">
         <v>241</v>
-      </c>
-      <c r="C704" t="s">
-        <v>242</v>
       </c>
       <c r="D704" s="1">
         <v>146961</v>
@@ -22078,10 +22073,10 @@
         <v>532870</v>
       </c>
       <c r="B705" t="s">
+        <v>255</v>
+      </c>
+      <c r="C705" t="s">
         <v>256</v>
-      </c>
-      <c r="C705" t="s">
-        <v>257</v>
       </c>
       <c r="D705" s="1">
         <v>1588</v>
@@ -22110,7 +22105,7 @@
         <v>181</v>
       </c>
       <c r="C706" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D706" s="1">
         <v>4438636</v>
@@ -22136,10 +22131,10 @@
         <v>511817</v>
       </c>
       <c r="B707" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C707" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D707" s="1">
         <v>47916</v>
@@ -22168,7 +22163,7 @@
         <v>83</v>
       </c>
       <c r="C708" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D708" s="1">
         <v>1348702</v>
@@ -22194,7 +22189,7 @@
         <v>800939</v>
       </c>
       <c r="B709" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C709" t="s">
         <v>187</v>
@@ -22252,7 +22247,7 @@
         <v>1032950</v>
       </c>
       <c r="B711" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C711" t="s">
         <v>161</v>
@@ -22281,10 +22276,10 @@
         <v>873125</v>
       </c>
       <c r="B712" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C712" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D712" s="1">
         <v>25038</v>
@@ -22310,7 +22305,7 @@
         <v>663712</v>
       </c>
       <c r="B713" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C713" t="s">
         <v>60</v>
@@ -22339,10 +22334,10 @@
         <v>760204</v>
       </c>
       <c r="B714" t="s">
+        <v>264</v>
+      </c>
+      <c r="C714" t="s">
         <v>265</v>
-      </c>
-      <c r="C714" t="s">
-        <v>266</v>
       </c>
       <c r="D714" s="1">
         <v>13426</v>
@@ -22368,10 +22363,10 @@
         <v>962232</v>
       </c>
       <c r="B715" t="s">
+        <v>248</v>
+      </c>
+      <c r="C715" t="s">
         <v>249</v>
-      </c>
-      <c r="C715" t="s">
-        <v>250</v>
       </c>
       <c r="D715" s="1">
         <v>66002</v>
@@ -22426,7 +22421,7 @@
         <v>1033107</v>
       </c>
       <c r="B717" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C717" t="s">
         <v>153</v>
@@ -22484,7 +22479,7 @@
         <v>960875</v>
       </c>
       <c r="B719" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C719" t="s">
         <v>144</v>
@@ -22542,7 +22537,7 @@
         <v>760161</v>
       </c>
       <c r="B721" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C721" t="s">
         <v>60</v>
@@ -22571,10 +22566,10 @@
         <v>49046</v>
       </c>
       <c r="B722" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C722" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D722" s="1">
         <v>160416</v>
@@ -22600,7 +22595,7 @@
         <v>913290</v>
       </c>
       <c r="B723" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C723" t="s">
         <v>138</v>
@@ -22629,10 +22624,10 @@
         <v>541134</v>
       </c>
       <c r="B724" t="s">
+        <v>240</v>
+      </c>
+      <c r="C724" t="s">
         <v>241</v>
-      </c>
-      <c r="C724" t="s">
-        <v>242</v>
       </c>
       <c r="D724" s="1">
         <v>205745</v>
@@ -22658,10 +22653,10 @@
         <v>511817</v>
       </c>
       <c r="B725" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C725" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D725" s="1">
         <v>67082</v>
@@ -22690,7 +22685,7 @@
         <v>181</v>
       </c>
       <c r="C726" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D726" s="1">
         <v>5175846</v>
@@ -22719,7 +22714,7 @@
         <v>83</v>
       </c>
       <c r="C727" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D727" s="1">
         <v>1567035</v>
@@ -22774,7 +22769,7 @@
         <v>800939</v>
       </c>
       <c r="B729" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C729" t="s">
         <v>187</v>
@@ -22803,10 +22798,10 @@
         <v>532870</v>
       </c>
       <c r="B730" t="s">
+        <v>255</v>
+      </c>
+      <c r="C730" t="s">
         <v>256</v>
-      </c>
-      <c r="C730" t="s">
-        <v>257</v>
       </c>
       <c r="D730" s="1">
         <v>22232</v>
@@ -22832,7 +22827,7 @@
         <v>663712</v>
       </c>
       <c r="B731" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C731" t="s">
         <v>60</v>
@@ -22948,7 +22943,7 @@
         <v>1033107</v>
       </c>
       <c r="B735" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C735" t="s">
         <v>153</v>
@@ -22977,7 +22972,7 @@
         <v>1032950</v>
       </c>
       <c r="B736" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C736" t="s">
         <v>161</v>
@@ -23064,10 +23059,10 @@
         <v>962232</v>
       </c>
       <c r="B739" t="s">
+        <v>248</v>
+      </c>
+      <c r="C739" t="s">
         <v>249</v>
-      </c>
-      <c r="C739" t="s">
-        <v>250</v>
       </c>
       <c r="D739" s="1">
         <v>92403</v>
@@ -23122,10 +23117,10 @@
         <v>873125</v>
       </c>
       <c r="B741" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C741" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D741" s="1">
         <v>35053</v>
@@ -23151,10 +23146,10 @@
         <v>49046</v>
       </c>
       <c r="B742" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C742" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D742" s="1">
         <v>224582</v>
@@ -23180,10 +23175,10 @@
         <v>766475</v>
       </c>
       <c r="B743" t="s">
+        <v>268</v>
+      </c>
+      <c r="C743" t="s">
         <v>269</v>
-      </c>
-      <c r="C743" t="s">
-        <v>270</v>
       </c>
       <c r="D743" s="1">
         <v>24031</v>
@@ -23209,10 +23204,10 @@
         <v>944864</v>
       </c>
       <c r="B744" t="s">
+        <v>270</v>
+      </c>
+      <c r="C744" t="s">
         <v>271</v>
-      </c>
-      <c r="C744" t="s">
-        <v>272</v>
       </c>
       <c r="D744" s="1">
         <v>28056</v>
@@ -23238,7 +23233,7 @@
         <v>913290</v>
       </c>
       <c r="B745" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C745" t="s">
         <v>138</v>
@@ -23267,10 +23262,10 @@
         <v>541134</v>
       </c>
       <c r="B746" t="s">
+        <v>240</v>
+      </c>
+      <c r="C746" t="s">
         <v>241</v>
-      </c>
-      <c r="C746" t="s">
-        <v>242</v>
       </c>
       <c r="D746" s="1">
         <v>288043</v>
@@ -23296,10 +23291,10 @@
         <v>511817</v>
       </c>
       <c r="B747" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C747" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D747" s="1">
         <v>93915</v>
@@ -23412,10 +23407,10 @@
         <v>532870</v>
       </c>
       <c r="B751" t="s">
+        <v>255</v>
+      </c>
+      <c r="C751" t="s">
         <v>256</v>
-      </c>
-      <c r="C751" t="s">
-        <v>257</v>
       </c>
       <c r="D751" s="1">
         <v>31125</v>
@@ -23444,7 +23439,7 @@
         <v>83</v>
       </c>
       <c r="C752" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D752" s="1">
         <v>1233724</v>
@@ -23470,7 +23465,7 @@
         <v>1033107</v>
       </c>
       <c r="B753" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C753" t="s">
         <v>153</v>
@@ -23502,7 +23497,7 @@
         <v>181</v>
       </c>
       <c r="C754" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D754" s="1">
         <v>4657005</v>
@@ -23528,7 +23523,7 @@
         <v>800939</v>
       </c>
       <c r="B755" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C755" t="s">
         <v>187</v>
@@ -23557,7 +23552,7 @@
         <v>663712</v>
       </c>
       <c r="B756" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C756" t="s">
         <v>60</v>
@@ -23644,10 +23639,10 @@
         <v>724495</v>
       </c>
       <c r="B759" t="s">
+        <v>272</v>
+      </c>
+      <c r="C759" t="s">
         <v>273</v>
-      </c>
-      <c r="C759" t="s">
-        <v>274</v>
       </c>
       <c r="D759" s="1">
         <v>272831</v>
@@ -23731,10 +23726,10 @@
         <v>49046</v>
       </c>
       <c r="B762" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C762" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D762" s="1">
         <v>314415</v>
@@ -23760,10 +23755,10 @@
         <v>766475</v>
       </c>
       <c r="B763" t="s">
+        <v>268</v>
+      </c>
+      <c r="C763" t="s">
         <v>269</v>
-      </c>
-      <c r="C763" t="s">
-        <v>270</v>
       </c>
       <c r="D763" s="1">
         <v>33643</v>
@@ -23789,10 +23784,10 @@
         <v>724495</v>
       </c>
       <c r="B764" t="s">
+        <v>272</v>
+      </c>
+      <c r="C764" t="s">
         <v>273</v>
-      </c>
-      <c r="C764" t="s">
-        <v>274</v>
       </c>
       <c r="D764" s="1">
         <v>300075</v>
@@ -23847,10 +23842,10 @@
         <v>944864</v>
       </c>
       <c r="B766" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C766" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D766" s="1">
         <v>39278</v>
@@ -23879,7 +23874,7 @@
         <v>181</v>
       </c>
       <c r="C767" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D767" s="1">
         <v>4311924</v>
@@ -23905,7 +23900,7 @@
         <v>913290</v>
       </c>
       <c r="B768" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C768" t="s">
         <v>138</v>
@@ -23992,7 +23987,7 @@
         <v>800939</v>
       </c>
       <c r="B771" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C771" t="s">
         <v>187</v>
@@ -24021,10 +24016,10 @@
         <v>511817</v>
       </c>
       <c r="B772" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C772" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D772" s="1">
         <v>131481</v>
@@ -24050,10 +24045,10 @@
         <v>76600</v>
       </c>
       <c r="B773" t="s">
+        <v>275</v>
+      </c>
+      <c r="C773" t="s">
         <v>276</v>
-      </c>
-      <c r="C773" t="s">
-        <v>277</v>
       </c>
       <c r="D773" s="1">
         <v>481244</v>
@@ -24079,10 +24074,10 @@
         <v>541134</v>
       </c>
       <c r="B774" t="s">
+        <v>240</v>
+      </c>
+      <c r="C774" t="s">
         <v>241</v>
-      </c>
-      <c r="C774" t="s">
-        <v>242</v>
       </c>
       <c r="D774" s="1">
         <v>40326</v>
@@ -24169,7 +24164,7 @@
         <v>83</v>
       </c>
       <c r="C777" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D777" s="1">
         <v>1014366</v>
@@ -24195,7 +24190,7 @@
         <v>663712</v>
       </c>
       <c r="B778" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C778" t="s">
         <v>60</v>
@@ -24253,7 +24248,7 @@
         <v>532870</v>
       </c>
       <c r="B780" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C780" t="s">
         <v>14</v>
@@ -24282,10 +24277,10 @@
         <v>780609</v>
       </c>
       <c r="B781" t="s">
+        <v>277</v>
+      </c>
+      <c r="C781" t="s">
         <v>278</v>
-      </c>
-      <c r="C781" t="s">
-        <v>279</v>
       </c>
       <c r="D781" s="1">
         <v>64486</v>
@@ -24311,10 +24306,10 @@
         <v>724495</v>
       </c>
       <c r="B782" t="s">
+        <v>272</v>
+      </c>
+      <c r="C782" t="s">
         <v>273</v>
-      </c>
-      <c r="C782" t="s">
-        <v>274</v>
       </c>
       <c r="D782" s="1">
         <v>420105</v>
@@ -24340,10 +24335,10 @@
         <v>766475</v>
       </c>
       <c r="B783" t="s">
+        <v>268</v>
+      </c>
+      <c r="C783" t="s">
         <v>269</v>
-      </c>
-      <c r="C783" t="s">
-        <v>270</v>
       </c>
       <c r="D783" s="1">
         <v>471</v>
@@ -24369,10 +24364,10 @@
         <v>944864</v>
       </c>
       <c r="B784" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C784" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D784" s="1">
         <v>54989</v>
@@ -24398,10 +24393,10 @@
         <v>49046</v>
       </c>
       <c r="B785" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C785" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D785" s="1">
         <v>440181</v>
@@ -24459,7 +24454,7 @@
         <v>181</v>
       </c>
       <c r="C787" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D787" s="1">
         <v>408577</v>
@@ -24543,10 +24538,10 @@
         <v>76600</v>
       </c>
       <c r="B790" t="s">
+        <v>275</v>
+      </c>
+      <c r="C790" t="s">
         <v>276</v>
-      </c>
-      <c r="C790" t="s">
-        <v>277</v>
       </c>
       <c r="D790" s="1">
         <v>65346</v>
@@ -24572,7 +24567,7 @@
         <v>800939</v>
       </c>
       <c r="B791" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C791" t="s">
         <v>187</v>
@@ -24601,10 +24596,10 @@
         <v>511817</v>
       </c>
       <c r="B792" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C792" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D792" s="1">
         <v>184073</v>
@@ -24630,10 +24625,10 @@
         <v>541134</v>
       </c>
       <c r="B793" t="s">
+        <v>240</v>
+      </c>
+      <c r="C793" t="s">
         <v>241</v>
-      </c>
-      <c r="C793" t="s">
-        <v>242</v>
       </c>
       <c r="D793" s="1">
         <v>564564</v>
@@ -24688,7 +24683,7 @@
         <v>913290</v>
       </c>
       <c r="B795" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C795" t="s">
         <v>138</v>
@@ -24717,7 +24712,7 @@
         <v>663712</v>
       </c>
       <c r="B796" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C796" t="s">
         <v>60</v>
@@ -24749,7 +24744,7 @@
         <v>83</v>
       </c>
       <c r="C797" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D797" s="1">
         <v>889352</v>
@@ -24804,7 +24799,7 @@
         <v>878183</v>
       </c>
       <c r="B799" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C799" t="s">
         <v>36</v>
@@ -24862,7 +24857,7 @@
         <v>532870</v>
       </c>
       <c r="B801" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C801" t="s">
         <v>14</v>
@@ -24891,10 +24886,10 @@
         <v>829280</v>
       </c>
       <c r="B802" t="s">
+        <v>280</v>
+      </c>
+      <c r="C802" t="s">
         <v>281</v>
-      </c>
-      <c r="C802" t="s">
-        <v>282</v>
       </c>
       <c r="D802" s="1">
         <v>154071</v>
@@ -24920,10 +24915,10 @@
         <v>766475</v>
       </c>
       <c r="B803" t="s">
+        <v>268</v>
+      </c>
+      <c r="C803" t="s">
         <v>269</v>
-      </c>
-      <c r="C803" t="s">
-        <v>270</v>
       </c>
       <c r="D803" s="1">
         <v>6594</v>
@@ -24949,10 +24944,10 @@
         <v>724495</v>
       </c>
       <c r="B804" t="s">
+        <v>272</v>
+      </c>
+      <c r="C804" t="s">
         <v>273</v>
-      </c>
-      <c r="C804" t="s">
-        <v>274</v>
       </c>
       <c r="D804" s="1">
         <v>42845</v>
@@ -24978,7 +24973,7 @@
         <v>595586</v>
       </c>
       <c r="B805" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C805" t="s">
         <v>28</v>
@@ -25036,10 +25031,10 @@
         <v>49046</v>
       </c>
       <c r="B807" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C807" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D807" s="1">
         <v>616253</v>
@@ -25065,10 +25060,10 @@
         <v>944864</v>
       </c>
       <c r="B808" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C808" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D808" s="1">
         <v>76985</v>
@@ -25152,7 +25147,7 @@
         <v>744114</v>
       </c>
       <c r="B811" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C811" t="s">
         <v>91</v>
@@ -25184,7 +25179,7 @@
         <v>181</v>
       </c>
       <c r="C812" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D812" s="1">
         <v>3774767</v>
@@ -25210,7 +25205,7 @@
         <v>979924</v>
       </c>
       <c r="B813" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C813" t="s">
         <v>36</v>
@@ -25239,10 +25234,10 @@
         <v>928344</v>
       </c>
       <c r="B814" t="s">
+        <v>285</v>
+      </c>
+      <c r="C814" t="s">
         <v>286</v>
-      </c>
-      <c r="C814" t="s">
-        <v>287</v>
       </c>
       <c r="D814" s="1">
         <v>22014</v>
@@ -25268,10 +25263,10 @@
         <v>896485</v>
       </c>
       <c r="B815" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C815" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D815" s="1">
         <v>29702</v>
@@ -25297,10 +25292,10 @@
         <v>76600</v>
       </c>
       <c r="B816" t="s">
+        <v>275</v>
+      </c>
+      <c r="C816" t="s">
         <v>276</v>
-      </c>
-      <c r="C816" t="s">
-        <v>277</v>
       </c>
       <c r="D816" s="1">
         <v>828903</v>
@@ -25326,7 +25321,7 @@
         <v>913290</v>
       </c>
       <c r="B817" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C817" t="s">
         <v>138</v>
@@ -25355,7 +25350,7 @@
         <v>496331</v>
       </c>
       <c r="B818" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C818" t="s">
         <v>106</v>
@@ -25384,7 +25379,7 @@
         <v>800939</v>
       </c>
       <c r="B819" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C819" t="s">
         <v>187</v>
@@ -25413,7 +25408,7 @@
         <v>663712</v>
       </c>
       <c r="B820" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C820" t="s">
         <v>60</v>
@@ -25442,10 +25437,10 @@
         <v>541134</v>
       </c>
       <c r="B821" t="s">
+        <v>240</v>
+      </c>
+      <c r="C821" t="s">
         <v>241</v>
-      </c>
-      <c r="C821" t="s">
-        <v>242</v>
       </c>
       <c r="D821" s="1">
         <v>552186</v>
@@ -25471,10 +25466,10 @@
         <v>829280</v>
       </c>
       <c r="B822" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C822" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D822" s="1">
         <v>215699</v>
@@ -25500,7 +25495,7 @@
         <v>595586</v>
       </c>
       <c r="B823" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C823" t="s">
         <v>28</v>
@@ -25529,7 +25524,7 @@
         <v>744114</v>
       </c>
       <c r="B824" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C824" t="s">
         <v>91</v>
@@ -25558,10 +25553,10 @@
         <v>896485</v>
       </c>
       <c r="B825" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C825" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D825" s="1">
         <v>41583</v>
@@ -25587,10 +25582,10 @@
         <v>766475</v>
       </c>
       <c r="B826" t="s">
+        <v>268</v>
+      </c>
+      <c r="C826" t="s">
         <v>269</v>
-      </c>
-      <c r="C826" t="s">
-        <v>270</v>
       </c>
       <c r="D826" s="1">
         <v>92316</v>
@@ -25616,10 +25611,10 @@
         <v>928344</v>
       </c>
       <c r="B827" t="s">
+        <v>285</v>
+      </c>
+      <c r="C827" t="s">
         <v>286</v>
-      </c>
-      <c r="C827" t="s">
-        <v>287</v>
       </c>
       <c r="D827" s="1">
         <v>3082</v>
@@ -25674,10 +25669,10 @@
         <v>724495</v>
       </c>
       <c r="B829" t="s">
+        <v>272</v>
+      </c>
+      <c r="C829" t="s">
         <v>273</v>
-      </c>
-      <c r="C829" t="s">
-        <v>274</v>
       </c>
       <c r="D829" s="1">
         <v>389445</v>
@@ -25732,10 +25727,10 @@
         <v>49046</v>
       </c>
       <c r="B831" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C831" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D831" s="1">
         <v>862754</v>
@@ -25761,10 +25756,10 @@
         <v>944864</v>
       </c>
       <c r="B832" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C832" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D832" s="1">
         <v>107779</v>
@@ -25790,10 +25785,10 @@
         <v>497582</v>
       </c>
       <c r="B833" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C833" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D833" s="1">
         <v>112874</v>
@@ -25822,7 +25817,7 @@
         <v>181</v>
       </c>
       <c r="C834" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D834" s="1">
         <v>3674096</v>
@@ -25848,7 +25843,7 @@
         <v>979924</v>
       </c>
       <c r="B835" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C835" t="s">
         <v>36</v>
@@ -25877,7 +25872,7 @@
         <v>1005774</v>
       </c>
       <c r="B836" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C836" t="s">
         <v>28</v>
@@ -25906,10 +25901,10 @@
         <v>934641</v>
       </c>
       <c r="B837" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C837" t="s">
-        <v>294</v>
+        <v>155</v>
       </c>
       <c r="D837" s="1">
         <v>47554</v>
@@ -25938,7 +25933,7 @@
         <v>141</v>
       </c>
       <c r="C838" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D838" s="1">
         <v>622799</v>
@@ -25964,7 +25959,7 @@
         <v>496331</v>
       </c>
       <c r="B839" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C839" t="s">
         <v>106</v>
@@ -25993,7 +25988,7 @@
         <v>913290</v>
       </c>
       <c r="B840" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C840" t="s">
         <v>138</v>
@@ -26051,10 +26046,10 @@
         <v>829280</v>
       </c>
       <c r="B842" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C842" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D842" s="1">
         <v>301979</v>
@@ -26080,7 +26075,7 @@
         <v>595586</v>
       </c>
       <c r="B843" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C843" t="s">
         <v>28</v>
@@ -26109,7 +26104,7 @@
         <v>744114</v>
       </c>
       <c r="B844" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C844" t="s">
         <v>91</v>
@@ -26138,10 +26133,10 @@
         <v>766475</v>
       </c>
       <c r="B845" t="s">
+        <v>268</v>
+      </c>
+      <c r="C845" t="s">
         <v>269</v>
-      </c>
-      <c r="C845" t="s">
-        <v>270</v>
       </c>
       <c r="D845" s="1">
         <v>129242</v>
@@ -26167,10 +26162,10 @@
         <v>896485</v>
       </c>
       <c r="B846" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C846" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D846" s="1">
         <v>58216</v>
@@ -26196,10 +26191,10 @@
         <v>928344</v>
       </c>
       <c r="B847" t="s">
+        <v>285</v>
+      </c>
+      <c r="C847" t="s">
         <v>286</v>
-      </c>
-      <c r="C847" t="s">
-        <v>287</v>
       </c>
       <c r="D847" s="1">
         <v>43148</v>
@@ -26225,7 +26220,7 @@
         <v>979924</v>
       </c>
       <c r="B848" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C848" t="s">
         <v>36</v>
@@ -26254,10 +26249,10 @@
         <v>49046</v>
       </c>
       <c r="B849" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C849" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D849" s="1">
         <v>1207856</v>
@@ -26312,10 +26307,10 @@
         <v>724495</v>
       </c>
       <c r="B851" t="s">
+        <v>272</v>
+      </c>
+      <c r="C851" t="s">
         <v>273</v>
-      </c>
-      <c r="C851" t="s">
-        <v>274</v>
       </c>
       <c r="D851" s="1">
         <v>375436</v>
@@ -26341,10 +26336,10 @@
         <v>497582</v>
       </c>
       <c r="B852" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C852" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D852" s="1">
         <v>158024</v>
@@ -26370,10 +26365,10 @@
         <v>934641</v>
       </c>
       <c r="B853" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C853" t="s">
-        <v>294</v>
+        <v>155</v>
       </c>
       <c r="D853" s="1">
         <v>66576</v>
@@ -26399,7 +26394,7 @@
         <v>496331</v>
       </c>
       <c r="B854" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C854" t="s">
         <v>106</v>
@@ -26431,7 +26426,7 @@
         <v>181</v>
       </c>
       <c r="C855" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D855" s="1">
         <v>3936982</v>
@@ -26460,7 +26455,7 @@
         <v>141</v>
       </c>
       <c r="C856" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D856" s="1">
         <v>662612</v>
@@ -26515,10 +26510,10 @@
         <v>944864</v>
       </c>
       <c r="B858" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C858" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D858" s="1">
         <v>150891</v>
@@ -26544,7 +26539,7 @@
         <v>1005774</v>
       </c>
       <c r="B859" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C859" t="s">
         <v>28</v>
@@ -26573,10 +26568,10 @@
         <v>1013860</v>
       </c>
       <c r="B860" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C860" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D860" s="1">
         <v>18145</v>
@@ -26631,10 +26626,10 @@
         <v>829280</v>
       </c>
       <c r="B862" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C862" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D862" s="1">
         <v>422771</v>
@@ -26660,7 +26655,7 @@
         <v>595586</v>
       </c>
       <c r="B863" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C863" t="s">
         <v>28</v>
@@ -26689,7 +26684,7 @@
         <v>744114</v>
       </c>
       <c r="B864" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C864" t="s">
         <v>91</v>
@@ -26718,10 +26713,10 @@
         <v>896485</v>
       </c>
       <c r="B865" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C865" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D865" s="1">
         <v>81502</v>
@@ -26747,10 +26742,10 @@
         <v>1013860</v>
       </c>
       <c r="B866" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C866" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D866" s="1">
         <v>25403</v>
@@ -26776,10 +26771,10 @@
         <v>49046</v>
       </c>
       <c r="B867" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C867" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D867" s="1">
         <v>1690998</v>
@@ -26805,10 +26800,10 @@
         <v>928344</v>
       </c>
       <c r="B868" t="s">
+        <v>285</v>
+      </c>
+      <c r="C868" t="s">
         <v>286</v>
-      </c>
-      <c r="C868" t="s">
-        <v>287</v>
       </c>
       <c r="D868" s="1">
         <v>60407</v>
@@ -26834,7 +26829,7 @@
         <v>979924</v>
       </c>
       <c r="B869" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C869" t="s">
         <v>36</v>
@@ -26863,10 +26858,10 @@
         <v>766475</v>
       </c>
       <c r="B870" t="s">
+        <v>268</v>
+      </c>
+      <c r="C870" t="s">
         <v>269</v>
-      </c>
-      <c r="C870" t="s">
-        <v>270</v>
       </c>
       <c r="D870" s="1">
         <v>180939</v>
@@ -26953,7 +26948,7 @@
         <v>181</v>
       </c>
       <c r="C873" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D873" s="1">
         <v>4428609</v>
@@ -26979,7 +26974,7 @@
         <v>496331</v>
       </c>
       <c r="B874" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C874" t="s">
         <v>106</v>
@@ -27008,10 +27003,10 @@
         <v>724495</v>
       </c>
       <c r="B875" t="s">
+        <v>272</v>
+      </c>
+      <c r="C875" t="s">
         <v>273</v>
-      </c>
-      <c r="C875" t="s">
-        <v>274</v>
       </c>
       <c r="D875" s="1">
         <v>382227</v>
@@ -27037,10 +27032,10 @@
         <v>497582</v>
       </c>
       <c r="B876" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C876" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D876" s="1">
         <v>221234</v>
@@ -27095,7 +27090,7 @@
         <v>913290</v>
       </c>
       <c r="B878" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C878" t="s">
         <v>138</v>
@@ -27124,10 +27119,10 @@
         <v>934641</v>
       </c>
       <c r="B879" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C879" t="s">
-        <v>294</v>
+        <v>155</v>
       </c>
       <c r="D879" s="1">
         <v>93206</v>
@@ -27182,10 +27177,10 @@
         <v>944864</v>
       </c>
       <c r="B881" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C881" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D881" s="1">
         <v>211247</v>
@@ -27211,10 +27206,10 @@
         <v>829280</v>
       </c>
       <c r="B882" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C882" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D882" s="1">
         <v>591879</v>
@@ -27269,10 +27264,10 @@
         <v>1013860</v>
       </c>
       <c r="B884" t="s">
+        <v>295</v>
+      </c>
+      <c r="C884" t="s">
         <v>297</v>
-      </c>
-      <c r="C884" t="s">
-        <v>299</v>
       </c>
       <c r="D884" s="1">
         <v>35564</v>
@@ -27298,7 +27293,7 @@
         <v>744114</v>
       </c>
       <c r="B885" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C885" t="s">
         <v>91</v>
@@ -27327,7 +27322,7 @@
         <v>595586</v>
       </c>
       <c r="B886" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C886" t="s">
         <v>28</v>
@@ -27356,10 +27351,10 @@
         <v>49046</v>
       </c>
       <c r="B887" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C887" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D887" s="1">
         <v>2367397</v>
@@ -27385,10 +27380,10 @@
         <v>766475</v>
       </c>
       <c r="B888" t="s">
+        <v>268</v>
+      </c>
+      <c r="C888" t="s">
         <v>269</v>
-      </c>
-      <c r="C888" t="s">
-        <v>270</v>
       </c>
       <c r="D888" s="1">
         <v>253315</v>
@@ -27414,10 +27409,10 @@
         <v>928344</v>
       </c>
       <c r="B889" t="s">
+        <v>285</v>
+      </c>
+      <c r="C889" t="s">
         <v>286</v>
-      </c>
-      <c r="C889" t="s">
-        <v>287</v>
       </c>
       <c r="D889" s="1">
         <v>8457</v>
@@ -27443,10 +27438,10 @@
         <v>896485</v>
       </c>
       <c r="B890" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C890" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D890" s="1">
         <v>114103</v>
@@ -27475,7 +27470,7 @@
         <v>181</v>
       </c>
       <c r="C891" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D891" s="1">
         <v>3772253</v>
@@ -27559,7 +27554,7 @@
         <v>979924</v>
       </c>
       <c r="B894" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C894" t="s">
         <v>36</v>
@@ -27588,10 +27583,10 @@
         <v>724495</v>
       </c>
       <c r="B895" t="s">
+        <v>272</v>
+      </c>
+      <c r="C895" t="s">
         <v>273</v>
-      </c>
-      <c r="C895" t="s">
-        <v>274</v>
       </c>
       <c r="D895" s="1">
         <v>33184</v>
@@ -27617,10 +27612,10 @@
         <v>497582</v>
       </c>
       <c r="B896" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C896" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D896" s="1">
         <v>309728</v>
@@ -27649,7 +27644,7 @@
         <v>184</v>
       </c>
       <c r="C897" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D897" s="1">
         <v>41934</v>
@@ -27675,7 +27670,7 @@
         <v>496331</v>
       </c>
       <c r="B898" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C898" t="s">
         <v>106</v>
@@ -27704,7 +27699,7 @@
         <v>800939</v>
       </c>
       <c r="B899" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C899" t="s">
         <v>198</v>
@@ -27791,10 +27786,10 @@
         <v>829280</v>
       </c>
       <c r="B902" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C902" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D902" s="1">
         <v>828631</v>
@@ -27849,10 +27844,10 @@
         <v>1013860</v>
       </c>
       <c r="B904" t="s">
+        <v>295</v>
+      </c>
+      <c r="C904" t="s">
         <v>297</v>
-      </c>
-      <c r="C904" t="s">
-        <v>299</v>
       </c>
       <c r="D904" s="1">
         <v>4979</v>
@@ -27881,7 +27876,7 @@
         <v>184</v>
       </c>
       <c r="C905" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D905" s="1">
         <v>58708</v>
@@ -27907,7 +27902,7 @@
         <v>595586</v>
       </c>
       <c r="B906" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C906" t="s">
         <v>28</v>
@@ -27936,10 +27931,10 @@
         <v>49046</v>
       </c>
       <c r="B907" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C907" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D907" s="1">
         <v>2828093</v>
@@ -27965,7 +27960,7 @@
         <v>744114</v>
       </c>
       <c r="B908" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C908" t="s">
         <v>91</v>
@@ -27994,10 +27989,10 @@
         <v>1037858</v>
       </c>
       <c r="B909" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C909" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D909" s="1">
         <v>3877</v>
@@ -28026,7 +28021,7 @@
         <v>181</v>
       </c>
       <c r="C910" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D910" s="1">
         <v>3193354</v>
@@ -28081,10 +28076,10 @@
         <v>928344</v>
       </c>
       <c r="B912" t="s">
+        <v>285</v>
+      </c>
+      <c r="C912" t="s">
         <v>286</v>
-      </c>
-      <c r="C912" t="s">
-        <v>287</v>
       </c>
       <c r="D912" s="1">
         <v>100886</v>
@@ -28110,10 +28105,10 @@
         <v>896485</v>
       </c>
       <c r="B913" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C913" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D913" s="1">
         <v>159744</v>
@@ -28139,10 +28134,10 @@
         <v>766475</v>
       </c>
       <c r="B914" t="s">
+        <v>268</v>
+      </c>
+      <c r="C914" t="s">
         <v>269</v>
-      </c>
-      <c r="C914" t="s">
-        <v>270</v>
       </c>
       <c r="D914" s="1">
         <v>354641</v>
@@ -28197,7 +28192,7 @@
         <v>800939</v>
       </c>
       <c r="B916" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C916" t="s">
         <v>198</v>
@@ -28255,10 +28250,10 @@
         <v>881180</v>
       </c>
       <c r="B918" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C918" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D918" s="1">
         <v>4423</v>
@@ -28284,10 +28279,10 @@
         <v>724495</v>
       </c>
       <c r="B919" t="s">
+        <v>272</v>
+      </c>
+      <c r="C919" t="s">
         <v>273</v>
-      </c>
-      <c r="C919" t="s">
-        <v>274</v>
       </c>
       <c r="D919" s="1">
         <v>254725</v>
@@ -28313,10 +28308,10 @@
         <v>1036561</v>
       </c>
       <c r="B920" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C920" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D920" s="1">
         <v>4666</v>
@@ -28400,10 +28395,10 @@
         <v>1037858</v>
       </c>
       <c r="B923" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C923" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D923" s="1">
         <v>54278</v>
@@ -28429,7 +28424,7 @@
         <v>833097</v>
       </c>
       <c r="B924" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C924" t="s">
         <v>198</v>
@@ -28458,10 +28453,10 @@
         <v>1013860</v>
       </c>
       <c r="B925" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C925" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D925" s="1">
         <v>69706</v>
@@ -28490,7 +28485,7 @@
         <v>184</v>
       </c>
       <c r="C926" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D926" s="1">
         <v>82191</v>
@@ -28516,10 +28511,10 @@
         <v>948276</v>
       </c>
       <c r="B927" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C927" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D927" s="1">
         <v>93562</v>
@@ -28545,10 +28540,10 @@
         <v>49046</v>
       </c>
       <c r="B928" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C928" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D928" s="1">
         <v>281113</v>
@@ -28574,10 +28569,10 @@
         <v>676701</v>
       </c>
       <c r="B929" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C929" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D929" s="1">
         <v>179028</v>
@@ -28603,7 +28598,7 @@
         <v>595586</v>
       </c>
       <c r="B930" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C930" t="s">
         <v>28</v>
@@ -28632,10 +28627,10 @@
         <v>829280</v>
       </c>
       <c r="B931" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C931" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D931" s="1">
         <v>1160083</v>
@@ -28661,7 +28656,7 @@
         <v>744114</v>
       </c>
       <c r="B932" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C932" t="s">
         <v>91</v>
@@ -28690,10 +28685,10 @@
         <v>896485</v>
       </c>
       <c r="B933" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C933" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D933" s="1">
         <v>223642</v>
@@ -28722,7 +28717,7 @@
         <v>181</v>
       </c>
       <c r="C934" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D934" s="1">
         <v>2965677</v>
@@ -28748,10 +28743,10 @@
         <v>928344</v>
       </c>
       <c r="B935" t="s">
+        <v>285</v>
+      </c>
+      <c r="C935" t="s">
         <v>286</v>
-      </c>
-      <c r="C935" t="s">
-        <v>287</v>
       </c>
       <c r="D935" s="1">
         <v>76028</v>
@@ -28806,10 +28801,10 @@
         <v>766475</v>
       </c>
       <c r="B937" t="s">
+        <v>268</v>
+      </c>
+      <c r="C937" t="s">
         <v>269</v>
-      </c>
-      <c r="C937" t="s">
-        <v>270</v>
       </c>
       <c r="D937" s="1">
         <v>363756</v>
@@ -28835,10 +28830,10 @@
         <v>1036561</v>
       </c>
       <c r="B938" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C938" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D938" s="1">
         <v>6532</v>
@@ -28893,10 +28888,10 @@
         <v>881180</v>
       </c>
       <c r="B940" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C940" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D940" s="1">
         <v>6192</v>
@@ -28980,10 +28975,10 @@
         <v>948276</v>
       </c>
       <c r="B943" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C943" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D943" s="1">
         <v>130987</v>
@@ -29009,10 +29004,10 @@
         <v>664469</v>
       </c>
       <c r="B944" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C944" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D944" s="1">
         <v>4766</v>
@@ -29038,10 +29033,10 @@
         <v>829280</v>
       </c>
       <c r="B945" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C945" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D945" s="1">
         <v>1624116</v>
@@ -29067,7 +29062,7 @@
         <v>833097</v>
       </c>
       <c r="B946" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C946" t="s">
         <v>198</v>
@@ -29096,10 +29091,10 @@
         <v>1037858</v>
       </c>
       <c r="B947" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C947" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D947" s="1">
         <v>75989</v>
@@ -29125,10 +29120,10 @@
         <v>676701</v>
       </c>
       <c r="B948" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C948" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D948" s="1">
         <v>250639</v>
@@ -29154,7 +29149,7 @@
         <v>1040263</v>
       </c>
       <c r="B949" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C949" t="s">
         <v>93</v>
@@ -29183,10 +29178,10 @@
         <v>560052</v>
       </c>
       <c r="B950" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C950" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D950" s="1">
         <v>15798</v>
@@ -29212,10 +29207,10 @@
         <v>1013860</v>
       </c>
       <c r="B951" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C951" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D951" s="1">
         <v>97588</v>
@@ -29244,7 +29239,7 @@
         <v>184</v>
       </c>
       <c r="C952" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D952" s="1">
         <v>115067</v>
@@ -29270,10 +29265,10 @@
         <v>49046</v>
       </c>
       <c r="B953" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C953" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D953" s="1">
         <v>246737</v>
@@ -29302,7 +29297,7 @@
         <v>181</v>
       </c>
       <c r="C954" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D954" s="1">
         <v>3104938</v>
@@ -29415,10 +29410,10 @@
         <v>915831</v>
       </c>
       <c r="B958" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C958" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D958" s="1">
         <v>25819</v>
@@ -29444,10 +29439,10 @@
         <v>903939</v>
       </c>
       <c r="B959" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C959" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D959" s="1">
         <v>27626</v>
@@ -29473,7 +29468,7 @@
         <v>595586</v>
       </c>
       <c r="B960" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C960" t="s">
         <v>28</v>
@@ -29502,10 +29497,10 @@
         <v>706503</v>
       </c>
       <c r="B961" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C961" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D961" s="1">
         <v>27321</v>
@@ -29560,10 +29555,10 @@
         <v>664469</v>
       </c>
       <c r="B963" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C963" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D963" s="1">
         <v>66724</v>
@@ -29589,10 +29584,10 @@
         <v>948276</v>
       </c>
       <c r="B964" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C964" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D964" s="1">
         <v>183382</v>
@@ -29618,10 +29613,10 @@
         <v>560052</v>
       </c>
       <c r="B965" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C965" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D965" s="1">
         <v>22117</v>
@@ -29647,10 +29642,10 @@
         <v>829280</v>
       </c>
       <c r="B966" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C966" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D966" s="1">
         <v>2273762</v>
@@ -29676,7 +29671,7 @@
         <v>833097</v>
       </c>
       <c r="B967" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C967" t="s">
         <v>198</v>
@@ -29705,10 +29700,10 @@
         <v>676701</v>
       </c>
       <c r="B968" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C968" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D968" s="1">
         <v>350895</v>
@@ -29737,7 +29732,7 @@
         <v>181</v>
       </c>
       <c r="C969" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D969" s="1">
         <v>3157143</v>
@@ -29763,10 +29758,10 @@
         <v>1037858</v>
       </c>
       <c r="B970" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C970" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D970" s="1">
         <v>106385</v>
@@ -29792,7 +29787,7 @@
         <v>1040263</v>
       </c>
       <c r="B971" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C971" t="s">
         <v>93</v>
@@ -29821,10 +29816,10 @@
         <v>915831</v>
       </c>
       <c r="B972" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C972" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D972" s="1">
         <v>36147</v>
@@ -29850,10 +29845,10 @@
         <v>1013860</v>
       </c>
       <c r="B973" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C973" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D973" s="1">
         <v>136623</v>
@@ -29879,10 +29874,10 @@
         <v>49046</v>
       </c>
       <c r="B974" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C974" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D974" s="1">
         <v>234074</v>
@@ -29908,10 +29903,10 @@
         <v>829799</v>
       </c>
       <c r="B975" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C975" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D975" s="1">
         <v>61681</v>
@@ -29969,7 +29964,7 @@
         <v>184</v>
       </c>
       <c r="C977" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D977" s="1">
         <v>161094</v>
@@ -30024,7 +30019,7 @@
         <v>1018647</v>
       </c>
       <c r="B979" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C979" t="s">
         <v>26</v>
@@ -30053,10 +30048,10 @@
         <v>903939</v>
       </c>
       <c r="B980" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C980" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D980" s="1">
         <v>38676</v>
@@ -30140,10 +30135,10 @@
         <v>664469</v>
       </c>
       <c r="B983" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C983" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D983" s="1">
         <v>93414</v>
@@ -30169,10 +30164,10 @@
         <v>948276</v>
       </c>
       <c r="B984" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C984" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D984" s="1">
         <v>256735</v>
@@ -30198,7 +30193,7 @@
         <v>842934</v>
       </c>
       <c r="B985" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C985" t="s">
         <v>36</v>
@@ -30227,10 +30222,10 @@
         <v>560052</v>
       </c>
       <c r="B986" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C986" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D986" s="1">
         <v>30964</v>
@@ -30256,7 +30251,7 @@
         <v>833097</v>
       </c>
       <c r="B987" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C987" t="s">
         <v>198</v>
@@ -30288,7 +30283,7 @@
         <v>181</v>
       </c>
       <c r="C988" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D988" s="1">
         <v>3779941</v>
@@ -30314,10 +30309,10 @@
         <v>829280</v>
       </c>
       <c r="B989" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C989" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D989" s="1">
         <v>3183267</v>
@@ -30343,10 +30338,10 @@
         <v>1037858</v>
       </c>
       <c r="B990" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C990" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D990" s="1">
         <v>148939</v>
@@ -30372,7 +30367,7 @@
         <v>1040263</v>
       </c>
       <c r="B991" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C991" t="s">
         <v>93</v>
@@ -30401,10 +30396,10 @@
         <v>829799</v>
       </c>
       <c r="B992" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C992" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D992" s="1">
         <v>86353</v>
@@ -30430,10 +30425,10 @@
         <v>915831</v>
       </c>
       <c r="B993" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C993" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D993" s="1">
         <v>50606</v>
@@ -30517,10 +30512,10 @@
         <v>1013860</v>
       </c>
       <c r="B996" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C996" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D996" s="1">
         <v>149946</v>
@@ -30546,10 +30541,10 @@
         <v>676701</v>
       </c>
       <c r="B997" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C997" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D997" s="1">
         <v>491253</v>
@@ -30604,10 +30599,10 @@
         <v>49046</v>
       </c>
       <c r="B999" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C999" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D999" s="1">
         <v>2642131</v>
@@ -30636,7 +30631,7 @@
         <v>184</v>
       </c>
       <c r="C1000" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D1000" s="1">
         <v>225532</v>
@@ -30662,7 +30657,7 @@
         <v>1018647</v>
       </c>
       <c r="B1001" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C1001" t="s">
         <v>26</v>
@@ -30720,10 +30715,10 @@
         <v>664469</v>
       </c>
       <c r="B1003" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C1003" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D1003" s="1">
         <v>13078</v>
@@ -30749,7 +30744,7 @@
         <v>842934</v>
       </c>
       <c r="B1004" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C1004" t="s">
         <v>155</v>
@@ -30778,10 +30773,10 @@
         <v>560052</v>
       </c>
       <c r="B1005" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C1005" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D1005" s="1">
         <v>4335</v>
@@ -30807,10 +30802,10 @@
         <v>948276</v>
       </c>
       <c r="B1006" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C1006" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D1006" s="1">
         <v>359429</v>
@@ -30836,7 +30831,7 @@
         <v>833097</v>
       </c>
       <c r="B1007" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C1007" t="s">
         <v>198</v>
@@ -30865,10 +30860,10 @@
         <v>829280</v>
       </c>
       <c r="B1008" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C1008" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1008" s="1">
         <v>4081058</v>
@@ -30894,10 +30889,10 @@
         <v>829799</v>
       </c>
       <c r="B1009" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C1009" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D1009" s="1">
         <v>120333</v>
@@ -30926,7 +30921,7 @@
         <v>181</v>
       </c>
       <c r="C1010" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D1010" s="1">
         <v>4328431</v>
@@ -30952,10 +30947,10 @@
         <v>915831</v>
       </c>
       <c r="B1011" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C1011" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D1011" s="1">
         <v>70434</v>
@@ -30981,10 +30976,10 @@
         <v>676701</v>
       </c>
       <c r="B1012" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C1012" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D1012" s="1">
         <v>687754</v>
@@ -31010,10 +31005,10 @@
         <v>1013860</v>
       </c>
       <c r="B1013" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C1013" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D1013" s="1">
         <v>160838</v>
@@ -31039,7 +31034,7 @@
         <v>1040263</v>
       </c>
       <c r="B1014" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C1014" t="s">
         <v>93</v>
@@ -31126,10 +31121,10 @@
         <v>1037858</v>
       </c>
       <c r="B1017" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C1017" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D1017" s="1">
         <v>208515</v>
@@ -31155,7 +31150,7 @@
         <v>1018647</v>
       </c>
       <c r="B1018" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C1018" t="s">
         <v>26</v>
@@ -31213,10 +31208,10 @@
         <v>49046</v>
       </c>
       <c r="B1020" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C1020" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D1020" s="1">
         <v>3142726</v>
@@ -31245,7 +31240,7 @@
         <v>83</v>
       </c>
       <c r="C1021" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D1021" s="1">
         <v>716107</v>
@@ -31329,10 +31324,10 @@
         <v>664469</v>
       </c>
       <c r="B1024" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C1024" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D1024" s="1">
         <v>183092</v>
@@ -31358,10 +31353,10 @@
         <v>817758</v>
       </c>
       <c r="B1025" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C1025" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D1025" s="1">
         <v>24627</v>
@@ -31387,7 +31382,7 @@
         <v>842934</v>
       </c>
       <c r="B1026" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C1026" t="s">
         <v>155</v>
@@ -31416,10 +31411,10 @@
         <v>948276</v>
       </c>
       <c r="B1027" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C1027" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D1027" s="1">
         <v>503201</v>
@@ -31445,10 +31440,10 @@
         <v>560052</v>
       </c>
       <c r="B1028" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C1028" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D1028" s="1">
         <v>6069</v>
@@ -31474,7 +31469,7 @@
         <v>833097</v>
       </c>
       <c r="B1029" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C1029" t="s">
         <v>198</v>
@@ -31503,10 +31498,10 @@
         <v>829799</v>
       </c>
       <c r="B1030" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C1030" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D1030" s="1">
         <v>168466</v>
@@ -31532,10 +31527,10 @@
         <v>829280</v>
       </c>
       <c r="B1031" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C1031" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1031" s="1">
         <v>3224502</v>
@@ -31561,10 +31556,10 @@
         <v>1013860</v>
       </c>
       <c r="B1032" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C1032" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D1032" s="1">
         <v>225173</v>
@@ -31590,7 +31585,7 @@
         <v>1040263</v>
       </c>
       <c r="B1033" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C1033" t="s">
         <v>93</v>
@@ -31622,7 +31617,7 @@
         <v>181</v>
       </c>
       <c r="C1034" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D1034" s="1">
         <v>3660328</v>
@@ -31677,10 +31672,10 @@
         <v>844396</v>
       </c>
       <c r="B1036" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C1036" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D1036" s="1">
         <v>24238</v>
@@ -31735,10 +31730,10 @@
         <v>915831</v>
       </c>
       <c r="B1038" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C1038" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D1038" s="1">
         <v>98608</v>
@@ -31764,7 +31759,7 @@
         <v>979924</v>
       </c>
       <c r="B1039" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C1039" t="s">
         <v>36</v>
@@ -31793,10 +31788,10 @@
         <v>676701</v>
       </c>
       <c r="B1040" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C1040" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D1040" s="1">
         <v>962856</v>
@@ -31822,10 +31817,10 @@
         <v>707103</v>
       </c>
       <c r="B1041" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C1041" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D1041" s="1">
         <v>15063</v>
@@ -31912,7 +31907,7 @@
         <v>181</v>
       </c>
       <c r="C1044" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D1044" s="1">
         <v>3164736</v>
@@ -31938,7 +31933,7 @@
         <v>823766</v>
       </c>
       <c r="B1045" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C1045" t="s">
         <v>18</v>
@@ -31967,10 +31962,10 @@
         <v>817758</v>
       </c>
       <c r="B1046" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C1046" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D1046" s="1">
         <v>34478</v>
@@ -31996,7 +31991,7 @@
         <v>842934</v>
       </c>
       <c r="B1047" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C1047" t="s">
         <v>155</v>
@@ -32025,10 +32020,10 @@
         <v>1018403</v>
       </c>
       <c r="B1048" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C1048" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D1048" s="1">
         <v>50064</v>
@@ -32054,10 +32049,10 @@
         <v>948276</v>
       </c>
       <c r="B1049" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C1049" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D1049" s="1">
         <v>704481</v>
@@ -32083,10 +32078,10 @@
         <v>829280</v>
       </c>
       <c r="B1050" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C1050" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1050" s="1">
         <v>2446024</v>
@@ -32112,10 +32107,10 @@
         <v>664469</v>
       </c>
       <c r="B1051" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C1051" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D1051" s="1">
         <v>256329</v>
@@ -32141,10 +32136,10 @@
         <v>560052</v>
       </c>
       <c r="B1052" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C1052" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D1052" s="1">
         <v>84966</v>
@@ -32170,10 +32165,10 @@
         <v>1013860</v>
       </c>
       <c r="B1053" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C1053" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D1053" s="1">
         <v>315242</v>
@@ -32228,10 +32223,10 @@
         <v>707103</v>
       </c>
       <c r="B1055" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C1055" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D1055" s="1">
         <v>21088</v>
@@ -32257,10 +32252,10 @@
         <v>829799</v>
       </c>
       <c r="B1056" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C1056" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D1056" s="1">
         <v>235852</v>
@@ -32286,7 +32281,7 @@
         <v>833097</v>
       </c>
       <c r="B1057" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C1057" t="s">
         <v>198</v>
@@ -32315,10 +32310,10 @@
         <v>49046</v>
       </c>
       <c r="B1058" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C1058" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D1058" s="1">
         <v>1760871</v>
@@ -32344,7 +32339,7 @@
         <v>979924</v>
       </c>
       <c r="B1059" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C1059" t="s">
         <v>36</v>
@@ -32402,7 +32397,7 @@
         <v>1040263</v>
       </c>
       <c r="B1061" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C1061" t="s">
         <v>93</v>
@@ -32434,7 +32429,7 @@
         <v>181</v>
       </c>
       <c r="C1062" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D1062" s="1">
         <v>4430.63</v>
@@ -32489,10 +32484,10 @@
         <v>823766</v>
       </c>
       <c r="B1064" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C1064" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D1064" s="1">
         <v>34076</v>
@@ -32518,10 +32513,10 @@
         <v>817758</v>
       </c>
       <c r="B1065" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C1065" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D1065" s="1">
         <v>48269</v>
@@ -32550,7 +32545,7 @@
         <v>119</v>
       </c>
       <c r="C1066" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D1066" s="1">
         <v>3419675</v>
@@ -32576,7 +32571,7 @@
         <v>936960</v>
       </c>
       <c r="B1067" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C1067" t="s">
         <v>198</v>
@@ -32605,10 +32600,10 @@
         <v>664469</v>
       </c>
       <c r="B1068" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C1068" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D1068" s="1">
         <v>358861</v>
@@ -32634,10 +32629,10 @@
         <v>1018403</v>
       </c>
       <c r="B1069" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C1069" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D1069" s="1">
         <v>70.09</v>
@@ -32663,10 +32658,10 @@
         <v>913129</v>
       </c>
       <c r="B1070" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C1070" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D1070" s="1">
         <v>5141</v>
@@ -32692,7 +32687,7 @@
         <v>579496</v>
       </c>
       <c r="B1071" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C1071" t="s">
         <v>225</v>
@@ -32750,10 +32745,10 @@
         <v>842934</v>
       </c>
       <c r="B1073" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C1073" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D1073" s="1">
         <v>83629</v>
@@ -32779,10 +32774,10 @@
         <v>929340</v>
       </c>
       <c r="B1074" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C1074" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D1074" s="1">
         <v>12.02</v>
@@ -32808,10 +32803,10 @@
         <v>707103</v>
       </c>
       <c r="B1075" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C1075" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D1075" s="1">
         <v>29523</v>
@@ -32837,10 +32832,10 @@
         <v>1013860</v>
       </c>
       <c r="B1076" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C1076" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D1076" s="1">
         <v>441339</v>
@@ -32866,7 +32861,7 @@
         <v>1034337</v>
       </c>
       <c r="B1077" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C1077" t="s">
         <v>64</v>
@@ -32895,10 +32890,10 @@
         <v>948276</v>
       </c>
       <c r="B1078" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C1078" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D1078" s="1">
         <v>986273</v>
@@ -32953,10 +32948,10 @@
         <v>829280</v>
       </c>
       <c r="B1080" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C1080" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1080" s="1">
         <v>1961331</v>
@@ -32982,7 +32977,7 @@
         <v>833097</v>
       </c>
       <c r="B1081" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C1081" t="s">
         <v>198</v>
@@ -33040,10 +33035,10 @@
         <v>823766</v>
       </c>
       <c r="B1083" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C1083" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D1083" s="1">
         <v>47.706000000000003</v>
@@ -33072,7 +33067,7 @@
         <v>181</v>
       </c>
       <c r="C1084" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D1084" s="1">
         <v>6202.8819999999996</v>
@@ -33101,7 +33096,7 @@
         <v>119</v>
       </c>
       <c r="C1085" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D1085" s="1">
         <v>3910.444</v>
@@ -33127,7 +33122,7 @@
         <v>632856</v>
       </c>
       <c r="B1086" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C1086" s="4" t="s">
         <v>58</v>
@@ -33156,10 +33151,10 @@
         <v>817758</v>
       </c>
       <c r="B1087" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C1087" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D1087" s="1">
         <v>67.576999999999998</v>
@@ -33185,7 +33180,7 @@
         <v>936960</v>
       </c>
       <c r="B1088" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C1088" s="4" t="s">
         <v>198</v>
@@ -33214,10 +33209,10 @@
         <v>664469</v>
       </c>
       <c r="B1089" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C1089" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D1089" s="1">
         <v>502.40499999999997</v>
@@ -33243,10 +33238,10 @@
         <v>929340</v>
       </c>
       <c r="B1090" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C1090" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D1090" s="1">
         <v>16.827999999999999</v>
@@ -33272,10 +33267,10 @@
         <v>1018403</v>
       </c>
       <c r="B1091" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C1091" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D1091" s="1">
         <v>98.126000000000005</v>
@@ -33301,10 +33296,10 @@
         <v>668461</v>
       </c>
       <c r="B1092" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C1092" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D1092" s="1">
         <v>58.3</v>
@@ -33330,10 +33325,10 @@
         <v>913129</v>
       </c>
       <c r="B1093" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C1093" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D1093" s="1">
         <v>7.1970000000000001</v>
@@ -33359,10 +33354,10 @@
         <v>338958</v>
       </c>
       <c r="B1094" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C1094" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D1094" s="1">
         <v>206.96199999999999</v>
@@ -33388,10 +33383,10 @@
         <v>842934</v>
       </c>
       <c r="B1095" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C1095" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D1095" s="1">
         <v>117.081</v>
@@ -33446,7 +33441,7 @@
         <v>802372</v>
       </c>
       <c r="B1097" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C1097" s="4" t="s">
         <v>58</v>
@@ -33475,7 +33470,7 @@
         <v>579496</v>
       </c>
       <c r="B1098" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C1098" s="4" t="s">
         <v>225</v>
@@ -33504,10 +33499,10 @@
         <v>1013860</v>
       </c>
       <c r="B1099" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C1099" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D1099" s="1">
         <v>617.875</v>
@@ -33533,10 +33528,10 @@
         <v>948276</v>
       </c>
       <c r="B1100" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C1100" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D1100" s="1">
         <v>1380.7819999999999</v>
@@ -33562,7 +33557,7 @@
         <v>1034337</v>
       </c>
       <c r="B1101" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C1101" s="4" t="s">
         <v>64</v>
@@ -33591,10 +33586,10 @@
         <v>338958</v>
       </c>
       <c r="B1102" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C1102" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D1102" s="1">
         <v>405.64600000000002</v>
@@ -33620,10 +33615,10 @@
         <v>668461</v>
       </c>
       <c r="B1103" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C1103" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D1103" s="1">
         <v>114.268</v>
@@ -33649,7 +33644,7 @@
         <v>632856</v>
       </c>
       <c r="B1104" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C1104" t="s">
         <v>58</v>
@@ -33681,7 +33676,7 @@
         <v>181</v>
       </c>
       <c r="C1105" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D1105" s="1">
         <v>12157.648999999999</v>
@@ -33736,7 +33731,7 @@
         <v>823766</v>
       </c>
       <c r="B1107" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C1107" t="s">
         <v>157</v>
@@ -33768,7 +33763,7 @@
         <v>119</v>
       </c>
       <c r="C1108" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D1108" s="1">
         <v>4162.7370000000001</v>
@@ -33794,7 +33789,7 @@
         <v>802372</v>
       </c>
       <c r="B1109" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C1109" t="s">
         <v>58</v>
@@ -33823,7 +33818,7 @@
         <v>457232</v>
       </c>
       <c r="B1110" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C1110" t="s">
         <v>28</v>
@@ -33852,10 +33847,10 @@
         <v>929340</v>
       </c>
       <c r="B1111" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C1111" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D1111" s="1">
         <v>23.559000000000001</v>
@@ -33881,7 +33876,7 @@
         <v>936960</v>
       </c>
       <c r="B1112" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C1112" t="s">
         <v>198</v>
@@ -33910,10 +33905,10 @@
         <v>754452</v>
       </c>
       <c r="B1113" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C1113" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D1113" s="1">
         <v>70.349000000000004</v>
@@ -33939,10 +33934,10 @@
         <v>817758</v>
       </c>
       <c r="B1114" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C1114" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D1114" s="1">
         <v>132.45099999999999</v>
@@ -33968,10 +33963,10 @@
         <v>939210</v>
       </c>
       <c r="B1115" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C1115" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D1115" s="1">
         <v>51.759</v>
@@ -34000,7 +33995,7 @@
         <v>83</v>
       </c>
       <c r="C1116" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D1116" s="1">
         <v>438.375</v>
@@ -34026,10 +34021,10 @@
         <v>664469</v>
       </c>
       <c r="B1117" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C1117" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D1117" s="1">
         <v>343.73</v>
@@ -34055,10 +34050,10 @@
         <v>829280</v>
       </c>
       <c r="B1118" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C1118" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1118" s="1">
         <v>1948.1969999999999</v>
@@ -34084,10 +34079,10 @@
         <v>1018403</v>
       </c>
       <c r="B1119" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C1119" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D1119" s="1">
         <v>137.376</v>
@@ -34142,10 +34137,10 @@
         <v>593643</v>
       </c>
       <c r="B1121" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C1121" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D1121" s="1">
         <v>228.57499999999999</v>
@@ -34171,10 +34166,10 @@
         <v>338958</v>
       </c>
       <c r="B1122" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C1122" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D1122" s="1">
         <v>567.904</v>
@@ -34200,10 +34195,10 @@
         <v>668461</v>
       </c>
       <c r="B1123" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C1123" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D1123" s="1">
         <v>159.97499999999999</v>
@@ -34229,7 +34224,7 @@
         <v>632856</v>
       </c>
       <c r="B1124" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C1124" t="s">
         <v>58</v>
@@ -34261,7 +34256,7 @@
         <v>181</v>
       </c>
       <c r="C1125" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D1125" s="1">
         <v>17020.708999999999</v>
@@ -34316,7 +34311,7 @@
         <v>823766</v>
       </c>
       <c r="B1127" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C1127" t="s">
         <v>157</v>
@@ -34345,7 +34340,7 @@
         <v>802372</v>
       </c>
       <c r="B1128" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C1128" t="s">
         <v>58</v>
@@ -34374,7 +34369,7 @@
         <v>457232</v>
       </c>
       <c r="B1129" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C1129" t="s">
         <v>28</v>
@@ -34406,7 +34401,7 @@
         <v>119</v>
       </c>
       <c r="C1130" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D1130" s="1">
         <v>4674.4369999999999</v>
@@ -34432,7 +34427,7 @@
         <v>936960</v>
       </c>
       <c r="B1131" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C1131" t="s">
         <v>198</v>
@@ -34490,10 +34485,10 @@
         <v>929340</v>
       </c>
       <c r="B1133" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C1133" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D1133" s="1">
         <v>46.176000000000002</v>
@@ -34522,7 +34517,7 @@
         <v>83</v>
       </c>
       <c r="C1134" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D1134" s="1">
         <v>566.32100000000003</v>
@@ -34548,10 +34543,10 @@
         <v>754452</v>
       </c>
       <c r="B1135" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C1135" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D1135" s="1">
         <v>98.489000000000004</v>
@@ -34577,10 +34572,10 @@
         <v>593643</v>
       </c>
       <c r="B1136" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C1136" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D1136" s="1">
         <v>259.17500000000001</v>
@@ -34606,10 +34601,10 @@
         <v>939210</v>
       </c>
       <c r="B1137" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C1137" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D1137" s="1">
         <v>101.44799999999999</v>
@@ -34635,10 +34630,10 @@
         <v>829280</v>
       </c>
       <c r="B1138" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C1138" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1138" s="1">
         <v>2096.3609999999999</v>
@@ -34664,10 +34659,10 @@
         <v>817758</v>
       </c>
       <c r="B1139" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C1139" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D1139" s="1">
         <v>185.43100000000001</v>
@@ -34754,7 +34749,7 @@
         <v>181</v>
       </c>
       <c r="C1142" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D1142" s="1">
         <v>22201.949000000001</v>
@@ -34780,10 +34775,10 @@
         <v>724495</v>
       </c>
       <c r="B1143" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1143" t="s">
         <v>273</v>
-      </c>
-      <c r="C1143" t="s">
-        <v>274</v>
       </c>
       <c r="D1143" s="1">
         <v>296.52300000000002</v>
@@ -34809,10 +34804,10 @@
         <v>338958</v>
       </c>
       <c r="B1144" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C1144" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D1144" s="1">
         <v>1113.0920000000001</v>
@@ -34838,10 +34833,10 @@
         <v>830784</v>
       </c>
       <c r="B1145" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C1145" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D1145" s="1">
         <v>269.87700000000001</v>
@@ -34867,10 +34862,10 @@
         <v>668461</v>
       </c>
       <c r="B1146" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C1146" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D1146" s="1">
         <v>313.55099999999999</v>
@@ -34925,7 +34920,7 @@
         <v>497828</v>
       </c>
       <c r="B1148" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C1148" t="s">
         <v>58</v>
@@ -34954,7 +34949,7 @@
         <v>632856</v>
       </c>
       <c r="B1149" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C1149" t="s">
         <v>58</v>
@@ -34983,7 +34978,7 @@
         <v>615952</v>
       </c>
       <c r="B1150" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C1150" t="s">
         <v>28</v>
@@ -35012,10 +35007,10 @@
         <v>76600</v>
       </c>
       <c r="B1151" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1151" t="s">
         <v>276</v>
-      </c>
-      <c r="C1151" t="s">
-        <v>277</v>
       </c>
       <c r="D1151" s="1">
         <v>740.07899999999995</v>
@@ -35041,7 +35036,7 @@
         <v>1049233</v>
       </c>
       <c r="B1152" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C1152" t="s">
         <v>38</v>
@@ -35070,7 +35065,7 @@
         <v>854239</v>
       </c>
       <c r="B1153" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C1153" t="s">
         <v>28</v>
@@ -35099,7 +35094,7 @@
         <v>823766</v>
       </c>
       <c r="B1154" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C1154" t="s">
         <v>157</v>
@@ -35128,7 +35123,7 @@
         <v>802372</v>
       </c>
       <c r="B1155" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C1155" t="s">
         <v>58</v>
@@ -35157,7 +35152,7 @@
         <v>821881</v>
       </c>
       <c r="B1156" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C1156" t="s">
         <v>225</v>
@@ -35189,7 +35184,7 @@
         <v>119</v>
       </c>
       <c r="C1157" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D1157" s="1">
         <v>2837.2829999999999</v>
@@ -35215,7 +35210,7 @@
         <v>457232</v>
       </c>
       <c r="B1158" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C1158" t="s">
         <v>28</v>
@@ -35244,10 +35239,10 @@
         <v>1038627</v>
       </c>
       <c r="B1159" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C1159" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D1159" s="1">
         <v>36.863</v>
@@ -35273,10 +35268,10 @@
         <v>877269</v>
       </c>
       <c r="B1160" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C1160" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D1160" s="1">
         <v>280.93900000000002</v>
@@ -35302,10 +35297,10 @@
         <v>593643</v>
       </c>
       <c r="B1161" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C1161" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D1161" s="1">
         <v>507.983</v>
@@ -35334,7 +35329,7 @@
         <v>181</v>
       </c>
       <c r="C1162" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D1162" s="1">
         <v>17944.112000000001</v>
@@ -35360,10 +35355,10 @@
         <v>830784</v>
       </c>
       <c r="B1163" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C1163" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D1163" s="1">
         <v>458.30700000000002</v>
@@ -35389,10 +35384,10 @@
         <v>724495</v>
       </c>
       <c r="B1164" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1164" t="s">
         <v>273</v>
-      </c>
-      <c r="C1164" t="s">
-        <v>274</v>
       </c>
       <c r="D1164" s="1">
         <v>581.18499999999995</v>
@@ -35418,7 +35413,7 @@
         <v>615952</v>
       </c>
       <c r="B1165" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C1165" t="s">
         <v>28</v>
@@ -35447,7 +35442,7 @@
         <v>1049233</v>
       </c>
       <c r="B1166" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C1166" t="s">
         <v>38</v>
@@ -35476,7 +35471,7 @@
         <v>821881</v>
       </c>
       <c r="B1167" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C1167" t="s">
         <v>225</v>
@@ -35534,10 +35529,10 @@
         <v>338958</v>
       </c>
       <c r="B1169" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C1169" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D1169" s="1">
         <v>2181.6610000000001</v>
@@ -35563,10 +35558,10 @@
         <v>1038627</v>
       </c>
       <c r="B1170" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C1170" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D1170" s="1">
         <v>51.607999999999997</v>
@@ -35592,10 +35587,10 @@
         <v>736918</v>
       </c>
       <c r="B1171" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C1171" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D1171" s="1">
         <v>52.081000000000003</v>
@@ -35621,10 +35616,10 @@
         <v>668461</v>
       </c>
       <c r="B1172" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C1172" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D1172" s="1">
         <v>614.55899999999997</v>
@@ -35650,7 +35645,7 @@
         <v>632856</v>
       </c>
       <c r="B1173" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C1173" t="s">
         <v>58</v>
@@ -35679,7 +35674,7 @@
         <v>497828</v>
       </c>
       <c r="B1174" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C1174" t="s">
         <v>58</v>
@@ -35708,7 +35703,7 @@
         <v>854239</v>
       </c>
       <c r="B1175" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C1175" t="s">
         <v>28</v>
@@ -35737,7 +35732,7 @@
         <v>1044043</v>
       </c>
       <c r="B1176" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C1176" t="s">
         <v>58</v>
@@ -35766,10 +35761,10 @@
         <v>76600</v>
       </c>
       <c r="B1177" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1177" t="s">
         <v>276</v>
-      </c>
-      <c r="C1177" t="s">
-        <v>277</v>
       </c>
       <c r="D1177" s="1">
         <v>755.36199999999997</v>
@@ -35824,10 +35819,10 @@
         <v>877269</v>
       </c>
       <c r="B1179" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C1179" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D1179" s="1">
         <v>280.76900000000001</v>
@@ -35853,7 +35848,7 @@
         <v>823766</v>
       </c>
       <c r="B1180" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C1180" t="s">
         <v>157</v>
@@ -35885,7 +35880,7 @@
         <v>119</v>
       </c>
       <c r="C1181" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D1181" s="1">
         <v>2300.9520000000002</v>
@@ -35911,10 +35906,10 @@
         <v>774752</v>
       </c>
       <c r="B1182" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C1182" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D1182" s="1">
         <v>140.459</v>
@@ -35943,7 +35938,7 @@
         <v>181</v>
       </c>
       <c r="C1183" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D1183" s="1">
         <v>16093.223</v>
@@ -35969,10 +35964,10 @@
         <v>830784</v>
       </c>
       <c r="B1184" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C1184" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D1184" s="1">
         <v>641.63</v>
@@ -35998,10 +35993,10 @@
         <v>724495</v>
       </c>
       <c r="B1185" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1185" t="s">
         <v>273</v>
-      </c>
-      <c r="C1185" t="s">
-        <v>274</v>
       </c>
       <c r="D1185" s="1">
         <v>813.65899999999999</v>
@@ -36027,7 +36022,7 @@
         <v>1049233</v>
       </c>
       <c r="B1186" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C1186" t="s">
         <v>38</v>
@@ -36056,10 +36051,10 @@
         <v>736918</v>
       </c>
       <c r="B1187" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C1187" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D1187" s="1">
         <v>72.912999999999997</v>
@@ -36114,10 +36109,10 @@
         <v>338958</v>
       </c>
       <c r="B1189" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C1189" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D1189" s="1">
         <v>3054.3249999999998</v>
@@ -36146,7 +36141,7 @@
         <v>84</v>
       </c>
       <c r="C1190" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D1190" s="1">
         <v>40559</v>
@@ -36172,10 +36167,10 @@
         <v>1006917</v>
       </c>
       <c r="B1191" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C1191" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D1191" s="1">
         <v>5.2469999999999999</v>
@@ -36201,7 +36196,7 @@
         <v>632856</v>
       </c>
       <c r="B1192" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C1192" t="s">
         <v>58</v>
@@ -36230,10 +36225,10 @@
         <v>668461</v>
       </c>
       <c r="B1193" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C1193" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D1193" s="1">
         <v>860.38300000000004</v>
@@ -36259,7 +36254,7 @@
         <v>615952</v>
       </c>
       <c r="B1194" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C1194" t="s">
         <v>28</v>
@@ -36288,10 +36283,10 @@
         <v>1038627</v>
       </c>
       <c r="B1195" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C1195" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D1195" s="1">
         <v>101.151</v>
@@ -36317,10 +36312,10 @@
         <v>987919</v>
       </c>
       <c r="B1196" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C1196" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D1196" s="1">
         <v>99.632000000000005</v>
@@ -36346,7 +36341,7 @@
         <v>497828</v>
       </c>
       <c r="B1197" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C1197" t="s">
         <v>58</v>
@@ -36375,10 +36370,10 @@
         <v>76600</v>
       </c>
       <c r="B1198" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1198" t="s">
         <v>276</v>
-      </c>
-      <c r="C1198" t="s">
-        <v>277</v>
       </c>
       <c r="D1198" s="1">
         <v>715.73099999999999</v>
@@ -36404,10 +36399,10 @@
         <v>987919</v>
       </c>
       <c r="B1199" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C1199" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D1199" s="1">
         <v>99.632000000000005</v>
@@ -36433,7 +36428,7 @@
         <v>821881</v>
       </c>
       <c r="B1200" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C1200" t="s">
         <v>225</v>
@@ -36462,7 +36457,7 @@
         <v>497828</v>
       </c>
       <c r="B1201" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C1201" t="s">
         <v>58</v>
@@ -36494,7 +36489,7 @@
         <v>181</v>
       </c>
       <c r="C1202" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D1202" s="1">
         <v>15075.276</v>
@@ -36520,10 +36515,10 @@
         <v>1013860</v>
       </c>
       <c r="B1203" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C1203" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D1203" s="1">
         <v>6040.3879999999999</v>
@@ -36549,10 +36544,10 @@
         <v>338958</v>
       </c>
       <c r="B1204" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C1204" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D1204" s="1">
         <v>3316.598</v>
@@ -36578,10 +36573,10 @@
         <v>988233</v>
       </c>
       <c r="B1205" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C1205" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D1205" s="1">
         <v>2649.7350000000001</v>
@@ -36607,10 +36602,10 @@
         <v>829799</v>
       </c>
       <c r="B1206" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C1206" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D1206" s="1">
         <v>2757.3290000000002</v>
@@ -36668,7 +36663,7 @@
         <v>119</v>
       </c>
       <c r="C1208" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D1208" s="1">
         <v>2103.3879999999999</v>
@@ -36697,7 +36692,7 @@
         <v>184</v>
       </c>
       <c r="C1209" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D1209" s="1">
         <v>2489.7049999999999</v>
@@ -36752,10 +36747,10 @@
         <v>966220</v>
       </c>
       <c r="B1211" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C1211" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D1211" s="1">
         <v>2373.71</v>
@@ -36781,10 +36776,10 @@
         <v>948276</v>
       </c>
       <c r="B1212" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C1212" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D1212" s="1">
         <v>1984.403</v>
@@ -36810,10 +36805,10 @@
         <v>899294</v>
       </c>
       <c r="B1213" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C1213" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D1213" s="1">
         <v>1675.71</v>
@@ -36839,10 +36834,10 @@
         <v>846778</v>
       </c>
       <c r="B1214" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C1214" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D1214" s="1">
         <v>1600.577</v>
@@ -36868,10 +36863,10 @@
         <v>829280</v>
       </c>
       <c r="B1215" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C1215" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1215" s="1">
         <v>1589.105</v>
@@ -36897,7 +36892,7 @@
         <v>979924</v>
       </c>
       <c r="B1216" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C1216" t="s">
         <v>36</v>
@@ -36926,10 +36921,10 @@
         <v>676701</v>
       </c>
       <c r="B1217" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C1217" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D1217" s="1">
         <v>1349.538</v>
@@ -36955,10 +36950,10 @@
         <v>1037858</v>
       </c>
       <c r="B1218" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C1218" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D1218" s="1">
         <v>1471.616</v>
@@ -36984,10 +36979,10 @@
         <v>872177</v>
       </c>
       <c r="B1219" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C1219" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D1219" s="1">
         <v>1552.3889999999999</v>
@@ -37042,10 +37037,10 @@
         <v>1018403</v>
       </c>
       <c r="B1221" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C1221" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D1221" s="1">
         <v>1330.3710000000001</v>
@@ -37067,6 +37062,27 @@
       </c>
     </row>
     <row r="1222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1222">
+        <v>436270</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1222" s="1">
+        <v>17030.072</v>
+      </c>
+      <c r="E1222" s="2">
+        <v>44853</v>
+      </c>
+      <c r="F1222" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="G1222" s="1">
+        <v>1996</v>
+      </c>
       <c r="H1222" s="2">
         <v>44893</v>
       </c>
@@ -37075,6 +37091,27 @@
       </c>
     </row>
     <row r="1223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1223">
+        <v>1013860</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1223" s="1">
+        <v>6521.4350000000004</v>
+      </c>
+      <c r="E1223" s="2">
+        <v>44880</v>
+      </c>
+      <c r="F1223" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="G1223" s="1">
+        <v>162</v>
+      </c>
       <c r="H1223" s="2">
         <v>44893</v>
       </c>
@@ -37083,6 +37120,27 @@
       </c>
     </row>
     <row r="1224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1224">
+        <v>988233</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1224" s="1">
+        <v>3709.6289999999999</v>
+      </c>
+      <c r="E1224" s="2">
+        <v>44866</v>
+      </c>
+      <c r="F1224" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="G1224" s="1">
+        <v>5</v>
+      </c>
       <c r="H1224" s="2">
         <v>44893</v>
       </c>
@@ -37091,6 +37149,27 @@
       </c>
     </row>
     <row r="1225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1225">
+        <v>829799</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1225" s="1">
+        <v>3860.261</v>
+      </c>
+      <c r="E1225" s="2">
+        <v>44876</v>
+      </c>
+      <c r="F1225" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="G1225" s="1">
+        <v>17</v>
+      </c>
       <c r="H1225" s="2">
         <v>44893</v>
       </c>
@@ -37099,6 +37178,27 @@
       </c>
     </row>
     <row r="1226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1226">
+        <v>338958</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>356</v>
+      </c>
+      <c r="D1226" s="1">
+        <v>3475.1439999999998</v>
+      </c>
+      <c r="E1226" s="2">
+        <v>44881</v>
+      </c>
+      <c r="F1226" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="G1226" s="1">
+        <v>380</v>
+      </c>
       <c r="H1226" s="2">
         <v>44893</v>
       </c>
@@ -37107,6 +37207,27 @@
       </c>
     </row>
     <row r="1227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1227">
+        <v>505642</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1227" s="1">
+        <v>2952.9360000000001</v>
+      </c>
+      <c r="E1227" s="2">
+        <v>44874</v>
+      </c>
+      <c r="F1227" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="G1227" s="1">
+        <v>1039</v>
+      </c>
       <c r="H1227" s="2">
         <v>44893</v>
       </c>
@@ -37115,6 +37236,27 @@
       </c>
     </row>
     <row r="1228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1228">
+        <v>862965</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1228" s="1">
+        <v>2785.674</v>
+      </c>
+      <c r="E1228" s="2">
+        <v>44785</v>
+      </c>
+      <c r="F1228" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="G1228" s="1">
+        <v>202</v>
+      </c>
       <c r="H1228" s="2">
         <v>44893</v>
       </c>
@@ -37123,6 +37265,27 @@
       </c>
     </row>
     <row r="1229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1229">
+        <v>966220</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>376</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>395</v>
+      </c>
+      <c r="D1229" s="1">
+        <v>2573.4470000000001</v>
+      </c>
+      <c r="E1229" s="2">
+        <v>44684</v>
+      </c>
+      <c r="F1229" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="G1229" s="1">
+        <v>128</v>
+      </c>
       <c r="H1229" s="2">
         <v>44893</v>
       </c>
@@ -37131,6 +37294,27 @@
       </c>
     </row>
     <row r="1230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1230">
+        <v>979924</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1230" s="1">
+        <v>2535.9349999999999</v>
+      </c>
+      <c r="E1230" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F1230" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="G1230" s="1">
+        <v>145</v>
+      </c>
       <c r="H1230" s="2">
         <v>44893</v>
       </c>
@@ -37139,6 +37323,27 @@
       </c>
     </row>
     <row r="1231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1231">
+        <v>551271</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>298</v>
+      </c>
+      <c r="D1231" s="1">
+        <v>2563.7930000000001</v>
+      </c>
+      <c r="E1231" s="2">
+        <v>44812</v>
+      </c>
+      <c r="F1231" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="G1231" s="1">
+        <v>185</v>
+      </c>
       <c r="H1231" s="2">
         <v>44893</v>
       </c>
@@ -37147,6 +37352,27 @@
       </c>
     </row>
     <row r="1232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1232">
+        <v>899294</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>396</v>
+      </c>
+      <c r="D1232" s="1">
+        <v>2345.9940000000001</v>
+      </c>
+      <c r="E1232" s="2">
+        <v>44715</v>
+      </c>
+      <c r="F1232" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="G1232" s="1">
+        <v>35</v>
+      </c>
       <c r="H1232" s="2">
         <v>44893</v>
       </c>
@@ -37154,7 +37380,28 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1233" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="1233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1233">
+        <v>948276</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>308</v>
+      </c>
+      <c r="D1233" s="1">
+        <v>2778.1640000000002</v>
+      </c>
+      <c r="E1233" s="2">
+        <v>44875</v>
+      </c>
+      <c r="F1233" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="G1233" s="1">
+        <v>125</v>
+      </c>
       <c r="H1233" s="2">
         <v>44893</v>
       </c>
@@ -37162,7 +37409,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1234" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="1234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1234">
+        <v>882598</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>381</v>
+      </c>
+      <c r="D1234" s="1">
+        <v>2425.9490000000001</v>
+      </c>
+      <c r="E1234" s="2">
+        <v>44827</v>
+      </c>
+      <c r="F1234" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="G1234" s="1">
+        <v>922</v>
+      </c>
       <c r="H1234" s="2">
         <v>44893</v>
       </c>
@@ -37170,7 +37438,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1235" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="1235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1235">
+        <v>846778</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>378</v>
+      </c>
+      <c r="C1235" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1235" s="1">
+        <v>2240.808</v>
+      </c>
+      <c r="E1235" s="2">
+        <v>44813</v>
+      </c>
+      <c r="F1235" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="G1235" s="1">
+        <v>42</v>
+      </c>
       <c r="H1235" s="2">
         <v>44893</v>
       </c>
@@ -37178,7 +37467,28 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1236" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="1236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1236">
+        <v>1037858</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1236" s="1">
+        <v>1756.384</v>
+      </c>
+      <c r="E1236" s="2">
+        <v>44874</v>
+      </c>
+      <c r="F1236" s="1">
+        <v>7</v>
+      </c>
+      <c r="G1236" s="1">
+        <v>41</v>
+      </c>
       <c r="H1236" s="2">
         <v>44893</v>
       </c>
@@ -37186,7 +37496,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1237" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="1237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1237">
+        <v>872177</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>379</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>397</v>
+      </c>
+      <c r="D1237" s="1">
+        <v>2173.3449999999998</v>
+      </c>
+      <c r="E1237" s="2">
+        <v>44680</v>
+      </c>
+      <c r="F1237" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G1237" s="1">
+        <v>28</v>
+      </c>
       <c r="H1237" s="2">
         <v>44893</v>
       </c>
@@ -37194,7 +37525,28 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1238" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="1238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1238">
+        <v>668461</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1238" s="1">
+        <v>1686.35</v>
+      </c>
+      <c r="E1238" s="2">
+        <v>44874</v>
+      </c>
+      <c r="F1238" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1238" s="1">
+        <v>253</v>
+      </c>
       <c r="H1238" s="2">
         <v>44893</v>
       </c>
@@ -37202,7 +37554,28 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1239" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="1239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1239">
+        <v>1018403</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>337</v>
+      </c>
+      <c r="D1239" s="1">
+        <v>1711.627</v>
+      </c>
+      <c r="E1239" s="2">
+        <v>44810</v>
+      </c>
+      <c r="F1239" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1239" s="1">
+        <v>13</v>
+      </c>
       <c r="H1239" s="2">
         <v>44893</v>
       </c>
@@ -37210,7 +37583,28 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1240" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="1240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1240">
+        <v>829280</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1240" s="1">
+        <v>1635.7170000000001</v>
+      </c>
+      <c r="E1240" s="2">
+        <v>44869</v>
+      </c>
+      <c r="F1240" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="G1240" s="1">
+        <v>1144</v>
+      </c>
       <c r="H1240" s="2">
         <v>44893</v>
       </c>
@@ -37218,7 +37612,28 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1241" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="1241" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1241">
+        <v>724495</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1241" s="1">
+        <v>1594.7719999999999</v>
+      </c>
+      <c r="E1241" s="2">
+        <v>44819</v>
+      </c>
+      <c r="F1241" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="G1241" s="1">
+        <v>486</v>
+      </c>
       <c r="H1241" s="2">
         <v>44893</v>
       </c>
